--- a/CFLP/data.xlsx
+++ b/CFLP/data.xlsx
@@ -454,1102 +454,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49.38425923142208</v>
+        <v>-43.96914303531728</v>
       </c>
       <c r="B2" t="n">
-        <v>18.40091324269135</v>
+        <v>-61.22687385271433</v>
       </c>
       <c r="C2" t="n">
-        <v>64.17388429684374</v>
+        <v>66.57251866431425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-38.8776425007356</v>
+        <v>11.29600342663331</v>
       </c>
       <c r="B3" t="n">
-        <v>-90.70844558405018</v>
+        <v>-32.28969760189209</v>
       </c>
       <c r="C3" t="n">
-        <v>97.27189526101292</v>
+        <v>85.72409914048913</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-40.21151602083205</v>
+        <v>-89.71292511710367</v>
       </c>
       <c r="B4" t="n">
-        <v>51.15316059856389</v>
+        <v>65.2029643035971</v>
       </c>
       <c r="C4" t="n">
-        <v>57.63228983442752</v>
+        <v>71.49304220004002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55.38178471823847</v>
+        <v>-31.33134969276264</v>
       </c>
       <c r="B5" t="n">
-        <v>-86.85118534403053</v>
+        <v>1.970414050355107</v>
       </c>
       <c r="C5" t="n">
-        <v>89.89691757258227</v>
+        <v>74.49341907092793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-88.34213562529715</v>
+        <v>82.62784253115811</v>
       </c>
       <c r="B6" t="n">
-        <v>85.79678282185111</v>
+        <v>-46.92507153709035</v>
       </c>
       <c r="C6" t="n">
-        <v>78.7266242282579</v>
+        <v>73.58588197016853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-50.20431135550012</v>
+        <v>-83.75499620608268</v>
       </c>
       <c r="B7" t="n">
-        <v>14.9335187455986</v>
+        <v>-34.3021912200683</v>
       </c>
       <c r="C7" t="n">
-        <v>76.25771114190435</v>
+        <v>82.90055942554494</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-14.2959137334727</v>
+        <v>-6.812941687227092</v>
       </c>
       <c r="B8" t="n">
-        <v>20.46404600353087</v>
+        <v>15.09581337068601</v>
       </c>
       <c r="C8" t="n">
-        <v>68.58670021405511</v>
+        <v>82.10120237457821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-89.29142562670961</v>
+        <v>-31.22071344247966</v>
       </c>
       <c r="B9" t="n">
-        <v>6.698310456018064</v>
+        <v>81.09026394698169</v>
       </c>
       <c r="C9" t="n">
-        <v>85.1744846715151</v>
+        <v>50.53974401575049</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38.53489932701747</v>
+        <v>-16.61622322982125</v>
       </c>
       <c r="B10" t="n">
-        <v>21.54337997868654</v>
+        <v>-62.63794742342876</v>
       </c>
       <c r="C10" t="n">
-        <v>98.91170867714085</v>
+        <v>85.25704354230822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80.66422156507048</v>
+        <v>39.60929276145146</v>
       </c>
       <c r="B11" t="n">
-        <v>-56.58032122062466</v>
+        <v>-53.34344881288702</v>
       </c>
       <c r="C11" t="n">
-        <v>97.55371140750277</v>
+        <v>83.46465415377257</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-68.10042913578329</v>
+        <v>-83.20467193164295</v>
       </c>
       <c r="B12" t="n">
-        <v>15.88290325937489</v>
+        <v>-33.34057642890199</v>
       </c>
       <c r="C12" t="n">
-        <v>75.67545701296474</v>
+        <v>86.67651408013589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-7.294114286099584</v>
+        <v>-87.05366542505067</v>
       </c>
       <c r="B13" t="n">
-        <v>31.21544764271362</v>
+        <v>-55.6848655746595</v>
       </c>
       <c r="C13" t="n">
-        <v>52.06250380592834</v>
+        <v>89.17452536773128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-89.95518615028888</v>
+        <v>-52.09418331219941</v>
       </c>
       <c r="B14" t="n">
-        <v>-24.70071498868265</v>
+        <v>35.19223412192653</v>
       </c>
       <c r="C14" t="n">
-        <v>54.75606231216601</v>
+        <v>56.98386370140111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-89.68014718924853</v>
+        <v>55.14091016997692</v>
       </c>
       <c r="B15" t="n">
-        <v>-30.54258731236379</v>
+        <v>81.35731278731254</v>
       </c>
       <c r="C15" t="n">
-        <v>50.67209096243813</v>
+        <v>97.94040854066083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.920917572954129</v>
+        <v>17.9630383550641</v>
       </c>
       <c r="B16" t="n">
-        <v>55.14666901928691</v>
+        <v>-28.04771179879106</v>
       </c>
       <c r="C16" t="n">
-        <v>74.90478724210227</v>
+        <v>95.44634841603958</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-85.07031824176778</v>
+        <v>-40.32202588225064</v>
       </c>
       <c r="B17" t="n">
-        <v>66.71054744749905</v>
+        <v>43.33794397852918</v>
       </c>
       <c r="C17" t="n">
-        <v>68.15494745959242</v>
+        <v>80.4729006640942</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-45.66366618339656</v>
+        <v>96.47288297966161</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.597139295067869</v>
+        <v>57.76724112348306</v>
       </c>
       <c r="C18" t="n">
-        <v>59.38455984955624</v>
+        <v>83.84925398046219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-80.03905623229545</v>
+        <v>32.61441009739691</v>
       </c>
       <c r="B19" t="n">
-        <v>-42.38009964323738</v>
+        <v>47.11151029932552</v>
       </c>
       <c r="C19" t="n">
-        <v>99.10773307803416</v>
+        <v>93.4917463695613</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11.45750970594915</v>
+        <v>-39.48106211115142</v>
       </c>
       <c r="B20" t="n">
-        <v>80.9329423818089</v>
+        <v>49.25786991429775</v>
       </c>
       <c r="C20" t="n">
-        <v>84.20884768374046</v>
+        <v>99.00797983714617</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-42.44146847039693</v>
+        <v>31.29496849009023</v>
       </c>
       <c r="B21" t="n">
-        <v>32.08595353378805</v>
+        <v>98.4422674313854</v>
       </c>
       <c r="C21" t="n">
-        <v>57.73682553022246</v>
+        <v>84.35547251367841</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>33.7869406573434</v>
+        <v>23.48223517977443</v>
       </c>
       <c r="B22" t="n">
-        <v>29.03497555867979</v>
+        <v>99.80191271021522</v>
       </c>
       <c r="C22" t="n">
-        <v>64.72528456900082</v>
+        <v>64.45713277611958</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-8.135825103662054</v>
+        <v>6.547806546526147</v>
       </c>
       <c r="B23" t="n">
-        <v>-9.771461226520739</v>
+        <v>-10.96650380778301</v>
       </c>
       <c r="C23" t="n">
-        <v>98.37754002334229</v>
+        <v>65.49967629657749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-81.06117900657523</v>
+        <v>49.61666551778519</v>
       </c>
       <c r="B24" t="n">
-        <v>35.90316774283866</v>
+        <v>67.86274190973194</v>
       </c>
       <c r="C24" t="n">
-        <v>51.09807715635562</v>
+        <v>80.14147167054379</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>33.71915595392971</v>
+        <v>74.1554063302376</v>
       </c>
       <c r="B25" t="n">
-        <v>77.73435959618907</v>
+        <v>24.35391428139242</v>
       </c>
       <c r="C25" t="n">
-        <v>80.80719579645742</v>
+        <v>98.36980100757478</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-86.92323517381017</v>
+        <v>11.2754062026904</v>
       </c>
       <c r="B26" t="n">
-        <v>32.30876862759941</v>
+        <v>-41.45619912332199</v>
       </c>
       <c r="C26" t="n">
-        <v>95.96787369558695</v>
+        <v>91.90854140469806</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>19.74287523943753</v>
+        <v>69.33448376710326</v>
       </c>
       <c r="B27" t="n">
-        <v>-68.51601458345982</v>
+        <v>98.83720766905721</v>
       </c>
       <c r="C27" t="n">
-        <v>79.31628455041923</v>
+        <v>56.31993436679036</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>86.64933768607065</v>
+        <v>-36.75492191175077</v>
       </c>
       <c r="B28" t="n">
-        <v>-27.62631087219818</v>
+        <v>-43.39495798788331</v>
       </c>
       <c r="C28" t="n">
-        <v>82.89744586220235</v>
+        <v>94.78210869872234</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-42.16091457910161</v>
+        <v>-26.59698454216489</v>
       </c>
       <c r="B29" t="n">
-        <v>-75.96508274481776</v>
+        <v>90.19704787668108</v>
       </c>
       <c r="C29" t="n">
-        <v>51.94914795335066</v>
+        <v>61.95731311445249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-5.192860455695425</v>
+        <v>36.63374806524205</v>
       </c>
       <c r="B30" t="n">
-        <v>-93.52385642512702</v>
+        <v>-52.71773303827851</v>
       </c>
       <c r="C30" t="n">
-        <v>87.62493355940776</v>
+        <v>75.90422914218587</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-82.50318813917843</v>
+        <v>-56.5771299110904</v>
       </c>
       <c r="B31" t="n">
-        <v>48.18950755056019</v>
+        <v>79.94817084986816</v>
       </c>
       <c r="C31" t="n">
-        <v>63.44170024035593</v>
+        <v>60.06035872084021</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-59.00976534598974</v>
+        <v>-44.37285112017183</v>
       </c>
       <c r="B32" t="n">
-        <v>-24.37601706941368</v>
+        <v>-70.80696326393408</v>
       </c>
       <c r="C32" t="n">
-        <v>68.94562162850028</v>
+        <v>59.21212413906656</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>88.70490511164435</v>
+        <v>69.88168992304131</v>
       </c>
       <c r="B33" t="n">
-        <v>-83.77874198330869</v>
+        <v>88.2690815735441</v>
       </c>
       <c r="C33" t="n">
-        <v>74.99424171699323</v>
+        <v>80.54567875100321</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-71.94106432512451</v>
+        <v>-77.23072414400065</v>
       </c>
       <c r="B34" t="n">
-        <v>95.80534374938232</v>
+        <v>37.33101129439314</v>
       </c>
       <c r="C34" t="n">
-        <v>59.54175950043111</v>
+        <v>86.76181938790982</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-50.56279701752202</v>
+        <v>59.97823503172985</v>
       </c>
       <c r="B35" t="n">
-        <v>98.95973281108587</v>
+        <v>85.41967018669668</v>
       </c>
       <c r="C35" t="n">
-        <v>76.6583143144033</v>
+        <v>52.57991738950214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-97.75316584873258</v>
+        <v>-56.91641184203432</v>
       </c>
       <c r="B36" t="n">
-        <v>-60.94391112300433</v>
+        <v>32.18956799965568</v>
       </c>
       <c r="C36" t="n">
-        <v>54.86551249602696</v>
+        <v>60.14466902091943</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-25.61806503749172</v>
+        <v>-65.66448897464252</v>
       </c>
       <c r="B37" t="n">
-        <v>60.1701019745989</v>
+        <v>-69.12496283582126</v>
       </c>
       <c r="C37" t="n">
-        <v>82.16073039605416</v>
+        <v>95.76753853161587</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-10.03064816907978</v>
+        <v>33.48218244188612</v>
       </c>
       <c r="B38" t="n">
-        <v>35.91715255722994</v>
+        <v>-96.89034571155823</v>
       </c>
       <c r="C38" t="n">
-        <v>70.83125623533554</v>
+        <v>67.92201860250523</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-74.44053231981241</v>
+        <v>-21.5000846755651</v>
       </c>
       <c r="B39" t="n">
-        <v>92.47788759939056</v>
+        <v>5.819287663608974</v>
       </c>
       <c r="C39" t="n">
-        <v>95.45524339170666</v>
+        <v>99.6676643753669</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-12.36676617541272</v>
+        <v>-25.12256506519021</v>
       </c>
       <c r="B40" t="n">
-        <v>-16.12756736703861</v>
+        <v>94.77591204345592</v>
       </c>
       <c r="C40" t="n">
-        <v>97.65685925355797</v>
+        <v>92.80736850098194</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38.98620090856024</v>
+        <v>-60.31683277594257</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.480896671319609</v>
+        <v>75.84894257868856</v>
       </c>
       <c r="C41" t="n">
-        <v>86.38699025149519</v>
+        <v>98.46157531401506</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-66.01311074237456</v>
+        <v>-72.46110910024844</v>
       </c>
       <c r="B42" t="n">
-        <v>-78.76862483373255</v>
+        <v>51.78486229225766</v>
       </c>
       <c r="C42" t="n">
-        <v>67.33327060588049</v>
+        <v>98.17044672012828</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>84.52809498356095</v>
+        <v>39.00289373185626</v>
       </c>
       <c r="B43" t="n">
-        <v>-64.99453305636749</v>
+        <v>99.94862530396344</v>
       </c>
       <c r="C43" t="n">
-        <v>91.83681524652516</v>
+        <v>84.91872049627875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-99.8173444653707</v>
+        <v>-69.55701623408322</v>
       </c>
       <c r="B44" t="n">
-        <v>48.39518535335762</v>
+        <v>34.56415371781999</v>
       </c>
       <c r="C44" t="n">
-        <v>77.84275930197359</v>
+        <v>83.24516710981234</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-50.10066865706195</v>
+        <v>89.39790177796189</v>
       </c>
       <c r="B45" t="n">
-        <v>3.027805335494305</v>
+        <v>-93.86285284519626</v>
       </c>
       <c r="C45" t="n">
-        <v>92.1099746353803</v>
+        <v>93.3566337777814</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-20.56946863035841</v>
+        <v>41.44216987508326</v>
       </c>
       <c r="B46" t="n">
-        <v>89.86035256918417</v>
+        <v>40.05396441985144</v>
       </c>
       <c r="C46" t="n">
-        <v>78.0687368508642</v>
+        <v>81.4078566336987</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>96.7591701667052</v>
+        <v>-73.38420032599046</v>
       </c>
       <c r="B47" t="n">
-        <v>44.67318929903084</v>
+        <v>93.92013422362015</v>
       </c>
       <c r="C47" t="n">
-        <v>53.57897574409898</v>
+        <v>67.36277412011829</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.58639356810069</v>
+        <v>-3.230696000285405</v>
       </c>
       <c r="B48" t="n">
-        <v>-41.83234937665424</v>
+        <v>-29.34374827232909</v>
       </c>
       <c r="C48" t="n">
-        <v>59.82187217924334</v>
+        <v>76.81124841326898</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-49.68922907399176</v>
+        <v>-70.65396481072023</v>
       </c>
       <c r="B49" t="n">
-        <v>-58.5660062723609</v>
+        <v>46.38791502854996</v>
       </c>
       <c r="C49" t="n">
-        <v>75.135708480283</v>
+        <v>62.78252631480716</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-63.81495464881086</v>
+        <v>28.00516477254034</v>
       </c>
       <c r="B50" t="n">
-        <v>22.85021511471006</v>
+        <v>80.08704842738435</v>
       </c>
       <c r="C50" t="n">
-        <v>87.39163299352073</v>
+        <v>67.46283912147281</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>85.67614128820065</v>
+        <v>-58.73662844825234</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.3443822789983342</v>
+        <v>79.87840452786065</v>
       </c>
       <c r="C51" t="n">
-        <v>52.10279883051929</v>
+        <v>56.31498301032249</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-79.94487332580911</v>
+        <v>-92.90571017588857</v>
       </c>
       <c r="B52" t="n">
-        <v>14.30585950411388</v>
+        <v>-92.85217139679372</v>
       </c>
       <c r="C52" t="n">
-        <v>86.97761314878399</v>
+        <v>92.89490231911854</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>94.05326104327581</v>
+        <v>-84.22348980643767</v>
       </c>
       <c r="B53" t="n">
-        <v>-29.05934509304065</v>
+        <v>8.226199092689178</v>
       </c>
       <c r="C53" t="n">
-        <v>78.79936714488973</v>
+        <v>99.21694668683037</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-36.70754616307789</v>
+        <v>15.75505347175977</v>
       </c>
       <c r="B54" t="n">
-        <v>-19.25296511153304</v>
+        <v>72.6140302634753</v>
       </c>
       <c r="C54" t="n">
-        <v>77.29747506710279</v>
+        <v>93.68839269919317</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>83.17672677994938</v>
+        <v>94.08171379377256</v>
       </c>
       <c r="B55" t="n">
-        <v>-16.31572055055326</v>
+        <v>-14.7592727636504</v>
       </c>
       <c r="C55" t="n">
-        <v>78.67794341734789</v>
+        <v>65.79653281820802</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>46.51149057043974</v>
+        <v>-53.81110812384193</v>
       </c>
       <c r="B56" t="n">
-        <v>40.78470680670366</v>
+        <v>55.48602940864349</v>
       </c>
       <c r="C56" t="n">
-        <v>52.56409070574347</v>
+        <v>70.47826936577016</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>49.12791759389342</v>
+        <v>-61.50584423311231</v>
       </c>
       <c r="B57" t="n">
-        <v>-14.95167920426973</v>
+        <v>8.684583760143461</v>
       </c>
       <c r="C57" t="n">
-        <v>76.35282166088075</v>
+        <v>94.80832799541548</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-76.77600729588175</v>
+        <v>1.277537625959713</v>
       </c>
       <c r="B58" t="n">
-        <v>-68.67716768859999</v>
+        <v>-17.09759055594546</v>
       </c>
       <c r="C58" t="n">
-        <v>57.20397285854263</v>
+        <v>92.15945258677822</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-52.89794463896735</v>
+        <v>73.69459030732941</v>
       </c>
       <c r="B59" t="n">
-        <v>48.41677276426945</v>
+        <v>97.12793453461309</v>
       </c>
       <c r="C59" t="n">
-        <v>97.56843676512966</v>
+        <v>69.20397798710569</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-10.38306489590923</v>
+        <v>-20.62420230592022</v>
       </c>
       <c r="B60" t="n">
-        <v>-55.38340037091761</v>
+        <v>-57.68057950061151</v>
       </c>
       <c r="C60" t="n">
-        <v>59.08224087568994</v>
+        <v>99.85161628935828</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-14.22987119340281</v>
+        <v>-55.03056881932837</v>
       </c>
       <c r="B61" t="n">
-        <v>-47.89278960175143</v>
+        <v>-35.47886701060288</v>
       </c>
       <c r="C61" t="n">
-        <v>97.22071827943681</v>
+        <v>99.00198441757991</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>92.50742395850435</v>
+        <v>-70.13740682141326</v>
       </c>
       <c r="B62" t="n">
-        <v>-77.349037952549</v>
+        <v>-51.02455743932885</v>
       </c>
       <c r="C62" t="n">
-        <v>75.23862253452566</v>
+        <v>81.58133844379596</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-93.19512726765483</v>
+        <v>22.36768949659375</v>
       </c>
       <c r="B63" t="n">
-        <v>8.800551902426401</v>
+        <v>-68.32746746649745</v>
       </c>
       <c r="C63" t="n">
-        <v>78.82781862463023</v>
+        <v>84.08369546924055</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-24.30868634475867</v>
+        <v>-92.82932814304101</v>
       </c>
       <c r="B64" t="n">
-        <v>-59.90143979171359</v>
+        <v>-98.69689526137475</v>
       </c>
       <c r="C64" t="n">
-        <v>78.31805029364347</v>
+        <v>65.34533793403713</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>46.35611102028001</v>
+        <v>-82.84597561835724</v>
       </c>
       <c r="B65" t="n">
-        <v>49.54258873781821</v>
+        <v>-95.35398183970413</v>
       </c>
       <c r="C65" t="n">
-        <v>51.26412952475564</v>
+        <v>53.63112873180668</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>29.14947653706821</v>
+        <v>-35.09342718587558</v>
       </c>
       <c r="B66" t="n">
-        <v>23.5530318345116</v>
+        <v>30.7943081022613</v>
       </c>
       <c r="C66" t="n">
-        <v>72.5166251975381</v>
+        <v>53.28026988825366</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-78.6827974626451</v>
+        <v>12.70635668095426</v>
       </c>
       <c r="B67" t="n">
-        <v>-37.5464921703065</v>
+        <v>71.36446112384017</v>
       </c>
       <c r="C67" t="n">
-        <v>52.05474521520924</v>
+        <v>88.67337147168951</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>36.08244816430989</v>
+        <v>7.924065869619101</v>
       </c>
       <c r="B68" t="n">
-        <v>3.394794145814373</v>
+        <v>-79.53699560392791</v>
       </c>
       <c r="C68" t="n">
-        <v>63.5853209738974</v>
+        <v>74.46089540521466</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>26.10018785804151</v>
+        <v>-12.07621371560664</v>
       </c>
       <c r="B69" t="n">
-        <v>-14.50664977202136</v>
+        <v>96.07818748615796</v>
       </c>
       <c r="C69" t="n">
-        <v>56.35146590363203</v>
+        <v>79.19658347221986</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>61.67139313700609</v>
+        <v>-33.6056032872819</v>
       </c>
       <c r="B70" t="n">
-        <v>-44.31607632826005</v>
+        <v>2.562460586050397</v>
       </c>
       <c r="C70" t="n">
-        <v>76.45671478436286</v>
+        <v>77.54659477566717</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>41.63691927687098</v>
+        <v>73.2797287589611</v>
       </c>
       <c r="B71" t="n">
-        <v>9.98632190853278</v>
+        <v>-31.32166570709175</v>
       </c>
       <c r="C71" t="n">
-        <v>99.81783952816025</v>
+        <v>74.49116906949618</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-55.49626586905354</v>
+        <v>-90.3017726053902</v>
       </c>
       <c r="B72" t="n">
-        <v>-94.30974818016756</v>
+        <v>98.50553521872149</v>
       </c>
       <c r="C72" t="n">
-        <v>83.06470097967993</v>
+        <v>55.97287673176484</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>50.3348069223015</v>
+        <v>21.5470358688789</v>
       </c>
       <c r="B73" t="n">
-        <v>-98.06386410529986</v>
+        <v>-22.45161936419674</v>
       </c>
       <c r="C73" t="n">
-        <v>80.17350212674911</v>
+        <v>97.29949328941095</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6222102251336348</v>
+        <v>-21.06125695916727</v>
       </c>
       <c r="B74" t="n">
-        <v>-72.29898883062363</v>
+        <v>18.57348628451072</v>
       </c>
       <c r="C74" t="n">
-        <v>92.23721101828515</v>
+        <v>85.18862341344295</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-37.59806910979068</v>
+        <v>70.05482738453428</v>
       </c>
       <c r="B75" t="n">
-        <v>61.71388093465484</v>
+        <v>91.26632204247075</v>
       </c>
       <c r="C75" t="n">
-        <v>65.19642998656255</v>
+        <v>93.0811040513171</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-24.77227401764119</v>
+        <v>94.30800400471495</v>
       </c>
       <c r="B76" t="n">
-        <v>19.19695128166696</v>
+        <v>58.312740501097</v>
       </c>
       <c r="C76" t="n">
-        <v>52.59083647807281</v>
+        <v>96.61495495064199</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43.21333127229675</v>
+        <v>36.7913924180903</v>
       </c>
       <c r="B77" t="n">
-        <v>13.56006319705237</v>
+        <v>79.58453781250232</v>
       </c>
       <c r="C77" t="n">
-        <v>73.86181816427445</v>
+        <v>62.14193389389199</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>72.31678890773529</v>
+        <v>-25.85078651092668</v>
       </c>
       <c r="B78" t="n">
-        <v>34.79000585977319</v>
+        <v>-84.48044600214079</v>
       </c>
       <c r="C78" t="n">
-        <v>99.61138834870711</v>
+        <v>75.87677773535285</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>37.67712485663351</v>
+        <v>-90.18236902384203</v>
       </c>
       <c r="B79" t="n">
-        <v>-20.57737852895132</v>
+        <v>54.0831587971794</v>
       </c>
       <c r="C79" t="n">
-        <v>66.7675473769016</v>
+        <v>88.03733863893986</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>95.88176666889601</v>
+        <v>-62.99212625218006</v>
       </c>
       <c r="B80" t="n">
-        <v>24.23379111007873</v>
+        <v>70.04978914738096</v>
       </c>
       <c r="C80" t="n">
-        <v>61.12060096731537</v>
+        <v>64.23306758070582</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-14.38984498709491</v>
+        <v>-20.24497637730264</v>
       </c>
       <c r="B81" t="n">
-        <v>-34.674919724454</v>
+        <v>87.63869000427589</v>
       </c>
       <c r="C81" t="n">
-        <v>90.83684885391081</v>
+        <v>58.86714015639865</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>50.375805304873</v>
+        <v>34.95151662049668</v>
       </c>
       <c r="B82" t="n">
-        <v>50.93544512122806</v>
+        <v>-32.66608843772291</v>
       </c>
       <c r="C82" t="n">
-        <v>53.27367881831195</v>
+        <v>76.34040631843818</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-74.11929897251144</v>
+        <v>-22.24833804052241</v>
       </c>
       <c r="B83" t="n">
-        <v>77.74796334074895</v>
+        <v>90.45725061776319</v>
       </c>
       <c r="C83" t="n">
-        <v>94.94824873007822</v>
+        <v>72.71955517236752</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>45.38612353540039</v>
+        <v>-40.67893836577713</v>
       </c>
       <c r="B84" t="n">
-        <v>-33.66121753660478</v>
+        <v>-28.96185661734876</v>
       </c>
       <c r="C84" t="n">
-        <v>59.8466338927491</v>
+        <v>97.04685286540177</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-57.21333521039092</v>
+        <v>61.47285643046364</v>
       </c>
       <c r="B85" t="n">
-        <v>35.79133681722833</v>
+        <v>17.84886648512115</v>
       </c>
       <c r="C85" t="n">
-        <v>87.73477686647853</v>
+        <v>90.50655122726678</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-17.81224467821221</v>
+        <v>53.57905546378343</v>
       </c>
       <c r="B86" t="n">
-        <v>5.039663027195063</v>
+        <v>-34.52242978539639</v>
       </c>
       <c r="C86" t="n">
-        <v>87.85646584294548</v>
+        <v>74.67115643574741</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>19.65804680958932</v>
+        <v>56.74246342168002</v>
       </c>
       <c r="B87" t="n">
-        <v>-82.09564622824229</v>
+        <v>47.14458150898749</v>
       </c>
       <c r="C87" t="n">
-        <v>73.57942210256569</v>
+        <v>73.87755290769181</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>38.98019863580888</v>
+        <v>-28.12105639814867</v>
       </c>
       <c r="B88" t="n">
-        <v>99.933089275741</v>
+        <v>-4.808553636120971</v>
       </c>
       <c r="C88" t="n">
-        <v>85.49974974828353</v>
+        <v>94.62833559571543</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-70.52567525697229</v>
+        <v>61.88974194964641</v>
       </c>
       <c r="B89" t="n">
-        <v>80.76899016350485</v>
+        <v>-89.77198089036887</v>
       </c>
       <c r="C89" t="n">
-        <v>81.46882784555739</v>
+        <v>82.85022328072324</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-23.61870417005123</v>
+        <v>-68.01640068407346</v>
       </c>
       <c r="B90" t="n">
-        <v>-41.03899737865352</v>
+        <v>92.30767590497842</v>
       </c>
       <c r="C90" t="n">
-        <v>78.81599989417649</v>
+        <v>58.6076214618326</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-70.98627033283687</v>
+        <v>-11.37169508419518</v>
       </c>
       <c r="B91" t="n">
-        <v>1.351811791735558</v>
+        <v>26.85158767686386</v>
       </c>
       <c r="C91" t="n">
-        <v>85.7245321579197</v>
+        <v>88.06269230209426</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-13.8401114990005</v>
+        <v>-70.65751025385843</v>
       </c>
       <c r="B92" t="n">
-        <v>27.08891895897025</v>
+        <v>-88.18595723152769</v>
       </c>
       <c r="C92" t="n">
-        <v>57.01252353880112</v>
+        <v>63.54510534521341</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-65.38349928295285</v>
+        <v>72.75787510462862</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.9846138186161757</v>
+        <v>-22.39899688908356</v>
       </c>
       <c r="C93" t="n">
-        <v>78.42219871401532</v>
+        <v>98.64304430092143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>86.01112305782601</v>
+        <v>-67.55981128678324</v>
       </c>
       <c r="B94" t="n">
-        <v>-86.5295282833179</v>
+        <v>43.06321921208261</v>
       </c>
       <c r="C94" t="n">
-        <v>81.12648642256944</v>
+        <v>74.681516938443</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>48.37795557845865</v>
+        <v>66.40829884451807</v>
       </c>
       <c r="B95" t="n">
-        <v>98.21046233671694</v>
+        <v>94.76911695909732</v>
       </c>
       <c r="C95" t="n">
-        <v>85.96730644113245</v>
+        <v>88.2742327778552</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-75.50000912336118</v>
+        <v>-30.79350589851042</v>
       </c>
       <c r="B96" t="n">
-        <v>-76.0263241022014</v>
+        <v>82.40012147532877</v>
       </c>
       <c r="C96" t="n">
-        <v>62.35260606666612</v>
+        <v>67.40848864197474</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>56.70671983136621</v>
+        <v>-91.41390403719005</v>
       </c>
       <c r="B97" t="n">
-        <v>-28.26228013267078</v>
+        <v>-60.79942392343229</v>
       </c>
       <c r="C97" t="n">
-        <v>68.43873697774418</v>
+        <v>85.94692389188232</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>84.51174459296632</v>
+        <v>-0.6026837052630518</v>
       </c>
       <c r="B98" t="n">
-        <v>-59.10626742021979</v>
+        <v>-30.53470323981609</v>
       </c>
       <c r="C98" t="n">
-        <v>80.35020740454823</v>
+        <v>89.6786002202132</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-56.97108844512024</v>
+        <v>88.22656173705118</v>
       </c>
       <c r="B99" t="n">
-        <v>-13.66330232278584</v>
+        <v>37.44219373488955</v>
       </c>
       <c r="C99" t="n">
-        <v>60.09449864987084</v>
+        <v>96.12519403864314</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>28.65141459744986</v>
+        <v>-13.24347581631603</v>
       </c>
       <c r="B100" t="n">
-        <v>49.87367279654813</v>
+        <v>82.64726523710381</v>
       </c>
       <c r="C100" t="n">
-        <v>54.62036481245239</v>
+        <v>90.64085417781766</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-71.09657270178474</v>
+        <v>81.41609412132557</v>
       </c>
       <c r="B101" t="n">
-        <v>-97.05389716267133</v>
+        <v>64.16806044562077</v>
       </c>
       <c r="C101" t="n">
-        <v>95.55177883340009</v>
+        <v>57.83869644347612</v>
       </c>
     </row>
   </sheetData>
@@ -1595,282 +1595,282 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6796683256215075</v>
+        <v>-79.4979877170705</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.833457113243441</v>
+        <v>59.11495127615593</v>
       </c>
       <c r="C2" t="n">
-        <v>7998.232805424699</v>
+        <v>9291.135291175131</v>
       </c>
       <c r="D2" t="n">
-        <v>852</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68.24350617030008</v>
+        <v>23.38865248468171</v>
       </c>
       <c r="B3" t="n">
-        <v>67.70597326597863</v>
+        <v>2.636498314256908</v>
       </c>
       <c r="C3" t="n">
-        <v>7906.879840482478</v>
+        <v>5487.590504946252</v>
       </c>
       <c r="D3" t="n">
-        <v>835</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-54.95230044029423</v>
+        <v>-37.43537804884197</v>
       </c>
       <c r="B4" t="n">
-        <v>42.1623410866103</v>
+        <v>-50.20161473402966</v>
       </c>
       <c r="C4" t="n">
-        <v>7267.976668506312</v>
+        <v>8457.885335155717</v>
       </c>
       <c r="D4" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-14.36428909266579</v>
+        <v>86.30374028540817</v>
       </c>
       <c r="B5" t="n">
-        <v>12.16417632257409</v>
+        <v>-17.22908392269782</v>
       </c>
       <c r="C5" t="n">
-        <v>6910.284668423241</v>
+        <v>6458.113490410872</v>
       </c>
       <c r="D5" t="n">
-        <v>842</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>55.29563818017185</v>
+        <v>-71.8544842281708</v>
       </c>
       <c r="B6" t="n">
-        <v>-20.03512155379844</v>
+        <v>-43.50569702570461</v>
       </c>
       <c r="C6" t="n">
-        <v>6656.05896903606</v>
+        <v>7611.074196704986</v>
       </c>
       <c r="D6" t="n">
-        <v>603</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-35.84108942056245</v>
+        <v>-6.766412386103382</v>
       </c>
       <c r="B7" t="n">
-        <v>-78.9253866213288</v>
+        <v>80.82328030587892</v>
       </c>
       <c r="C7" t="n">
-        <v>7324.065284658916</v>
+        <v>6988.976651531278</v>
       </c>
       <c r="D7" t="n">
-        <v>940</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-56.71795101727191</v>
+        <v>97.42049461289784</v>
       </c>
       <c r="B8" t="n">
-        <v>-82.68064929440622</v>
+        <v>10.39341602156087</v>
       </c>
       <c r="C8" t="n">
-        <v>9771.517630801183</v>
+        <v>5949.020254709611</v>
       </c>
       <c r="D8" t="n">
-        <v>587</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54.07988895636102</v>
+        <v>-84.6825280725395</v>
       </c>
       <c r="B9" t="n">
-        <v>-79.43027134497659</v>
+        <v>-85.27110181619295</v>
       </c>
       <c r="C9" t="n">
-        <v>7998.360512366673</v>
+        <v>9220.783694473033</v>
       </c>
       <c r="D9" t="n">
-        <v>535</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.56545700885939</v>
+        <v>24.34794537689158</v>
       </c>
       <c r="B10" t="n">
-        <v>-99.22798343641419</v>
+        <v>-49.9014943956272</v>
       </c>
       <c r="C10" t="n">
-        <v>5852.031137630031</v>
+        <v>7365.248362076778</v>
       </c>
       <c r="D10" t="n">
-        <v>654</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4395046175921236</v>
+        <v>21.9984963875039</v>
       </c>
       <c r="B11" t="n">
-        <v>64.01272352651969</v>
+        <v>-26.89929260534726</v>
       </c>
       <c r="C11" t="n">
-        <v>7543.553988520111</v>
+        <v>8036.257816420568</v>
       </c>
       <c r="D11" t="n">
-        <v>987</v>
+        <v>956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-97.96017661325519</v>
+        <v>22.15423000549507</v>
       </c>
       <c r="B12" t="n">
-        <v>-31.37290689090361</v>
+        <v>-3.596996183711154</v>
       </c>
       <c r="C12" t="n">
-        <v>7053.06727223193</v>
+        <v>9527.577835093638</v>
       </c>
       <c r="D12" t="n">
-        <v>822</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>50.71915608338868</v>
+        <v>-68.29418179852294</v>
       </c>
       <c r="B13" t="n">
-        <v>-92.03296928871019</v>
+        <v>18.18410395464763</v>
       </c>
       <c r="C13" t="n">
-        <v>7303.30175850973</v>
+        <v>6085.486041591709</v>
       </c>
       <c r="D13" t="n">
-        <v>597</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-10.89895333634651</v>
+        <v>-66.30287709966855</v>
       </c>
       <c r="B14" t="n">
-        <v>46.84113788254841</v>
+        <v>75.86705783829498</v>
       </c>
       <c r="C14" t="n">
-        <v>6559.608036767107</v>
+        <v>8070.053724270539</v>
       </c>
       <c r="D14" t="n">
-        <v>740</v>
+        <v>914</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.535110494261049</v>
+        <v>15.21792147154609</v>
       </c>
       <c r="B15" t="n">
-        <v>28.66296037703451</v>
+        <v>-63.71997267307453</v>
       </c>
       <c r="C15" t="n">
-        <v>6002.407874666849</v>
+        <v>5491.554050524157</v>
       </c>
       <c r="D15" t="n">
-        <v>577</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66.87836390105863</v>
+        <v>-84.97122070635031</v>
       </c>
       <c r="B16" t="n">
-        <v>79.44469604603815</v>
+        <v>-14.73763739431419</v>
       </c>
       <c r="C16" t="n">
-        <v>5046.705602974621</v>
+        <v>9240.936683369357</v>
       </c>
       <c r="D16" t="n">
-        <v>938</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.21779153924702</v>
+        <v>28.21769288696839</v>
       </c>
       <c r="B17" t="n">
-        <v>45.39370910329981</v>
+        <v>10.17982012040406</v>
       </c>
       <c r="C17" t="n">
-        <v>5636.985143686395</v>
+        <v>8280.76822490315</v>
       </c>
       <c r="D17" t="n">
-        <v>680</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-18.16446848953758</v>
+        <v>-34.37615475416712</v>
       </c>
       <c r="B18" t="n">
-        <v>17.10467572521731</v>
+        <v>-68.7324777413929</v>
       </c>
       <c r="C18" t="n">
-        <v>5866.495780507968</v>
+        <v>6494.63457995306</v>
       </c>
       <c r="D18" t="n">
-        <v>892</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>69.12193059355184</v>
+        <v>24.85621330830735</v>
       </c>
       <c r="B19" t="n">
-        <v>-40.68566464684783</v>
+        <v>-62.63047603281255</v>
       </c>
       <c r="C19" t="n">
-        <v>6112.004795095255</v>
+        <v>5124.596696746073</v>
       </c>
       <c r="D19" t="n">
-        <v>769</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-26.90755194703841</v>
+        <v>-68.2015798800973</v>
       </c>
       <c r="B20" t="n">
-        <v>82.31584468693811</v>
+        <v>92.28063051129739</v>
       </c>
       <c r="C20" t="n">
-        <v>9976.032225980705</v>
+        <v>5592.573764248305</v>
       </c>
       <c r="D20" t="n">
-        <v>897</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-33.011534725887</v>
+        <v>-95.93229700990686</v>
       </c>
       <c r="B21" t="n">
-        <v>-70.41909040019208</v>
+        <v>8.718060245537329</v>
       </c>
       <c r="C21" t="n">
-        <v>6830.917902253129</v>
+        <v>7230.184194172291</v>
       </c>
       <c r="D21" t="n">
-        <v>959</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -1956,6202 +1956,6202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31.02027203702664</v>
+        <v>125.4769049656857</v>
       </c>
       <c r="B2" t="n">
-        <v>30.98800849168311</v>
+        <v>92.82027214919742</v>
       </c>
       <c r="C2" t="n">
-        <v>101.9373402024821</v>
+        <v>12.81586608593544</v>
       </c>
       <c r="D2" t="n">
-        <v>40.78881226445525</v>
+        <v>137.5021077926488</v>
       </c>
       <c r="E2" t="n">
-        <v>81.4536131227741</v>
+        <v>33.03986019304561</v>
       </c>
       <c r="F2" t="n">
-        <v>53.06811089478651</v>
+        <v>146.841034674365</v>
       </c>
       <c r="G2" t="n">
-        <v>40.42312989473859</v>
+        <v>158.4944653796112</v>
       </c>
       <c r="H2" t="n">
-        <v>137.0581286620617</v>
+        <v>47.28323825150766</v>
       </c>
       <c r="I2" t="n">
-        <v>116.0075043057488</v>
+        <v>69.24946778834169</v>
       </c>
       <c r="J2" t="n">
-        <v>70.7214386950649</v>
+        <v>74.36472473770031</v>
       </c>
       <c r="K2" t="n">
-        <v>73.44271385055563</v>
+        <v>87.71261746430042</v>
       </c>
       <c r="L2" t="n">
-        <v>146.0757920632602</v>
+        <v>83.05306079340357</v>
       </c>
       <c r="M2" t="n">
-        <v>65.52774879868606</v>
+        <v>138.9011943208419</v>
       </c>
       <c r="N2" t="n">
-        <v>43.2653581171494</v>
+        <v>59.23954883916392</v>
       </c>
       <c r="O2" t="n">
-        <v>33.43471896450367</v>
+        <v>61.98725255910658</v>
       </c>
       <c r="P2" t="n">
-        <v>60.19729833832253</v>
+        <v>101.5374572492416</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.94550311050649</v>
+        <v>12.18029202835594</v>
       </c>
       <c r="R2" t="n">
-        <v>114.0950292569174</v>
+        <v>68.83966716150572</v>
       </c>
       <c r="S2" t="n">
-        <v>113.5328943563069</v>
+        <v>155.4083810207909</v>
       </c>
       <c r="T2" t="n">
-        <v>48.57255346575502</v>
+        <v>87.13474150415362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>51.85288513530441</v>
+        <v>128.8346174920476</v>
       </c>
       <c r="B3" t="n">
-        <v>51.83359036266503</v>
+        <v>36.96040208675146</v>
       </c>
       <c r="C3" t="n">
-        <v>110.0803604062073</v>
+        <v>51.91901689994581</v>
       </c>
       <c r="D3" t="n">
-        <v>58.22535208608799</v>
+        <v>76.50478856299877</v>
       </c>
       <c r="E3" t="n">
-        <v>91.4393542757083</v>
+        <v>83.90352936740322</v>
       </c>
       <c r="F3" t="n">
-        <v>67.39947190850457</v>
+        <v>114.5460459210884</v>
       </c>
       <c r="G3" t="n">
-        <v>57.96976668998113</v>
+        <v>96.12115360671423</v>
       </c>
       <c r="H3" t="n">
-        <v>143.2179983519886</v>
+        <v>109.6307789868194</v>
       </c>
       <c r="I3" t="n">
-        <v>123.2242081526689</v>
+        <v>21.92096199934506</v>
       </c>
       <c r="J3" t="n">
-        <v>82.02430317109533</v>
+        <v>11.98331429965266</v>
       </c>
       <c r="K3" t="n">
-        <v>84.3818501654149</v>
+        <v>30.67852993725061</v>
       </c>
       <c r="L3" t="n">
-        <v>151.8703441969918</v>
+        <v>94.2454361109525</v>
       </c>
       <c r="M3" t="n">
-        <v>77.59091623526325</v>
+        <v>133.1144996094854</v>
       </c>
       <c r="N3" t="n">
-        <v>59.9862953732694</v>
+        <v>31.67402140873819</v>
       </c>
       <c r="O3" t="n">
-        <v>53.332399644487</v>
+        <v>97.85424497588514</v>
       </c>
       <c r="P3" t="n">
-        <v>73.14491880395346</v>
+        <v>45.71655618872054</v>
       </c>
       <c r="Q3" t="n">
-        <v>62.69246112494317</v>
+        <v>58.42963509374373</v>
       </c>
       <c r="R3" t="n">
-        <v>121.425450877239</v>
+        <v>33.2331480276735</v>
       </c>
       <c r="S3" t="n">
-        <v>120.8974049370965</v>
+        <v>147.7756150311622</v>
       </c>
       <c r="T3" t="n">
-        <v>63.91992936313029</v>
+        <v>114.8021977933451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91.37720548561624</v>
+        <v>11.89154526160876</v>
       </c>
       <c r="B4" t="n">
-        <v>91.36625786027369</v>
+        <v>129.2537408449285</v>
       </c>
       <c r="C4" t="n">
-        <v>133.337008113524</v>
+        <v>126.6931678912725</v>
       </c>
       <c r="D4" t="n">
-        <v>95.13812911264533</v>
+        <v>194.3628284271507</v>
       </c>
       <c r="E4" t="n">
-        <v>118.4154867230801</v>
+        <v>110.1657703599096</v>
       </c>
       <c r="F4" t="n">
-        <v>101.0136663974274</v>
+        <v>84.40449186059433</v>
       </c>
       <c r="G4" t="n">
-        <v>94.98192373076209</v>
+        <v>194.9948803500384</v>
       </c>
       <c r="H4" t="n">
-        <v>161.7790686011502</v>
+        <v>150.5581265460251</v>
       </c>
       <c r="I4" t="n">
-        <v>144.3789370384674</v>
+        <v>162.0460384899594</v>
       </c>
       <c r="J4" t="n">
-        <v>111.3061467135091</v>
+        <v>144.7835191667245</v>
       </c>
       <c r="K4" t="n">
-        <v>113.0547151729816</v>
+        <v>131.3304799286089</v>
       </c>
       <c r="L4" t="n">
-        <v>169.4864992617944</v>
+        <v>51.6675506857182</v>
       </c>
       <c r="M4" t="n">
-        <v>108.0806285498613</v>
+        <v>25.72456489613387</v>
       </c>
       <c r="N4" t="n">
-        <v>96.22591967923499</v>
+        <v>166.2275736588295</v>
       </c>
       <c r="O4" t="n">
-        <v>92.22481681925284</v>
+        <v>80.08110613960733</v>
       </c>
       <c r="P4" t="n">
-        <v>104.9345087773436</v>
+        <v>130.1352260482411</v>
       </c>
       <c r="Q4" t="n">
-        <v>97.93577828050367</v>
+        <v>144.91673743908</v>
       </c>
       <c r="R4" t="n">
-        <v>142.8468134269933</v>
+        <v>171.6609330854968</v>
       </c>
       <c r="S4" t="n">
-        <v>142.398225080335</v>
+        <v>34.5823362594448</v>
       </c>
       <c r="T4" t="n">
-        <v>98.72603180161263</v>
+        <v>56.82627009745763</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>142.241018420595</v>
+        <v>74.73635764014483</v>
       </c>
       <c r="B5" t="n">
-        <v>142.2339857922766</v>
+        <v>54.72405601329394</v>
       </c>
       <c r="C5" t="n">
-        <v>172.2250602311797</v>
+        <v>52.52789496686969</v>
       </c>
       <c r="D5" t="n">
-        <v>144.6857880029061</v>
+        <v>119.1915899574698</v>
       </c>
       <c r="E5" t="n">
-        <v>160.9501200211776</v>
+        <v>60.91142020325016</v>
       </c>
       <c r="F5" t="n">
-        <v>148.6151891228426</v>
+        <v>82.59062090571561</v>
       </c>
       <c r="G5" t="n">
-        <v>144.5831230626999</v>
+        <v>129.0270683783677</v>
       </c>
       <c r="H5" t="n">
-        <v>195.0773710003884</v>
+        <v>102.261577951858</v>
       </c>
       <c r="I5" t="n">
-        <v>180.9087922112279</v>
+        <v>76.09782378808208</v>
       </c>
       <c r="J5" t="n">
-        <v>155.7940048114071</v>
+        <v>60.64266192484649</v>
       </c>
       <c r="K5" t="n">
-        <v>157.0480253356008</v>
+        <v>53.77455989938981</v>
       </c>
       <c r="L5" t="n">
-        <v>201.5152278885786</v>
+        <v>40.36254077224552</v>
       </c>
       <c r="M5" t="n">
-        <v>153.5061428956529</v>
+        <v>81.75403165773321</v>
       </c>
       <c r="N5" t="n">
-        <v>145.4033742974423</v>
+        <v>80.51125110071315</v>
       </c>
       <c r="O5" t="n">
-        <v>142.787010880935</v>
+        <v>56.18180083827892</v>
       </c>
       <c r="P5" t="n">
-        <v>151.307517233315</v>
+        <v>60.11225183093357</v>
       </c>
       <c r="Q5" t="n">
-        <v>146.5405415111309</v>
+        <v>70.76842336506856</v>
       </c>
       <c r="R5" t="n">
-        <v>179.6884129408843</v>
+        <v>85.6172718295597</v>
       </c>
       <c r="S5" t="n">
-        <v>179.3320053559801</v>
+        <v>97.54665074357651</v>
       </c>
       <c r="T5" t="n">
-        <v>147.0698575312445</v>
+        <v>64.95239120654297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>174.1454922371989</v>
+        <v>193.7247306667665</v>
       </c>
       <c r="B6" t="n">
-        <v>174.1397480748315</v>
+        <v>77.2374963569672</v>
       </c>
       <c r="C6" t="n">
-        <v>199.3881052541543</v>
+        <v>120.1079209351455</v>
       </c>
       <c r="D6" t="n">
-        <v>176.1480127484558</v>
+        <v>29.92263198139253</v>
       </c>
       <c r="E6" t="n">
-        <v>189.7342517313089</v>
+        <v>154.5201650368818</v>
       </c>
       <c r="F6" t="n">
-        <v>179.3895749011812</v>
+        <v>155.9197685054958</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0636947805313</v>
+        <v>59.19655033549382</v>
       </c>
       <c r="H6" t="n">
-        <v>219.4295463733893</v>
+        <v>171.6484143524562</v>
       </c>
       <c r="I6" t="n">
-        <v>206.9351015283137</v>
+        <v>58.35585236584849</v>
       </c>
       <c r="J6" t="n">
-        <v>185.3804657464885</v>
+        <v>63.85099400659385</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4355851414095</v>
+        <v>74.39341318780941</v>
       </c>
       <c r="L6" t="n">
-        <v>225.172227897212</v>
+        <v>164.367460773058</v>
       </c>
       <c r="M6" t="n">
-        <v>183.461933522758</v>
+        <v>193.024004430271</v>
       </c>
       <c r="N6" t="n">
-        <v>176.7379031285885</v>
+        <v>69.47061365376447</v>
       </c>
       <c r="O6" t="n">
-        <v>174.5917398433285</v>
+        <v>170.6618789149642</v>
       </c>
       <c r="P6" t="n">
-        <v>181.6262919197498</v>
+        <v>78.87606123227307</v>
       </c>
       <c r="Q6" t="n">
-        <v>177.6746336751077</v>
+        <v>119.0188991131402</v>
       </c>
       <c r="R6" t="n">
-        <v>205.8690624897826</v>
+        <v>59.86836287586955</v>
       </c>
       <c r="S6" t="n">
-        <v>205.5580533333722</v>
+        <v>205.2504376309522</v>
       </c>
       <c r="T6" t="n">
-        <v>178.1114486479429</v>
+        <v>187.0290927837257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65.15540237672808</v>
+        <v>93.51408788752305</v>
       </c>
       <c r="B7" t="n">
-        <v>65.14004798818335</v>
+        <v>113.3323794830198</v>
       </c>
       <c r="C7" t="n">
-        <v>116.9366944512234</v>
+        <v>48.97242789885846</v>
       </c>
       <c r="D7" t="n">
-        <v>70.33275472756048</v>
+        <v>170.9136180936728</v>
       </c>
       <c r="E7" t="n">
-        <v>99.58745037592217</v>
+        <v>15.04415848264054</v>
       </c>
       <c r="F7" t="n">
-        <v>78.09733398499314</v>
+        <v>138.4959069166943</v>
       </c>
       <c r="G7" t="n">
-        <v>70.12131353667809</v>
+        <v>186.6072232797982</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5526836309882</v>
+        <v>50.97734950660971</v>
       </c>
       <c r="I7" t="n">
-        <v>129.3858965918254</v>
+        <v>109.2226361083404</v>
       </c>
       <c r="J7" t="n">
-        <v>91.01917969703983</v>
+        <v>106.0122827961063</v>
       </c>
       <c r="K7" t="n">
-        <v>93.14934996744101</v>
+        <v>110.2704547871091</v>
       </c>
       <c r="L7" t="n">
-        <v>156.9111411230287</v>
+        <v>54.7160667748735</v>
       </c>
       <c r="M7" t="n">
-        <v>87.04513222602345</v>
+        <v>111.5429957432924</v>
       </c>
       <c r="N7" t="n">
-        <v>71.79735645988221</v>
+        <v>103.2523331418691</v>
       </c>
       <c r="O7" t="n">
-        <v>66.33889970339837</v>
+        <v>19.60232048600065</v>
       </c>
       <c r="P7" t="n">
-        <v>83.10646129426529</v>
+        <v>120.4845734342077</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.07327077914664</v>
+        <v>60.19729739011479</v>
       </c>
       <c r="R7" t="n">
-        <v>127.6739788788579</v>
+        <v>112.244761804775</v>
       </c>
       <c r="S7" t="n">
-        <v>127.1718808642168</v>
+        <v>127.5347776760682</v>
       </c>
       <c r="T7" t="n">
-        <v>75.11499272319631</v>
+        <v>44.71049866676461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34.79287785613386</v>
+        <v>84.97529298743979</v>
       </c>
       <c r="B8" t="n">
-        <v>34.76411573075515</v>
+        <v>32.67064159455759</v>
       </c>
       <c r="C8" t="n">
-        <v>103.1479927086188</v>
+        <v>72.12134029406043</v>
       </c>
       <c r="D8" t="n">
-        <v>43.7265854853279</v>
+        <v>98.56782155764989</v>
       </c>
       <c r="E8" t="n">
-        <v>82.96371594266537</v>
+        <v>87.54735448226673</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35802982587144</v>
+        <v>65.72748340452981</v>
       </c>
       <c r="G8" t="n">
-        <v>43.38567162955556</v>
+        <v>104.3394545881914</v>
       </c>
       <c r="H8" t="n">
-        <v>137.9609281811592</v>
+        <v>127.032240584624</v>
       </c>
       <c r="I8" t="n">
-        <v>117.0727471596573</v>
+        <v>72.0808636150511</v>
       </c>
       <c r="J8" t="n">
-        <v>72.45556544089996</v>
+        <v>50.92826219175679</v>
       </c>
       <c r="K8" t="n">
-        <v>75.11404189627468</v>
+        <v>34.47489180421899</v>
       </c>
       <c r="L8" t="n">
-        <v>146.923191155003</v>
+        <v>61.55875587074352</v>
       </c>
       <c r="M8" t="n">
-        <v>67.39564477682823</v>
+        <v>85.04232222557395</v>
       </c>
       <c r="N8" t="n">
-        <v>46.04539374645306</v>
+        <v>81.83695412963772</v>
       </c>
       <c r="O8" t="n">
-        <v>36.96170321421965</v>
+        <v>83.65854029194394</v>
       </c>
       <c r="P8" t="n">
-        <v>62.22541120389419</v>
+        <v>35.37389359835355</v>
       </c>
       <c r="Q8" t="n">
-        <v>49.51936322853201</v>
+        <v>88.24348760868973</v>
       </c>
       <c r="R8" t="n">
-        <v>115.1779613181166</v>
+        <v>83.93039641612326</v>
       </c>
       <c r="S8" t="n">
-        <v>114.621137549673</v>
+        <v>98.62079342717104</v>
       </c>
       <c r="T8" t="n">
-        <v>51.06446927604695</v>
+        <v>89.3472731987686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96.0016613492988</v>
+        <v>53.0434687625595</v>
       </c>
       <c r="B9" t="n">
-        <v>95.99124113613148</v>
+        <v>95.58857771157138</v>
       </c>
       <c r="C9" t="n">
-        <v>136.547731698959</v>
+        <v>131.4388810959641</v>
       </c>
       <c r="D9" t="n">
-        <v>99.58809622901369</v>
+        <v>153.2275803814624</v>
       </c>
       <c r="E9" t="n">
-        <v>122.0194771146347</v>
+        <v>131.0544040426389</v>
       </c>
       <c r="F9" t="n">
-        <v>105.2154270937284</v>
+        <v>24.45575843069486</v>
       </c>
       <c r="G9" t="n">
-        <v>99.43888140491738</v>
+        <v>146.787617722126</v>
       </c>
       <c r="H9" t="n">
-        <v>164.4353743478592</v>
+        <v>174.7405781211899</v>
       </c>
       <c r="I9" t="n">
-        <v>147.349254357878</v>
+        <v>142.2909575365635</v>
       </c>
       <c r="J9" t="n">
-        <v>115.1328953673716</v>
+        <v>120.3911484258559</v>
       </c>
       <c r="K9" t="n">
-        <v>116.8242009273289</v>
+        <v>100.1040289724551</v>
       </c>
       <c r="L9" t="n">
-        <v>172.0238318707125</v>
+        <v>73.01799107704672</v>
       </c>
       <c r="M9" t="n">
-        <v>112.0176216815819</v>
+        <v>35.46886083487327</v>
       </c>
       <c r="N9" t="n">
-        <v>100.6277939616064</v>
+        <v>152.0741642838613</v>
       </c>
       <c r="O9" t="n">
-        <v>96.80879162973608</v>
+        <v>109.8731254975508</v>
       </c>
       <c r="P9" t="n">
-        <v>108.9852119867981</v>
+        <v>92.52683497595059</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.2640795532473</v>
+        <v>149.8559666376115</v>
       </c>
       <c r="R9" t="n">
-        <v>145.8483370001563</v>
+        <v>154.2733703986296</v>
       </c>
       <c r="S9" t="n">
-        <v>145.4090086806683</v>
+        <v>38.63688375530135</v>
       </c>
       <c r="T9" t="n">
-        <v>103.0211369319808</v>
+        <v>97.08411258495114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17.05875957854042</v>
+        <v>137.032421881762</v>
       </c>
       <c r="B10" t="n">
-        <v>17.00001974669243</v>
+        <v>76.55810438676561</v>
       </c>
       <c r="C10" t="n">
-        <v>98.58988451491297</v>
+        <v>24.25076448567695</v>
       </c>
       <c r="D10" t="n">
-        <v>31.50351102738048</v>
+        <v>112.4921498345736</v>
       </c>
       <c r="E10" t="n">
-        <v>77.22328076339326</v>
+        <v>58.45774955814671</v>
       </c>
       <c r="F10" t="n">
-        <v>46.31380350444851</v>
+        <v>143.79896604377</v>
       </c>
       <c r="G10" t="n">
-        <v>31.02859055120321</v>
+        <v>135.417698484999</v>
       </c>
       <c r="H10" t="n">
-        <v>134.5870522504062</v>
+        <v>71.73061781909139</v>
       </c>
       <c r="I10" t="n">
-        <v>113.0773410385814</v>
+        <v>42.89848884714463</v>
       </c>
       <c r="J10" t="n">
-        <v>65.80475584794104</v>
+        <v>52.61509307537729</v>
       </c>
       <c r="K10" t="n">
-        <v>68.72100274910069</v>
+        <v>70.63272589503084</v>
       </c>
       <c r="L10" t="n">
-        <v>143.7598032414351</v>
+        <v>95.93130558263486</v>
       </c>
       <c r="M10" t="n">
-        <v>60.18828676520882</v>
+        <v>147.147545189623</v>
       </c>
       <c r="N10" t="n">
-        <v>34.65018346434104</v>
+        <v>31.85252811800761</v>
       </c>
       <c r="O10" t="n">
-        <v>21.13349079879256</v>
+        <v>83.46763073731989</v>
       </c>
       <c r="P10" t="n">
-        <v>54.33653217072576</v>
+        <v>85.51319959184664</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.14874536183609</v>
+        <v>18.77654035082177</v>
       </c>
       <c r="R10" t="n">
-        <v>111.1144441656626</v>
+        <v>41.47243721112591</v>
       </c>
       <c r="S10" t="n">
-        <v>110.5371525869364</v>
+        <v>163.2813976240221</v>
       </c>
       <c r="T10" t="n">
-        <v>41.08572685606205</v>
+        <v>106.6898279609707</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>137.2528836602286</v>
+        <v>163.8091450852991</v>
       </c>
       <c r="B11" t="n">
-        <v>137.2455954341622</v>
+        <v>58.28261877563666</v>
       </c>
       <c r="C11" t="n">
-        <v>168.1288735564289</v>
+        <v>77.1087052260998</v>
       </c>
       <c r="D11" t="n">
-        <v>139.7849205091239</v>
+        <v>59.03065966927082</v>
       </c>
       <c r="E11" t="n">
-        <v>156.5592152718953</v>
+        <v>111.8970729778865</v>
       </c>
       <c r="F11" t="n">
-        <v>143.8482575137373</v>
+        <v>141.9556875590452</v>
       </c>
       <c r="G11" t="n">
-        <v>139.6786534381114</v>
+        <v>86.0495380489248</v>
       </c>
       <c r="H11" t="n">
-        <v>191.4706960037054</v>
+        <v>128.3270499642551</v>
       </c>
       <c r="I11" t="n">
-        <v>177.0136657183434</v>
+        <v>15.64467239039243</v>
       </c>
       <c r="J11" t="n">
-        <v>151.2534914866329</v>
+        <v>31.77158394624681</v>
       </c>
       <c r="K11" t="n">
-        <v>152.5448426317052</v>
+        <v>52.71990862094901</v>
       </c>
       <c r="L11" t="n">
-        <v>198.0258413003362</v>
+        <v>129.4579106390471</v>
       </c>
       <c r="M11" t="n">
-        <v>148.8958785810433</v>
+        <v>167.0710709660589</v>
       </c>
       <c r="N11" t="n">
-        <v>140.5275346997957</v>
+        <v>26.50681498828293</v>
       </c>
       <c r="O11" t="n">
-        <v>137.8186388992158</v>
+        <v>130.4251241563049</v>
       </c>
       <c r="P11" t="n">
-        <v>146.6281402836103</v>
+        <v>64.53661165316588</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.7038357211818</v>
+        <v>75.56896621926717</v>
       </c>
       <c r="R11" t="n">
-        <v>175.7662439063142</v>
+        <v>17.43279174241524</v>
       </c>
       <c r="S11" t="n">
-        <v>175.4018668564205</v>
+        <v>181.1892842823455</v>
       </c>
       <c r="T11" t="n">
-        <v>142.2511502448424</v>
+        <v>149.0743219483358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>83.99696225929463</v>
+        <v>92.52980120527275</v>
       </c>
       <c r="B12" t="n">
-        <v>83.98505260949031</v>
+        <v>112.5010520715192</v>
       </c>
       <c r="C12" t="n">
-        <v>128.3917977095686</v>
+        <v>48.77625319002256</v>
       </c>
       <c r="D12" t="n">
-        <v>88.07360329567086</v>
+        <v>170.2723759249374</v>
       </c>
       <c r="E12" t="n">
-        <v>112.818099090052</v>
+        <v>15.23668066383198</v>
       </c>
       <c r="F12" t="n">
-        <v>94.38991887632699</v>
+        <v>137.3906609159111</v>
       </c>
       <c r="G12" t="n">
-        <v>87.90484527046924</v>
+        <v>185.8443243279176</v>
       </c>
       <c r="H12" t="n">
-        <v>157.728130096963</v>
+        <v>51.95154979183256</v>
       </c>
       <c r="I12" t="n">
-        <v>139.824795536366</v>
+        <v>108.8201704364438</v>
       </c>
       <c r="J12" t="n">
-        <v>105.3316395136715</v>
+        <v>105.4001743911381</v>
       </c>
       <c r="K12" t="n">
-        <v>107.1777244079796</v>
+        <v>109.476841309939</v>
       </c>
       <c r="L12" t="n">
-        <v>165.6241812612128</v>
+        <v>53.63874909649564</v>
       </c>
       <c r="M12" t="n">
-        <v>101.9172127472192</v>
+        <v>110.5078189576648</v>
       </c>
       <c r="N12" t="n">
-        <v>89.24754116805356</v>
+        <v>103.0044397507696</v>
       </c>
       <c r="O12" t="n">
-        <v>84.91827143656171</v>
+        <v>18.68662717822589</v>
       </c>
       <c r="P12" t="n">
-        <v>98.5745764321168</v>
+        <v>119.6200998895276</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.08848804232511</v>
+        <v>60.3059762234569</v>
       </c>
       <c r="R12" t="n">
-        <v>138.2422080721914</v>
+        <v>111.9600515257512</v>
       </c>
       <c r="S12" t="n">
-        <v>137.7786285766359</v>
+        <v>126.5139533973212</v>
       </c>
       <c r="T12" t="n">
-        <v>91.93761657625163</v>
+        <v>43.94225027289049</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>38.53927747821487</v>
+        <v>115.0481908358738</v>
       </c>
       <c r="B13" t="n">
-        <v>38.51331330296483</v>
+        <v>124.8955046074029</v>
       </c>
       <c r="C13" t="n">
-        <v>104.4712398646071</v>
+        <v>49.92034136431059</v>
       </c>
       <c r="D13" t="n">
-        <v>46.76265430059203</v>
+        <v>177.5714990000478</v>
       </c>
       <c r="E13" t="n">
-        <v>84.60324888588062</v>
+        <v>19.47683895295739</v>
       </c>
       <c r="F13" t="n">
-        <v>57.78618368808466</v>
+        <v>158.3682950981108</v>
       </c>
       <c r="G13" t="n">
-        <v>46.44403149790737</v>
+        <v>195.9516650105735</v>
       </c>
       <c r="H13" t="n">
-        <v>138.9530469750051</v>
+        <v>29.68109949587954</v>
       </c>
       <c r="I13" t="n">
-        <v>118.240262544279</v>
+        <v>111.5516305190645</v>
       </c>
       <c r="J13" t="n">
-        <v>74.3272528914632</v>
+        <v>112.7873362003163</v>
       </c>
       <c r="K13" t="n">
-        <v>76.9210689540018</v>
+        <v>120.9938451412199</v>
       </c>
       <c r="L13" t="n">
-        <v>147.8551847525156</v>
+        <v>76.21379721058166</v>
       </c>
       <c r="M13" t="n">
-        <v>69.40392275596103</v>
+        <v>133.1784658635647</v>
       </c>
       <c r="N13" t="n">
-        <v>48.93781609652078</v>
+        <v>102.5867458906419</v>
       </c>
       <c r="O13" t="n">
-        <v>40.50801233740116</v>
+        <v>41.000147215098</v>
       </c>
       <c r="P13" t="n">
-        <v>64.3951345873639</v>
+        <v>132.7616016354405</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.21971747903542</v>
+        <v>54.26933124458546</v>
       </c>
       <c r="R13" t="n">
-        <v>116.3644891383473</v>
+        <v>112.1252088638024</v>
       </c>
       <c r="S13" t="n">
-        <v>115.8133702653198</v>
+        <v>149.161620939696</v>
       </c>
       <c r="T13" t="n">
-        <v>53.68716402898679</v>
+        <v>65.01205236739862</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65.27201203559333</v>
+        <v>36.3767080960014</v>
       </c>
       <c r="B14" t="n">
-        <v>65.25668508439674</v>
+        <v>82.20422394206821</v>
       </c>
       <c r="C14" t="n">
-        <v>117.0017077032642</v>
+        <v>86.64288772993966</v>
       </c>
       <c r="D14" t="n">
-        <v>70.44079417403299</v>
+        <v>147.993174983392</v>
       </c>
       <c r="E14" t="n">
-        <v>99.66378162942675</v>
+        <v>81.14082732636533</v>
       </c>
       <c r="F14" t="n">
-        <v>78.19464605626693</v>
+        <v>64.31795389291105</v>
       </c>
       <c r="G14" t="n">
-        <v>70.22967825933999</v>
+        <v>151.5573168613795</v>
       </c>
       <c r="H14" t="n">
-        <v>148.6038657312446</v>
+        <v>124.7934914951858</v>
       </c>
       <c r="I14" t="n">
-        <v>129.4446574145562</v>
+        <v>114.3868072442739</v>
       </c>
       <c r="J14" t="n">
-        <v>91.10269024031797</v>
+        <v>96.66996884455162</v>
       </c>
       <c r="K14" t="n">
-        <v>93.2309524549551</v>
+        <v>83.77010963284572</v>
       </c>
       <c r="L14" t="n">
-        <v>156.9595976830736</v>
+        <v>23.48864497462525</v>
       </c>
       <c r="M14" t="n">
-        <v>87.13245170742762</v>
+        <v>43.08512810128007</v>
       </c>
       <c r="N14" t="n">
-        <v>71.9031952762093</v>
+        <v>119.643403927985</v>
       </c>
       <c r="O14" t="n">
-        <v>66.45343264391121</v>
+        <v>59.78203457097043</v>
       </c>
       <c r="P14" t="n">
-        <v>83.19791466831673</v>
+        <v>84.11669461417283</v>
       </c>
       <c r="Q14" t="n">
-        <v>74.17586224791781</v>
+        <v>105.4242584600775</v>
       </c>
       <c r="R14" t="n">
-        <v>127.7335272317348</v>
+        <v>124.4614243935501</v>
       </c>
       <c r="S14" t="n">
-        <v>127.2316642147066</v>
+        <v>59.31722537767137</v>
       </c>
       <c r="T14" t="n">
-        <v>75.21616334344057</v>
+        <v>51.21193313096484</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>59.15691453064356</v>
+        <v>136.4637514867291</v>
       </c>
       <c r="B15" t="n">
-        <v>59.14000278842871</v>
+        <v>84.88328751535624</v>
       </c>
       <c r="C15" t="n">
-        <v>113.7035821207551</v>
+        <v>160.8667788915399</v>
       </c>
       <c r="D15" t="n">
-        <v>64.81520242566327</v>
+        <v>103.3943886149861</v>
       </c>
       <c r="E15" t="n">
-        <v>95.77042523811454</v>
+        <v>178.0971684724569</v>
       </c>
       <c r="F15" t="n">
-        <v>73.16766808827578</v>
+        <v>61.90962588122945</v>
       </c>
       <c r="G15" t="n">
-        <v>64.58570035249011</v>
+        <v>82.6041034383059</v>
       </c>
       <c r="H15" t="n">
-        <v>146.021278900991</v>
+        <v>217.521544761057</v>
       </c>
       <c r="I15" t="n">
-        <v>126.4714367546406</v>
+        <v>134.8224059414322</v>
       </c>
       <c r="J15" t="n">
-        <v>86.82629296840072</v>
+        <v>113.2162188136961</v>
       </c>
       <c r="K15" t="n">
-        <v>89.0568103924081</v>
+        <v>91.13372416958487</v>
       </c>
       <c r="L15" t="n">
-        <v>154.5167314126323</v>
+        <v>138.6617331619921</v>
       </c>
       <c r="M15" t="n">
-        <v>82.65088700164344</v>
+        <v>121.5678261950921</v>
       </c>
       <c r="N15" t="n">
-        <v>66.40161498442576</v>
+        <v>150.4701424973395</v>
       </c>
       <c r="O15" t="n">
-        <v>60.45794978139825</v>
+        <v>169.8989366332655</v>
       </c>
       <c r="P15" t="n">
-        <v>78.49202498832437</v>
+        <v>76.099245010814</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.85610736770781</v>
+        <v>174.7576897695323</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7195211691882</v>
+        <v>147.1381874066422</v>
       </c>
       <c r="S15" t="n">
-        <v>124.2054803962171</v>
+        <v>123.8252345923551</v>
       </c>
       <c r="T15" t="n">
-        <v>69.97554008164826</v>
+        <v>167.6292782822973</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>52.24766657687088</v>
+        <v>130.7516020450611</v>
       </c>
       <c r="B16" t="n">
-        <v>52.22851764847782</v>
+        <v>31.16019959732578</v>
       </c>
       <c r="C16" t="n">
-        <v>110.266870423683</v>
+        <v>59.66389155364023</v>
       </c>
       <c r="D16" t="n">
-        <v>58.57720197672221</v>
+        <v>69.19172096033972</v>
       </c>
       <c r="E16" t="n">
-        <v>91.66380134072168</v>
+        <v>91.13800892199362</v>
       </c>
       <c r="F16" t="n">
-        <v>67.70366149196137</v>
+        <v>111.6442504377854</v>
       </c>
       <c r="G16" t="n">
-        <v>58.32315848754801</v>
+        <v>88.26781782204768</v>
       </c>
       <c r="H16" t="n">
-        <v>143.3614035151128</v>
+        <v>117.5186311710925</v>
       </c>
       <c r="I16" t="n">
-        <v>123.3908523381092</v>
+        <v>22.76740765803519</v>
       </c>
       <c r="J16" t="n">
-        <v>82.27443878007651</v>
+        <v>4.195686853836089</v>
       </c>
       <c r="K16" t="n">
-        <v>84.62501759652005</v>
+        <v>24.80732918998244</v>
       </c>
       <c r="L16" t="n">
-        <v>152.0055867801758</v>
+        <v>97.8656671999138</v>
       </c>
       <c r="M16" t="n">
-        <v>77.85529685320348</v>
+        <v>133.7872335320258</v>
       </c>
       <c r="N16" t="n">
-        <v>60.32787579951675</v>
+        <v>35.77772858339544</v>
       </c>
       <c r="O16" t="n">
-        <v>53.71630867541138</v>
+        <v>103.7912316584358</v>
       </c>
       <c r="P16" t="n">
-        <v>73.42530975562678</v>
+        <v>39.57906184084948</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.0193751776016</v>
+        <v>66.29209089423632</v>
       </c>
       <c r="R16" t="n">
-        <v>121.5945602673638</v>
+        <v>35.26306060173926</v>
       </c>
       <c r="S16" t="n">
-        <v>121.0672519156072</v>
+        <v>147.9974709199618</v>
       </c>
       <c r="T16" t="n">
-        <v>64.24059725485407</v>
+        <v>119.6823688431789</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>151.7884077852357</v>
+        <v>42.23351684329202</v>
       </c>
       <c r="B17" t="n">
-        <v>151.7818175243875</v>
+        <v>75.60197230983071</v>
       </c>
       <c r="C17" t="n">
-        <v>180.1906900710534</v>
+        <v>93.58408935206009</v>
       </c>
       <c r="D17" t="n">
-        <v>154.0817661719609</v>
+        <v>140.3654142812061</v>
       </c>
       <c r="E17" t="n">
-        <v>169.4466126881279</v>
+        <v>92.39109216915573</v>
       </c>
       <c r="F17" t="n">
-        <v>157.7773363150336</v>
+        <v>50.31033329920749</v>
       </c>
       <c r="G17" t="n">
-        <v>153.9853658345908</v>
+        <v>141.6274827661068</v>
       </c>
       <c r="H17" t="n">
-        <v>202.1444881590199</v>
+        <v>136.0446280262604</v>
       </c>
       <c r="I17" t="n">
-        <v>188.5078367494948</v>
+        <v>113.4715737574234</v>
       </c>
       <c r="J17" t="n">
-        <v>164.556936504742</v>
+        <v>93.89950425276163</v>
       </c>
       <c r="K17" t="n">
-        <v>165.7446701359065</v>
+        <v>78.14199356161936</v>
       </c>
       <c r="L17" t="n">
-        <v>208.3641055643574</v>
+        <v>37.61857486071573</v>
       </c>
       <c r="M17" t="n">
-        <v>162.3925777963684</v>
+        <v>41.63109268903728</v>
       </c>
       <c r="N17" t="n">
-        <v>154.7557904368397</v>
+        <v>120.6071443565606</v>
       </c>
       <c r="O17" t="n">
-        <v>152.3001769301704</v>
+        <v>73.25519606303816</v>
       </c>
       <c r="P17" t="n">
-        <v>160.3158700439818</v>
+        <v>76.13904534963912</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.8247211549709</v>
+        <v>112.228039312611</v>
       </c>
       <c r="R17" t="n">
-        <v>187.3369668855101</v>
+        <v>124.4086367728612</v>
       </c>
       <c r="S17" t="n">
-        <v>186.995137802153</v>
+        <v>56.32633572462937</v>
       </c>
       <c r="T17" t="n">
-        <v>156.3226036467839</v>
+        <v>65.50601960566151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>37.09739834755174</v>
+        <v>175.9760314827608</v>
       </c>
       <c r="B18" t="n">
-        <v>37.07042429196653</v>
+        <v>91.54618260605076</v>
       </c>
       <c r="C18" t="n">
-        <v>103.9479726327665</v>
+        <v>172.0136512223905</v>
       </c>
       <c r="D18" t="n">
-        <v>45.58165083507587</v>
+        <v>75.68262834738567</v>
       </c>
       <c r="E18" t="n">
-        <v>83.95624323217633</v>
+        <v>196.4441665015524</v>
       </c>
       <c r="F18" t="n">
-        <v>56.83470841701536</v>
+        <v>105.7824798839573</v>
       </c>
       <c r="G18" t="n">
-        <v>45.25471375881973</v>
+        <v>47.38330162193172</v>
       </c>
       <c r="H18" t="n">
-        <v>138.5600603321609</v>
+        <v>230.8186528520178</v>
       </c>
       <c r="I18" t="n">
-        <v>117.7781844916711</v>
+        <v>129.5938394850912</v>
       </c>
       <c r="J18" t="n">
-        <v>73.58995568693884</v>
+        <v>112.7601711240867</v>
       </c>
       <c r="K18" t="n">
-        <v>76.20887024907529</v>
+        <v>96.37858579678496</v>
       </c>
       <c r="L18" t="n">
-        <v>147.4859203917941</v>
+        <v>169.4550394167884</v>
       </c>
       <c r="M18" t="n">
-        <v>68.61374169602982</v>
+        <v>163.7789712829869</v>
       </c>
       <c r="N18" t="n">
-        <v>47.81057309749574</v>
+        <v>146.1557795153371</v>
       </c>
       <c r="O18" t="n">
-        <v>39.1387291457086</v>
+        <v>195.3942685221365</v>
       </c>
       <c r="P18" t="n">
-        <v>63.54269756737438</v>
+        <v>83.20657192982998</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.16483117537253</v>
+        <v>181.9990372193259</v>
       </c>
       <c r="R18" t="n">
-        <v>115.8949325382376</v>
+        <v>140.0876785133626</v>
       </c>
       <c r="S18" t="n">
-        <v>115.3415700769941</v>
+        <v>168.2523484685578</v>
       </c>
       <c r="T18" t="n">
-        <v>52.66168091781184</v>
+        <v>198.5587455430147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37.68934279037379</v>
+        <v>112.7531478008204</v>
       </c>
       <c r="B19" t="n">
-        <v>37.66279268721039</v>
+        <v>45.42181518390221</v>
       </c>
       <c r="C19" t="n">
-        <v>104.1606960915476</v>
+        <v>119.9033657704836</v>
       </c>
       <c r="D19" t="n">
-        <v>46.06469894251062</v>
+        <v>83.79890357803234</v>
       </c>
       <c r="E19" t="n">
-        <v>84.21947739967115</v>
+        <v>138.2939917169005</v>
       </c>
       <c r="F19" t="n">
-        <v>57.22284226303795</v>
+        <v>51.83948896788736</v>
       </c>
       <c r="G19" t="n">
-        <v>45.74121460134255</v>
+        <v>74.48521355021454</v>
       </c>
       <c r="H19" t="n">
-        <v>138.7197171099531</v>
+        <v>176.8720658967088</v>
       </c>
       <c r="I19" t="n">
-        <v>117.9659711017016</v>
+        <v>97.36455987122972</v>
       </c>
       <c r="J19" t="n">
-        <v>73.89012906890194</v>
+        <v>74.76828586031792</v>
       </c>
       <c r="K19" t="n">
-        <v>76.498767966901</v>
+        <v>51.77613347185354</v>
       </c>
       <c r="L19" t="n">
-        <v>147.6359248612207</v>
+        <v>104.9730382348125</v>
       </c>
       <c r="M19" t="n">
-        <v>68.93558692970466</v>
+        <v>103.0121896704107</v>
       </c>
       <c r="N19" t="n">
-        <v>48.27132166954153</v>
+        <v>112.1884817366327</v>
       </c>
       <c r="O19" t="n">
-        <v>39.70024829839866</v>
+        <v>132.8596915619813</v>
       </c>
       <c r="P19" t="n">
-        <v>63.89009320663237</v>
+        <v>37.19248394098359</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.59563494151165</v>
+        <v>133.8191516349947</v>
       </c>
       <c r="R19" t="n">
-        <v>116.0857656384107</v>
+        <v>110.0158769521082</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5333172017471</v>
+        <v>110.4722284371316</v>
       </c>
       <c r="T19" t="n">
-        <v>53.08033753569012</v>
+        <v>134.1577911086929</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>69.49190811951892</v>
+        <v>41.21306089001342</v>
       </c>
       <c r="B20" t="n">
-        <v>69.47751209651328</v>
+        <v>78.26974704974208</v>
       </c>
       <c r="C20" t="n">
-        <v>119.4072415911074</v>
+        <v>99.48052025293025</v>
       </c>
       <c r="D20" t="n">
-        <v>74.36797175387736</v>
+        <v>142.2755479499704</v>
       </c>
       <c r="E20" t="n">
-        <v>102.477115043287</v>
+        <v>98.25028148050782</v>
       </c>
       <c r="F20" t="n">
-        <v>81.75018294035728</v>
+        <v>45.46013022222359</v>
       </c>
       <c r="G20" t="n">
-        <v>74.16803521280197</v>
+        <v>142.3112153340303</v>
       </c>
       <c r="H20" t="n">
-        <v>150.5051449259685</v>
+        <v>141.9197546500194</v>
       </c>
       <c r="I20" t="n">
-        <v>131.6229807901677</v>
+        <v>117.9267642533156</v>
       </c>
       <c r="J20" t="n">
-        <v>94.17212914626252</v>
+        <v>97.87568398858424</v>
       </c>
       <c r="K20" t="n">
-        <v>96.23253210102664</v>
+        <v>81.19449553105676</v>
       </c>
       <c r="L20" t="n">
-        <v>158.7608422872257</v>
+        <v>42.37658312127002</v>
       </c>
       <c r="M20" t="n">
-        <v>90.33689102168741</v>
+        <v>37.78172364057577</v>
       </c>
       <c r="N20" t="n">
-        <v>75.75459873727607</v>
+        <v>125.5227936299909</v>
       </c>
       <c r="O20" t="n">
-        <v>70.60275100218027</v>
+        <v>78.51610971452261</v>
       </c>
       <c r="P20" t="n">
-        <v>86.54815274789827</v>
+        <v>78.16786682511868</v>
       </c>
       <c r="Q20" t="n">
-        <v>77.91500676467338</v>
+        <v>118.1007291215178</v>
       </c>
       <c r="R20" t="n">
-        <v>129.940539163024</v>
+        <v>129.0669863566184</v>
       </c>
       <c r="S20" t="n">
-        <v>129.4472329474867</v>
+        <v>51.72838747054735</v>
       </c>
       <c r="T20" t="n">
-        <v>78.90602617686531</v>
+        <v>69.49977042820922</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74.54278086564531</v>
+        <v>117.5657983475433</v>
       </c>
       <c r="B21" t="n">
-        <v>74.52936047097884</v>
+        <v>96.1314476584115</v>
       </c>
       <c r="C21" t="n">
-        <v>122.4156453623843</v>
+        <v>163.764661146926</v>
       </c>
       <c r="D21" t="n">
-        <v>79.1081292148756</v>
+        <v>128.0852313832829</v>
       </c>
       <c r="E21" t="n">
-        <v>105.96725905999</v>
+        <v>175.4680432716683</v>
       </c>
       <c r="F21" t="n">
-        <v>86.08480293218913</v>
+        <v>41.9415953622587</v>
       </c>
       <c r="G21" t="n">
-        <v>78.92020230853053</v>
+        <v>110.1144197623884</v>
       </c>
       <c r="H21" t="n">
-        <v>152.9029088483236</v>
+        <v>217.2587898089094</v>
       </c>
       <c r="I21" t="n">
-        <v>134.3581406435085</v>
+        <v>148.5063392691529</v>
       </c>
       <c r="J21" t="n">
-        <v>97.95861775786908</v>
+        <v>125.6858427429121</v>
       </c>
       <c r="K21" t="n">
-        <v>99.94098818636463</v>
+        <v>102.4478619550205</v>
       </c>
       <c r="L21" t="n">
-        <v>161.0357287338475</v>
+        <v>127.9037593656525</v>
       </c>
       <c r="M21" t="n">
-        <v>94.2775411461085</v>
+        <v>100.1747450804561</v>
       </c>
       <c r="N21" t="n">
-        <v>80.41305935566477</v>
+        <v>162.9572445659689</v>
       </c>
       <c r="O21" t="n">
-        <v>75.57942401320496</v>
+        <v>162.2575656375287</v>
       </c>
       <c r="P21" t="n">
-        <v>90.65364652988586</v>
+        <v>88.31607571932375</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.45149582773531</v>
+        <v>179.6109458016014</v>
       </c>
       <c r="R21" t="n">
-        <v>132.71037865619</v>
+        <v>161.201384160851</v>
       </c>
       <c r="S21" t="n">
-        <v>132.2274063984196</v>
+        <v>99.68715517616128</v>
       </c>
       <c r="T21" t="n">
-        <v>83.38861944004175</v>
+        <v>155.6830448113594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.987055332824906</v>
+        <v>110.7264879720318</v>
       </c>
       <c r="B22" t="n">
-        <v>4.782270791386175</v>
+        <v>97.16545946198742</v>
       </c>
       <c r="C22" t="n">
-        <v>97.23083241029096</v>
+        <v>161.901247207017</v>
       </c>
       <c r="D22" t="n">
-        <v>26.95070777524212</v>
+        <v>132.8261859598101</v>
       </c>
       <c r="E22" t="n">
-        <v>75.48049108475698</v>
+        <v>172.1225176311687</v>
       </c>
       <c r="F22" t="n">
-        <v>43.34556306685703</v>
+        <v>35.7095108830072</v>
       </c>
       <c r="G22" t="n">
-        <v>26.39399314481289</v>
+        <v>116.0204528870879</v>
       </c>
       <c r="H22" t="n">
-        <v>133.5947007780914</v>
+        <v>214.363328755926</v>
       </c>
       <c r="I22" t="n">
-        <v>111.8943899348392</v>
+        <v>149.7059102148041</v>
       </c>
       <c r="J22" t="n">
-        <v>63.75057125031385</v>
+        <v>126.7098927046346</v>
       </c>
       <c r="K22" t="n">
-        <v>66.75661511323142</v>
+        <v>103.4074366677629</v>
       </c>
       <c r="L22" t="n">
-        <v>142.8311957191088</v>
+        <v>122.8184734453035</v>
       </c>
       <c r="M22" t="n">
-        <v>57.93530276321358</v>
+        <v>92.9206309964158</v>
       </c>
       <c r="N22" t="n">
-        <v>30.56966889985409</v>
+        <v>163.7305893239677</v>
       </c>
       <c r="O22" t="n">
-        <v>13.43480092434802</v>
+        <v>157.7385832058587</v>
       </c>
       <c r="P22" t="n">
-        <v>51.82980002734458</v>
+        <v>89.74711159626982</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.58783086871263</v>
+        <v>178.1893208097588</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9103686863908</v>
+        <v>162.4381997211979</v>
       </c>
       <c r="S22" t="n">
-        <v>109.3267192618615</v>
+        <v>91.99180197087412</v>
       </c>
       <c r="T22" t="n">
-        <v>37.70817409826616</v>
+        <v>150.1868791801988</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.228195260775059</v>
+        <v>110.9742720504863</v>
       </c>
       <c r="B23" t="n">
-        <v>1.721698913755958</v>
+        <v>21.64845857433996</v>
       </c>
       <c r="C23" t="n">
-        <v>97.12841450587759</v>
+        <v>58.93992243416262</v>
       </c>
       <c r="D23" t="n">
-        <v>26.57884088544832</v>
+        <v>80.00143046381524</v>
       </c>
       <c r="E23" t="n">
-        <v>75.3485147008457</v>
+        <v>84.8865024252582</v>
       </c>
       <c r="F23" t="n">
-        <v>43.11533336077042</v>
+        <v>92.75037947856956</v>
       </c>
       <c r="G23" t="n">
-        <v>26.01416935740815</v>
+        <v>93.3492989342935</v>
       </c>
       <c r="H23" t="n">
-        <v>133.5201790337898</v>
+        <v>117.6611543369267</v>
       </c>
       <c r="I23" t="n">
-        <v>111.8054052008101</v>
+        <v>42.81096161563997</v>
       </c>
       <c r="J23" t="n">
-        <v>63.59425656432212</v>
+        <v>22.19408874970724</v>
       </c>
       <c r="K23" t="n">
-        <v>66.60735540917084</v>
+        <v>17.25891351742365</v>
       </c>
       <c r="L23" t="n">
-        <v>142.7614955223496</v>
+        <v>80.31862269959281</v>
       </c>
       <c r="M23" t="n">
-        <v>57.76325336658857</v>
+        <v>113.3458845122361</v>
       </c>
       <c r="N23" t="n">
-        <v>30.24233439855775</v>
+        <v>53.46119499351221</v>
       </c>
       <c r="O23" t="n">
-        <v>12.6723324255776</v>
+        <v>91.59669097647692</v>
       </c>
       <c r="P23" t="n">
-        <v>51.63741186486801</v>
+        <v>30.27789605774322</v>
       </c>
       <c r="Q23" t="n">
-        <v>35.30705084211337</v>
+        <v>70.7932083821544</v>
       </c>
       <c r="R23" t="n">
-        <v>109.8197763520116</v>
+        <v>54.81207699242439</v>
       </c>
       <c r="S23" t="n">
-        <v>109.2356428909051</v>
+        <v>127.4654522459278</v>
       </c>
       <c r="T23" t="n">
-        <v>37.44329749170917</v>
+        <v>104.3535034721236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>116.9741337181467</v>
+        <v>129.4106545881208</v>
       </c>
       <c r="B24" t="n">
-        <v>116.9655819125453</v>
+        <v>70.30200225627213</v>
       </c>
       <c r="C24" t="n">
-        <v>152.0260241189524</v>
+        <v>146.6875952452398</v>
       </c>
       <c r="D24" t="n">
-        <v>119.9350569591923</v>
+        <v>92.66369450060643</v>
       </c>
       <c r="E24" t="n">
-        <v>139.1236204697617</v>
+        <v>164.7973586302903</v>
       </c>
       <c r="F24" t="n">
-        <v>124.6471623255062</v>
+        <v>57.8534962593789</v>
       </c>
       <c r="G24" t="n">
-        <v>119.8111852555789</v>
+        <v>74.75245477036555</v>
       </c>
       <c r="H24" t="n">
-        <v>177.4982290452668</v>
+        <v>203.6817308775814</v>
       </c>
       <c r="I24" t="n">
-        <v>161.7975022585579</v>
+        <v>120.4446909172142</v>
       </c>
       <c r="J24" t="n">
-        <v>133.1248007433609</v>
+        <v>98.70464250249775</v>
       </c>
       <c r="K24" t="n">
-        <v>134.5902035795857</v>
+        <v>76.5550751593268</v>
       </c>
       <c r="L24" t="n">
-        <v>184.5503392269127</v>
+        <v>127.9489546026933</v>
       </c>
       <c r="M24" t="n">
-        <v>130.4399346231185</v>
+        <v>116.1955654666904</v>
       </c>
       <c r="N24" t="n">
-        <v>120.7997594983737</v>
+        <v>136.004721862658</v>
       </c>
       <c r="O24" t="n">
-        <v>117.6374562547791</v>
+        <v>157.9136529228969</v>
       </c>
       <c r="P24" t="n">
-        <v>127.8452400720994</v>
+        <v>61.52426753573067</v>
       </c>
       <c r="Q24" t="n">
-        <v>122.166161207424</v>
+        <v>160.3528855018691</v>
       </c>
       <c r="R24" t="n">
-        <v>160.4318122536692</v>
+        <v>132.821534107306</v>
       </c>
       <c r="S24" t="n">
-        <v>160.0325241405012</v>
+        <v>120.3219524126588</v>
       </c>
       <c r="T24" t="n">
-        <v>122.8005848196309</v>
+        <v>157.1069503938207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>44.04120457325504</v>
+        <v>157.536329763038</v>
       </c>
       <c r="B25" t="n">
-        <v>44.01848581326701</v>
+        <v>55.21693084829015</v>
       </c>
       <c r="C25" t="n">
-        <v>106.6235984694229</v>
+        <v>134.2051789802006</v>
       </c>
       <c r="D25" t="n">
-        <v>51.39161049195812</v>
+        <v>43.32121602087968</v>
       </c>
       <c r="E25" t="n">
-        <v>87.24712897148376</v>
+        <v>161.0087419602696</v>
       </c>
       <c r="F25" t="n">
-        <v>61.59216522378088</v>
+        <v>98.67689721291293</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10185763256629</v>
+        <v>27.13226574510015</v>
       </c>
       <c r="H25" t="n">
-        <v>140.5784516039298</v>
+        <v>192.9951646019578</v>
       </c>
       <c r="I25" t="n">
-        <v>120.1462087552516</v>
+        <v>89.41280045055231</v>
       </c>
       <c r="J25" t="n">
-        <v>77.32329735669572</v>
+        <v>73.12478698054015</v>
       </c>
       <c r="K25" t="n">
-        <v>79.81981358501635</v>
+        <v>59.03707085370343</v>
       </c>
       <c r="L25" t="n">
-        <v>149.3837589897944</v>
+        <v>142.5831396677795</v>
       </c>
       <c r="M25" t="n">
-        <v>72.60341786469743</v>
+        <v>149.6065952529831</v>
       </c>
       <c r="N25" t="n">
-        <v>53.37847539989644</v>
+        <v>105.9746983234051</v>
       </c>
       <c r="O25" t="n">
-        <v>45.77391020272908</v>
+        <v>163.8579654592836</v>
       </c>
       <c r="P25" t="n">
-        <v>67.83129919325718</v>
+        <v>48.07471748934652</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.40257693856495</v>
+        <v>142.9831323311863</v>
       </c>
       <c r="R25" t="n">
-        <v>118.3006598635401</v>
+        <v>99.98347158879558</v>
       </c>
       <c r="S25" t="n">
-        <v>117.7586027597666</v>
+        <v>157.7325277191344</v>
       </c>
       <c r="T25" t="n">
-        <v>57.76385871109888</v>
+        <v>170.8048792012557</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>119.2416046482648</v>
+        <v>135.4782836338964</v>
       </c>
       <c r="B26" t="n">
-        <v>119.2332154733847</v>
+        <v>45.72632395907256</v>
       </c>
       <c r="C26" t="n">
-        <v>153.7775156822301</v>
+        <v>49.48962312044156</v>
       </c>
       <c r="D26" t="n">
-        <v>122.1475755297129</v>
+        <v>78.84290726610875</v>
       </c>
       <c r="E26" t="n">
-        <v>141.0354355918983</v>
+        <v>83.15515092102748</v>
       </c>
       <c r="F26" t="n">
-        <v>126.7774719569029</v>
+        <v>123.6033102609607</v>
       </c>
       <c r="G26" t="n">
-        <v>122.0259498317012</v>
+        <v>100.545307438363</v>
       </c>
       <c r="H26" t="n">
-        <v>179.0006526082746</v>
+        <v>105.4877758242873</v>
       </c>
       <c r="I26" t="n">
-        <v>163.4443148509311</v>
+        <v>15.5632352901781</v>
       </c>
       <c r="J26" t="n">
-        <v>135.1215189854739</v>
+        <v>18.08004951554887</v>
       </c>
       <c r="K26" t="n">
-        <v>136.5654979106236</v>
+        <v>39.39121798770771</v>
       </c>
       <c r="L26" t="n">
-        <v>185.9958064816268</v>
+        <v>99.43985662658061</v>
       </c>
       <c r="M26" t="n">
-        <v>132.47712581599</v>
+        <v>140.6525387763146</v>
       </c>
       <c r="N26" t="n">
-        <v>122.9967244069822</v>
+        <v>22.61015345635277</v>
       </c>
       <c r="O26" t="n">
-        <v>119.892382719159</v>
+        <v>99.88640914676469</v>
       </c>
       <c r="P26" t="n">
-        <v>129.9231223804099</v>
+        <v>54.34445290395985</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3389852948001</v>
+        <v>53.1795110267884</v>
       </c>
       <c r="R26" t="n">
-        <v>162.0925004526082</v>
+        <v>25.15528422180439</v>
       </c>
       <c r="S26" t="n">
-        <v>161.6973132206046</v>
+        <v>155.5703407385959</v>
       </c>
       <c r="T26" t="n">
-        <v>124.9623781464869</v>
+        <v>118.3678500748151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>88.27185951006172</v>
+        <v>154.0420793842734</v>
       </c>
       <c r="B27" t="n">
-        <v>88.26052670584717</v>
+        <v>106.609548787149</v>
       </c>
       <c r="C27" t="n">
-        <v>131.2283705288971</v>
+        <v>183.3367774765743</v>
       </c>
       <c r="D27" t="n">
-        <v>92.15959586531352</v>
+        <v>117.3002118951468</v>
       </c>
       <c r="E27" t="n">
-        <v>116.0360073204326</v>
+        <v>200.4889702714655</v>
       </c>
       <c r="F27" t="n">
-        <v>98.21348328032305</v>
+        <v>78.20388720752317</v>
       </c>
       <c r="G27" t="n">
-        <v>91.99833332511979</v>
+        <v>92.79616525598368</v>
       </c>
       <c r="H27" t="n">
-        <v>160.045601428028</v>
+        <v>240.0356422649131</v>
       </c>
       <c r="I27" t="n">
-        <v>142.433861702059</v>
+        <v>155.3930182737337</v>
       </c>
       <c r="J27" t="n">
-        <v>108.7712544526943</v>
+        <v>134.3516401182245</v>
       </c>
       <c r="K27" t="n">
-        <v>110.5599209562287</v>
+        <v>112.7774022752796</v>
       </c>
       <c r="L27" t="n">
-        <v>167.8326575223719</v>
+        <v>159.519819220504</v>
       </c>
       <c r="M27" t="n">
-        <v>105.4682405595952</v>
+        <v>137.56860632481</v>
       </c>
       <c r="N27" t="n">
-        <v>93.2821264611722</v>
+        <v>171.32845413262</v>
       </c>
       <c r="O27" t="n">
-        <v>89.14900075911271</v>
+        <v>191.5972230075833</v>
       </c>
       <c r="P27" t="n">
-        <v>102.2417655918849</v>
+        <v>97.72779982805721</v>
       </c>
       <c r="Q27" t="n">
-        <v>95.04495865858173</v>
+        <v>197.0672372847573</v>
       </c>
       <c r="R27" t="n">
-        <v>140.8805863320059</v>
+        <v>167.4817286245065</v>
       </c>
       <c r="S27" t="n">
-        <v>140.4257170358524</v>
+        <v>137.692256527346</v>
       </c>
       <c r="T27" t="n">
-        <v>95.85904680465254</v>
+        <v>188.2407223762659</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>114.2856657766262</v>
+        <v>111.0641759153664</v>
       </c>
       <c r="B28" t="n">
-        <v>114.2769127822247</v>
+        <v>75.73733894503459</v>
       </c>
       <c r="C28" t="n">
-        <v>149.9672546001698</v>
+        <v>6.840584522858022</v>
       </c>
       <c r="D28" t="n">
-        <v>117.3144634335449</v>
+        <v>125.8097266007268</v>
       </c>
       <c r="E28" t="n">
-        <v>136.8709144249067</v>
+        <v>35.09973700668925</v>
       </c>
       <c r="F28" t="n">
-        <v>122.1277221547055</v>
+        <v>127.7868593728469</v>
       </c>
       <c r="G28" t="n">
-        <v>117.1878217019264</v>
+        <v>144.5552890009314</v>
       </c>
       <c r="H28" t="n">
-        <v>175.7381198178182</v>
+        <v>63.64484939280593</v>
       </c>
       <c r="I28" t="n">
-        <v>159.8646214145078</v>
+        <v>61.44831492334623</v>
       </c>
       <c r="J28" t="n">
-        <v>130.7687960327516</v>
+        <v>61.02516807236003</v>
       </c>
       <c r="K28" t="n">
-        <v>132.2603052411802</v>
+        <v>71.09265745050958</v>
       </c>
       <c r="L28" t="n">
-        <v>182.8581230125268</v>
+        <v>69.18602303881484</v>
       </c>
       <c r="M28" t="n">
-        <v>128.034534354522</v>
+        <v>122.8678561492419</v>
       </c>
       <c r="N28" t="n">
-        <v>118.198338980549</v>
+        <v>55.80575840626076</v>
       </c>
       <c r="O28" t="n">
-        <v>114.9645012905763</v>
+        <v>56.08969150434598</v>
       </c>
       <c r="P28" t="n">
-        <v>125.3900747746351</v>
+        <v>84.21221718453307</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.5944663730482</v>
+        <v>25.44893790415402</v>
       </c>
       <c r="R28" t="n">
-        <v>158.4822760623169</v>
+        <v>64.54407128126552</v>
       </c>
       <c r="S28" t="n">
-        <v>158.0780637080171</v>
+        <v>139.2722427907915</v>
       </c>
       <c r="T28" t="n">
-        <v>120.2424595346386</v>
+        <v>78.85257378744652</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>33.83801610570214</v>
+        <v>61.35644111253317</v>
       </c>
       <c r="B29" t="n">
-        <v>33.80844165292517</v>
+        <v>100.8236765281519</v>
       </c>
       <c r="C29" t="n">
-        <v>102.8298370332035</v>
+        <v>140.8163883810466</v>
       </c>
       <c r="D29" t="n">
-        <v>42.97070237573033</v>
+        <v>155.842701016021</v>
       </c>
       <c r="E29" t="n">
-        <v>82.56782150131598</v>
+        <v>141.154756463469</v>
       </c>
       <c r="F29" t="n">
-        <v>54.76292952956388</v>
+        <v>21.93442751722014</v>
       </c>
       <c r="G29" t="n">
-        <v>42.62374323315035</v>
+        <v>147.4752684121781</v>
       </c>
       <c r="H29" t="n">
-        <v>137.7232176833844</v>
+        <v>184.8323616790628</v>
       </c>
       <c r="I29" t="n">
-        <v>116.7925302062035</v>
+        <v>149.0737650671081</v>
       </c>
       <c r="J29" t="n">
-        <v>72.00191627879389</v>
+        <v>126.7796266009208</v>
       </c>
       <c r="K29" t="n">
-        <v>74.67654433925834</v>
+        <v>105.7071597436748</v>
       </c>
       <c r="L29" t="n">
-        <v>146.7000036933451</v>
+        <v>83.21370290615344</v>
       </c>
       <c r="M29" t="n">
-        <v>66.90769701119837</v>
+        <v>42.2126345812278</v>
       </c>
       <c r="N29" t="n">
-        <v>45.32819508566171</v>
+        <v>159.4958795074323</v>
       </c>
       <c r="O29" t="n">
-        <v>36.06431045998194</v>
+        <v>120.0784727612528</v>
       </c>
       <c r="P29" t="n">
-        <v>61.69658648540961</v>
+        <v>96.9917810923165</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.85319149264657</v>
+        <v>159.1197963874179</v>
       </c>
       <c r="R29" t="n">
-        <v>114.8931231965406</v>
+        <v>161.2565770235332</v>
       </c>
       <c r="S29" t="n">
-        <v>114.334912243107</v>
+        <v>41.65673618790101</v>
       </c>
       <c r="T29" t="n">
-        <v>50.41871683117541</v>
+        <v>106.9869664043032</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>88.34395507076577</v>
+        <v>161.2238485360798</v>
       </c>
       <c r="B30" t="n">
-        <v>88.33263151618981</v>
+        <v>56.91681197649947</v>
       </c>
       <c r="C30" t="n">
-        <v>131.2768770494291</v>
+        <v>74.11184989342162</v>
       </c>
       <c r="D30" t="n">
-        <v>92.22865241474213</v>
+        <v>61.0454940450167</v>
       </c>
       <c r="E30" t="n">
-        <v>116.090861875726</v>
+        <v>108.878639565557</v>
       </c>
       <c r="F30" t="n">
-        <v>98.27828607701552</v>
+        <v>140.416438397315</v>
       </c>
       <c r="G30" t="n">
-        <v>92.06751083189582</v>
+        <v>87.62445829505714</v>
       </c>
       <c r="H30" t="n">
-        <v>160.0853764484458</v>
+        <v>125.607964216961</v>
       </c>
       <c r="I30" t="n">
-        <v>142.4785533880193</v>
+        <v>12.60444952345965</v>
       </c>
       <c r="J30" t="n">
-        <v>108.8297707954683</v>
+        <v>29.67797934596553</v>
       </c>
       <c r="K30" t="n">
-        <v>110.6174911034821</v>
+        <v>51.21038207608093</v>
       </c>
       <c r="L30" t="n">
-        <v>167.8705874988325</v>
+        <v>126.6370441634937</v>
       </c>
       <c r="M30" t="n">
-        <v>105.5285884626438</v>
+        <v>164.7118612763314</v>
       </c>
       <c r="N30" t="n">
-        <v>93.35035261475733</v>
+        <v>24.07668801294588</v>
       </c>
       <c r="O30" t="n">
-        <v>89.22038753855358</v>
+        <v>127.3980223357672</v>
       </c>
       <c r="P30" t="n">
-        <v>102.3040167712263</v>
+        <v>63.45811357197002</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.11192029705278</v>
+        <v>72.79339493613323</v>
       </c>
       <c r="R30" t="n">
-        <v>140.9257706079026</v>
+        <v>15.39392083344879</v>
       </c>
       <c r="S30" t="n">
-        <v>140.4710476262447</v>
+        <v>178.9272796905543</v>
       </c>
       <c r="T30" t="n">
-        <v>95.9254401630661</v>
+        <v>146.1099346494898</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130.7014546791441</v>
+        <v>30.97400136192393</v>
       </c>
       <c r="B31" t="n">
-        <v>130.6938011088278</v>
+        <v>111.2277890835809</v>
       </c>
       <c r="C31" t="n">
-        <v>162.8245506843172</v>
+        <v>131.549889212764</v>
       </c>
       <c r="D31" t="n">
-        <v>133.3579400858389</v>
+        <v>172.795723075662</v>
       </c>
       <c r="E31" t="n">
-        <v>150.8486130819498</v>
+        <v>124.3955587968035</v>
       </c>
       <c r="F31" t="n">
-        <v>137.6111818564705</v>
+        <v>49.81840419879031</v>
       </c>
       <c r="G31" t="n">
-        <v>133.2465474542591</v>
+        <v>168.9767211134634</v>
       </c>
       <c r="H31" t="n">
-        <v>186.8302534664541</v>
+        <v>167.5927249796835</v>
       </c>
       <c r="I31" t="n">
-        <v>171.9835865227887</v>
+        <v>153.0026253850984</v>
       </c>
       <c r="J31" t="n">
-        <v>145.3345618533081</v>
+        <v>132.6292181045713</v>
       </c>
       <c r="K31" t="n">
-        <v>146.6780324238358</v>
+        <v>114.797308195722</v>
       </c>
       <c r="L31" t="n">
-        <v>193.5426309754573</v>
+        <v>62.8656445474797</v>
       </c>
       <c r="M31" t="n">
-        <v>142.8793156500161</v>
+        <v>10.54730495384332</v>
       </c>
       <c r="N31" t="n">
-        <v>134.136140510298</v>
+        <v>160.6084209073867</v>
       </c>
       <c r="O31" t="n">
-        <v>131.2954432195899</v>
+        <v>98.85153855627911</v>
       </c>
       <c r="P31" t="n">
-        <v>140.5145106571782</v>
+        <v>109.8079447802558</v>
       </c>
       <c r="Q31" t="n">
-        <v>135.3679919341785</v>
+        <v>150.329034332814</v>
       </c>
       <c r="R31" t="n">
-        <v>170.6994103069195</v>
+        <v>164.1951885250734</v>
       </c>
       <c r="S31" t="n">
-        <v>170.3241940503861</v>
+        <v>16.94748944188265</v>
       </c>
       <c r="T31" t="n">
-        <v>135.9408177413129</v>
+        <v>81.37909949170592</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34.66678624099694</v>
+        <v>134.5863258236632</v>
       </c>
       <c r="B32" t="n">
-        <v>34.63791941367818</v>
+        <v>99.92779102620949</v>
       </c>
       <c r="C32" t="n">
-        <v>103.1055290398357</v>
+        <v>21.74187021979161</v>
       </c>
       <c r="D32" t="n">
-        <v>43.62632229483496</v>
+        <v>141.2337094892185</v>
       </c>
       <c r="E32" t="n">
-        <v>82.91091533557204</v>
+        <v>38.73756957390788</v>
       </c>
       <c r="F32" t="n">
-        <v>55.27886743565933</v>
+        <v>156.2241178541267</v>
       </c>
       <c r="G32" t="n">
-        <v>43.28461876365261</v>
+        <v>163.3978411432846</v>
       </c>
       <c r="H32" t="n">
-        <v>137.9291826386791</v>
+        <v>42.82617610834736</v>
       </c>
       <c r="I32" t="n">
-        <v>117.0353358873984</v>
+        <v>71.83026172717561</v>
       </c>
       <c r="J32" t="n">
-        <v>72.39510123017759</v>
+        <v>79.58039527828181</v>
       </c>
       <c r="K32" t="n">
-        <v>75.05571936076846</v>
+        <v>94.56760649411464</v>
       </c>
       <c r="L32" t="n">
-        <v>146.8933824851776</v>
+        <v>92.15009552965829</v>
       </c>
       <c r="M32" t="n">
-        <v>67.33063681305518</v>
+        <v>148.3043981335636</v>
       </c>
       <c r="N32" t="n">
-        <v>45.95019046786449</v>
+        <v>60.01071249129418</v>
       </c>
       <c r="O32" t="n">
-        <v>36.84303493556388</v>
+        <v>69.22425092790509</v>
       </c>
       <c r="P32" t="n">
-        <v>62.15499592358482</v>
+        <v>108.7577407001188</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.43085123004067</v>
+        <v>10.20967327671776</v>
       </c>
       <c r="R32" t="n">
-        <v>115.1399343936094</v>
+        <v>69.71024533799329</v>
       </c>
       <c r="S32" t="n">
-        <v>114.5829258308069</v>
+        <v>164.8192087036854</v>
       </c>
       <c r="T32" t="n">
-        <v>50.97864004866615</v>
+        <v>94.77661011366936</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>172.4902839691849</v>
+        <v>152.1980663650521</v>
       </c>
       <c r="B33" t="n">
-        <v>172.4844846842739</v>
+        <v>97.43993968544653</v>
       </c>
       <c r="C33" t="n">
-        <v>197.9440883534425</v>
+        <v>175.1887177131739</v>
       </c>
       <c r="D33" t="n">
-        <v>174.5117990064393</v>
+        <v>106.7686595456577</v>
       </c>
       <c r="E33" t="n">
-        <v>188.2161838877663</v>
+        <v>193.5296756001615</v>
       </c>
       <c r="F33" t="n">
-        <v>177.7831971263321</v>
+        <v>77.00890561558887</v>
       </c>
       <c r="G33" t="n">
-        <v>174.4266900935915</v>
+        <v>82.60148333359643</v>
       </c>
       <c r="H33" t="n">
-        <v>218.1182509990055</v>
+        <v>232.392540189071</v>
       </c>
       <c r="I33" t="n">
-        <v>205.5441116689243</v>
+        <v>145.4799984741771</v>
       </c>
       <c r="J33" t="n">
-        <v>183.8264471658491</v>
+        <v>124.7259180530288</v>
       </c>
       <c r="K33" t="n">
-        <v>184.8904351345777</v>
+        <v>103.5243288926958</v>
       </c>
       <c r="L33" t="n">
-        <v>223.8945685214979</v>
+        <v>154.9337781565253</v>
       </c>
       <c r="M33" t="n">
-        <v>181.8915244016131</v>
+        <v>136.7481132882375</v>
       </c>
       <c r="N33" t="n">
-        <v>175.107201449638</v>
+        <v>161.520277959457</v>
       </c>
       <c r="O33" t="n">
-        <v>172.940802642853</v>
+        <v>185.9833543167713</v>
       </c>
       <c r="P33" t="n">
-        <v>180.0398720110407</v>
+        <v>88.50887753959348</v>
       </c>
       <c r="Q33" t="n">
-        <v>176.0526087532289</v>
+        <v>188.4653490805634</v>
       </c>
       <c r="R33" t="n">
-        <v>204.4708206264545</v>
+        <v>157.4737121877112</v>
       </c>
       <c r="S33" t="n">
-        <v>204.1576814313859</v>
+        <v>138.1415286016712</v>
       </c>
       <c r="T33" t="n">
-        <v>176.4934382256251</v>
+        <v>183.9093343387684</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>167.7532323697303</v>
+        <v>21.90161010608154</v>
       </c>
       <c r="B34" t="n">
-        <v>167.7472693176321</v>
+        <v>106.4329281006281</v>
       </c>
       <c r="C34" t="n">
-        <v>193.8301086539399</v>
+        <v>96.1542000656507</v>
       </c>
       <c r="D34" t="n">
-        <v>169.8311423125528</v>
+        <v>172.3958382511353</v>
       </c>
       <c r="E34" t="n">
-        <v>183.8846942624539</v>
+        <v>81.0152909496789</v>
       </c>
       <c r="F34" t="n">
-        <v>173.1909757671656</v>
+        <v>82.80577694389193</v>
       </c>
       <c r="G34" t="n">
-        <v>169.7436865504237</v>
+        <v>176.7163893144971</v>
       </c>
       <c r="H34" t="n">
-        <v>214.3917450033649</v>
+        <v>122.8283661088526</v>
       </c>
       <c r="I34" t="n">
-        <v>201.5852939787273</v>
+        <v>133.8944963416871</v>
       </c>
       <c r="J34" t="n">
-        <v>179.3889951595175</v>
+        <v>118.2030885651596</v>
       </c>
       <c r="K34" t="n">
-        <v>180.4791453630479</v>
+        <v>107.4824213879885</v>
       </c>
       <c r="L34" t="n">
-        <v>220.2658092399962</v>
+        <v>21.12973851634981</v>
       </c>
       <c r="M34" t="n">
-        <v>177.4056807316645</v>
+        <v>40.05552052162208</v>
       </c>
       <c r="N34" t="n">
-        <v>170.4428963208698</v>
+        <v>136.9600432131297</v>
       </c>
       <c r="O34" t="n">
-        <v>168.2164383331097</v>
+        <v>52.64085355785723</v>
       </c>
       <c r="P34" t="n">
-        <v>175.5067076224569</v>
+        <v>108.8878130761366</v>
       </c>
       <c r="Q34" t="n">
-        <v>171.4140308012741</v>
+        <v>114.3939588616128</v>
       </c>
       <c r="R34" t="n">
-        <v>200.4908112467462</v>
+        <v>142.8777160618777</v>
       </c>
       <c r="S34" t="n">
-        <v>200.1714460010766</v>
+        <v>55.68649834763497</v>
       </c>
       <c r="T34" t="n">
-        <v>171.8667584014582</v>
+        <v>34.18259491880361</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>149.5301858319606</v>
+        <v>141.9350377786808</v>
       </c>
       <c r="B35" t="n">
-        <v>149.5234960398203</v>
+        <v>90.50884540324857</v>
       </c>
       <c r="C35" t="n">
-        <v>178.2925700225506</v>
+        <v>166.9806723455148</v>
       </c>
       <c r="D35" t="n">
-        <v>151.8576517783497</v>
+        <v>105.9707457134863</v>
       </c>
       <c r="E35" t="n">
-        <v>167.4267311048152</v>
+        <v>184.3952715725441</v>
       </c>
       <c r="F35" t="n">
-        <v>155.6060525546192</v>
+        <v>66.9027260944377</v>
       </c>
       <c r="G35" t="n">
-        <v>151.7598386536321</v>
+        <v>83.85023325307525</v>
       </c>
       <c r="H35" t="n">
-        <v>200.454358471039</v>
+        <v>223.7455609142939</v>
       </c>
       <c r="I35" t="n">
-        <v>186.6942962517545</v>
+        <v>139.9333238539129</v>
       </c>
       <c r="J35" t="n">
-        <v>162.4762785417901</v>
+        <v>118.5664790325</v>
       </c>
       <c r="K35" t="n">
-        <v>163.6791111150844</v>
+        <v>96.71929615089809</v>
       </c>
       <c r="L35" t="n">
-        <v>206.7248321431133</v>
+        <v>144.8255305048746</v>
       </c>
       <c r="M35" t="n">
-        <v>160.283826571221</v>
+        <v>126.6419033488586</v>
       </c>
       <c r="N35" t="n">
-        <v>152.54150389548</v>
+        <v>155.7116525580089</v>
       </c>
       <c r="O35" t="n">
-        <v>150.0496572136201</v>
+        <v>176.1869205719962</v>
       </c>
       <c r="P35" t="n">
-        <v>158.1794358471497</v>
+        <v>81.66864193389873</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.6258424223871</v>
+        <v>180.7363703926594</v>
       </c>
       <c r="R35" t="n">
-        <v>185.5119804724924</v>
+        <v>152.1591344795265</v>
       </c>
       <c r="S35" t="n">
-        <v>185.166782384449</v>
+        <v>128.3633036634926</v>
       </c>
       <c r="T35" t="n">
-        <v>154.1308280256522</v>
+        <v>173.7562400867145</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>36.84034177443645</v>
+        <v>35.14119852233921</v>
       </c>
       <c r="B36" t="n">
-        <v>36.81317936672647</v>
+        <v>85.57036452153302</v>
       </c>
       <c r="C36" t="n">
-        <v>103.8565107846529</v>
+        <v>84.66296516132087</v>
       </c>
       <c r="D36" t="n">
-        <v>45.37268683636805</v>
+        <v>151.5064854494041</v>
       </c>
       <c r="E36" t="n">
-        <v>83.84297582720157</v>
+        <v>77.15516284651979</v>
       </c>
       <c r="F36" t="n">
-        <v>56.66725596627659</v>
+        <v>69.858860698657</v>
       </c>
       <c r="G36" t="n">
-        <v>45.04423309695771</v>
+        <v>155.8683833724168</v>
       </c>
       <c r="H36" t="n">
-        <v>138.4914587155194</v>
+        <v>120.6978299892493</v>
       </c>
       <c r="I36" t="n">
-        <v>117.6974704913172</v>
+        <v>115.5112041292593</v>
       </c>
       <c r="J36" t="n">
-        <v>73.46070647567973</v>
+        <v>98.58527368970431</v>
       </c>
       <c r="K36" t="n">
-        <v>76.08407009710211</v>
+        <v>86.79196148394446</v>
       </c>
       <c r="L36" t="n">
-        <v>147.4214724241858</v>
+        <v>18.04457459456411</v>
       </c>
       <c r="M36" t="n">
-        <v>68.47510034625618</v>
+        <v>44.6747003195009</v>
       </c>
       <c r="N36" t="n">
-        <v>47.61139273127112</v>
+        <v>120.008341521116</v>
       </c>
       <c r="O36" t="n">
-        <v>38.89516598552439</v>
+        <v>54.67389602453019</v>
       </c>
       <c r="P36" t="n">
-        <v>63.39296673953002</v>
+        <v>87.93318366644655</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.97875799884424</v>
+        <v>103.4085224057739</v>
       </c>
       <c r="R36" t="n">
-        <v>115.8129060422153</v>
+        <v>125.2102351019976</v>
       </c>
       <c r="S36" t="n">
-        <v>115.2591497701007</v>
+        <v>61.14156369790807</v>
       </c>
       <c r="T36" t="n">
-        <v>52.4809151500789</v>
+        <v>45.53186764985875</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>85.80151017253772</v>
+        <v>128.9838798412578</v>
       </c>
       <c r="B37" t="n">
-        <v>85.78985103680728</v>
+        <v>114.3685678417309</v>
       </c>
       <c r="C37" t="n">
-        <v>129.5795631964915</v>
+        <v>33.98493500130215</v>
       </c>
       <c r="D37" t="n">
-        <v>89.79626426852029</v>
+        <v>160.5849462203755</v>
       </c>
       <c r="E37" t="n">
-        <v>114.1680032294141</v>
+        <v>26.35645692971866</v>
       </c>
       <c r="F37" t="n">
-        <v>95.99930345881847</v>
+        <v>161.100772956283</v>
       </c>
       <c r="G37" t="n">
-        <v>89.63074975210164</v>
+        <v>181.4383764473615</v>
       </c>
       <c r="H37" t="n">
-        <v>158.6964791763926</v>
+        <v>24.94761742336562</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9162266237827</v>
+        <v>92.04227331373544</v>
       </c>
       <c r="J37" t="n">
-        <v>106.7762321948887</v>
+        <v>97.30265273370833</v>
       </c>
       <c r="K37" t="n">
-        <v>108.5977628147631</v>
+        <v>109.572085025669</v>
       </c>
       <c r="L37" t="n">
-        <v>166.54662679726</v>
+        <v>87.34866013952661</v>
       </c>
       <c r="M37" t="n">
-        <v>103.4095147133989</v>
+        <v>144.9934260529129</v>
       </c>
       <c r="N37" t="n">
-        <v>90.9479691012512</v>
+        <v>81.06280428313043</v>
       </c>
       <c r="O37" t="n">
-        <v>86.70364642200637</v>
+        <v>57.71248616062676</v>
       </c>
       <c r="P37" t="n">
-        <v>100.1167148775366</v>
+        <v>122.8947218998057</v>
       </c>
       <c r="Q37" t="n">
-        <v>92.75517307910935</v>
+        <v>31.29079581668579</v>
       </c>
       <c r="R37" t="n">
-        <v>139.3460353643899</v>
+        <v>90.75337955488435</v>
       </c>
       <c r="S37" t="n">
-        <v>138.886140314854</v>
+        <v>161.4255320387639</v>
       </c>
       <c r="T37" t="n">
-        <v>93.58918110989426</v>
+        <v>83.52051511876911</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>45.97270864522133</v>
+        <v>192.6192397902444</v>
       </c>
       <c r="B38" t="n">
-        <v>45.95094485653038</v>
+        <v>100.037353167384</v>
       </c>
       <c r="C38" t="n">
-        <v>107.4358133514325</v>
+        <v>84.90664276867926</v>
       </c>
       <c r="D38" t="n">
-        <v>53.05619538632832</v>
+        <v>95.58260094185498</v>
       </c>
       <c r="E38" t="n">
-        <v>88.23788162508112</v>
+        <v>118.092057567267</v>
       </c>
       <c r="F38" t="n">
-        <v>62.98775322924791</v>
+        <v>182.214385430715</v>
       </c>
       <c r="G38" t="n">
-        <v>52.77558235978245</v>
+        <v>124.8916061826671</v>
       </c>
       <c r="H38" t="n">
-        <v>141.1954790185349</v>
+        <v>118.7346016949482</v>
       </c>
       <c r="I38" t="n">
-        <v>120.8675875418038</v>
+        <v>47.86842837142445</v>
       </c>
       <c r="J38" t="n">
-        <v>78.43949613572931</v>
+        <v>70.926881789009</v>
       </c>
       <c r="K38" t="n">
-        <v>80.90157526687517</v>
+        <v>93.97856975143951</v>
       </c>
       <c r="L38" t="n">
-        <v>149.9645614464834</v>
+        <v>153.624728751515</v>
       </c>
       <c r="M38" t="n">
-        <v>73.79104637793785</v>
+        <v>199.5048334978339</v>
       </c>
       <c r="N38" t="n">
-        <v>54.98294168132928</v>
+        <v>37.86630264898928</v>
       </c>
       <c r="O38" t="n">
-        <v>47.63520856638095</v>
+        <v>144.1536548314222</v>
       </c>
       <c r="P38" t="n">
-        <v>69.10099413293761</v>
+        <v>107.1995114800331</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.92333662027634</v>
+        <v>73.46849294519744</v>
       </c>
       <c r="R38" t="n">
-        <v>119.0332237825395</v>
+        <v>35.32911000716111</v>
       </c>
       <c r="S38" t="n">
-        <v>118.4945178641089</v>
+        <v>214.7678881142659</v>
       </c>
       <c r="T38" t="n">
-        <v>59.24968871741776</v>
+        <v>167.0366513690252</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>166.9252780645194</v>
+        <v>78.76664596841498</v>
       </c>
       <c r="B39" t="n">
-        <v>166.9192854344476</v>
+        <v>45.00143188704191</v>
       </c>
       <c r="C39" t="n">
-        <v>193.1139883779074</v>
+        <v>58.24324064076583</v>
       </c>
       <c r="D39" t="n">
-        <v>169.0133674760992</v>
+        <v>110.2401565174716</v>
       </c>
       <c r="E39" t="n">
-        <v>183.129687026491</v>
+        <v>70.48772707999937</v>
       </c>
       <c r="F39" t="n">
-        <v>172.3891399526296</v>
+        <v>76.4374254630213</v>
       </c>
       <c r="G39" t="n">
-        <v>168.9254883377665</v>
+        <v>119.008515781597</v>
       </c>
       <c r="H39" t="n">
-        <v>213.7445246363336</v>
+        <v>110.857928039423</v>
       </c>
       <c r="I39" t="n">
-        <v>200.8968198725761</v>
+        <v>72.1584881561682</v>
       </c>
       <c r="J39" t="n">
-        <v>178.6149855716642</v>
+        <v>54.43006567437262</v>
       </c>
       <c r="K39" t="n">
-        <v>179.7098311094877</v>
+        <v>44.65832052111149</v>
       </c>
       <c r="L39" t="n">
-        <v>219.6358991753735</v>
+        <v>48.40016743218917</v>
       </c>
       <c r="M39" t="n">
-        <v>176.6229799383129</v>
+        <v>83.15034765677731</v>
       </c>
       <c r="N39" t="n">
-        <v>169.6280707685823</v>
+        <v>78.6379088200617</v>
       </c>
       <c r="O39" t="n">
-        <v>167.3907751696649</v>
+        <v>66.71710632870335</v>
       </c>
       <c r="P39" t="n">
-        <v>174.7154999045562</v>
+        <v>49.90863301137713</v>
       </c>
       <c r="Q39" t="n">
-        <v>170.6038435732459</v>
+        <v>75.65552792540348</v>
       </c>
       <c r="R39" t="n">
-        <v>199.7985657626271</v>
+        <v>82.66968315450063</v>
       </c>
       <c r="S39" t="n">
-        <v>199.4780922321705</v>
+        <v>98.26796762610115</v>
       </c>
       <c r="T39" t="n">
-        <v>171.0587154454564</v>
+        <v>74.48863749234695</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.053785169033371</v>
+        <v>65.02607716460778</v>
       </c>
       <c r="B40" t="n">
-        <v>3.799021877557817</v>
+        <v>104.1297737946814</v>
       </c>
       <c r="C40" t="n">
-        <v>97.18743347008453</v>
+        <v>145.4994454769053</v>
       </c>
       <c r="D40" t="n">
-        <v>26.79371386893787</v>
+        <v>157.9903182016635</v>
       </c>
       <c r="E40" t="n">
-        <v>75.42457814068365</v>
+        <v>145.9646384416839</v>
       </c>
       <c r="F40" t="n">
-        <v>43.24812470948188</v>
+        <v>23.05697884768053</v>
       </c>
       <c r="G40" t="n">
-        <v>26.233667822713</v>
+        <v>148.7857758999582</v>
       </c>
       <c r="H40" t="n">
-        <v>133.5631181475328</v>
+        <v>189.6426017360377</v>
       </c>
       <c r="I40" t="n">
-        <v>111.856680409325</v>
+        <v>152.9015478578937</v>
       </c>
       <c r="J40" t="n">
-        <v>63.68436062366773</v>
+        <v>130.4808409643221</v>
       </c>
       <c r="K40" t="n">
-        <v>66.69338883787609</v>
+        <v>109.1435954384233</v>
       </c>
       <c r="L40" t="n">
-        <v>142.8016558862479</v>
+        <v>87.92095061862454</v>
       </c>
       <c r="M40" t="n">
-        <v>57.8624382442465</v>
+        <v>45.31404712237735</v>
       </c>
       <c r="N40" t="n">
-        <v>30.43135077433671</v>
+        <v>163.5490762006815</v>
       </c>
       <c r="O40" t="n">
-        <v>13.11702440269439</v>
+        <v>124.8001566205471</v>
       </c>
       <c r="P40" t="n">
-        <v>51.74833933739851</v>
+        <v>100.008409081718</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.46908737540498</v>
+        <v>163.7700291633545</v>
       </c>
       <c r="R40" t="n">
-        <v>109.8719782204834</v>
+        <v>165.1503838776163</v>
       </c>
       <c r="S40" t="n">
-        <v>109.2881237731982</v>
+        <v>43.1512218523151</v>
       </c>
       <c r="T40" t="n">
-        <v>37.59612808693428</v>
+        <v>111.4449280773026</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40.4953767130676</v>
+        <v>25.45472784747059</v>
       </c>
       <c r="B41" t="n">
-        <v>40.47066750330103</v>
+        <v>111.2055315975293</v>
       </c>
       <c r="C41" t="n">
-        <v>105.2085528150572</v>
+        <v>128.1105146710262</v>
       </c>
       <c r="D41" t="n">
-        <v>48.38745151200977</v>
+        <v>173.6695467323839</v>
       </c>
       <c r="E41" t="n">
-        <v>85.51204212645537</v>
+        <v>119.9109978114088</v>
       </c>
       <c r="F41" t="n">
-        <v>59.1087358334069</v>
+        <v>53.78095908174801</v>
       </c>
       <c r="G41" t="n">
-        <v>48.07959742311733</v>
+        <v>170.7790690004049</v>
       </c>
       <c r="H41" t="n">
-        <v>139.5082395065911</v>
+        <v>162.9520046304899</v>
       </c>
       <c r="I41" t="n">
-        <v>118.8922172100868</v>
+        <v>151.5958345697532</v>
       </c>
       <c r="J41" t="n">
-        <v>75.36006999055896</v>
+        <v>131.6549021066837</v>
       </c>
       <c r="K41" t="n">
-        <v>77.91951280402564</v>
+        <v>114.5125904961493</v>
       </c>
       <c r="L41" t="n">
-        <v>148.3770712906511</v>
+        <v>58.21401644762838</v>
       </c>
       <c r="M41" t="n">
-        <v>70.50889391066792</v>
+        <v>5.986071734304784</v>
       </c>
       <c r="N41" t="n">
-        <v>50.49266749625441</v>
+        <v>158.6977668519073</v>
       </c>
       <c r="O41" t="n">
-        <v>42.37332521902739</v>
+        <v>93.88166655651284</v>
       </c>
       <c r="P41" t="n">
-        <v>65.58454837166396</v>
+        <v>110.2306485456645</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.67959128179625</v>
+        <v>146.8901149771539</v>
       </c>
       <c r="R41" t="n">
-        <v>117.0268941697547</v>
+        <v>162.5761272704241</v>
       </c>
       <c r="S41" t="n">
-        <v>116.4789095021175</v>
+        <v>18.22552071165921</v>
       </c>
       <c r="T41" t="n">
-        <v>55.10817732483765</v>
+        <v>75.99353035244637</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12.84494796908778</v>
+        <v>10.16109566827093</v>
       </c>
       <c r="B42" t="n">
-        <v>12.76683521308473</v>
+        <v>107.7160084555773</v>
       </c>
       <c r="C42" t="n">
-        <v>97.9487454673821</v>
+        <v>107.8334054545199</v>
       </c>
       <c r="D42" t="n">
-        <v>29.43573707285773</v>
+        <v>173.1161522579883</v>
       </c>
       <c r="E42" t="n">
-        <v>76.40305296146217</v>
+        <v>95.29249020182813</v>
       </c>
       <c r="F42" t="n">
-        <v>44.93283660107377</v>
+        <v>71.82633846366738</v>
       </c>
       <c r="G42" t="n">
-        <v>28.9268878651739</v>
+        <v>174.8513972049707</v>
       </c>
       <c r="H42" t="n">
-        <v>134.118104830868</v>
+        <v>137.5997833551826</v>
       </c>
       <c r="I42" t="n">
-        <v>112.5187827268219</v>
+        <v>140.399815403061</v>
       </c>
       <c r="J42" t="n">
-        <v>64.84024446420031</v>
+        <v>122.9382499503393</v>
       </c>
       <c r="K42" t="n">
-        <v>67.79799133316584</v>
+        <v>109.6321697420382</v>
       </c>
       <c r="L42" t="n">
-        <v>143.3208723040237</v>
+        <v>33.8581488566687</v>
       </c>
       <c r="M42" t="n">
-        <v>59.13223548709399</v>
+        <v>24.8571109280734</v>
       </c>
       <c r="N42" t="n">
-        <v>32.78149819765139</v>
+        <v>145.0137210831386</v>
       </c>
       <c r="O42" t="n">
-        <v>17.90574889002907</v>
+        <v>67.6885947331386</v>
       </c>
       <c r="P42" t="n">
-        <v>53.1643690671717</v>
+        <v>108.9366820850669</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.50487532809582</v>
+        <v>126.3918232969588</v>
       </c>
       <c r="R42" t="n">
-        <v>110.5459683218446</v>
+        <v>150.2049629167128</v>
       </c>
       <c r="S42" t="n">
-        <v>109.9656924317661</v>
+        <v>40.71917033569703</v>
       </c>
       <c r="T42" t="n">
-        <v>39.52250449125239</v>
+        <v>49.04738627513081</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>149.5302840382527</v>
+        <v>125.3389318559155</v>
       </c>
       <c r="B43" t="n">
-        <v>149.5235942505062</v>
+        <v>98.5568596749396</v>
       </c>
       <c r="C43" t="n">
-        <v>178.2926523860868</v>
+        <v>168.4871032936552</v>
       </c>
       <c r="D43" t="n">
-        <v>151.8577484794713</v>
+        <v>126.3644951095466</v>
       </c>
       <c r="E43" t="n">
-        <v>167.4268188136654</v>
+        <v>181.2967204425844</v>
       </c>
       <c r="F43" t="n">
-        <v>155.6061469263048</v>
+        <v>49.60451797785414</v>
       </c>
       <c r="G43" t="n">
-        <v>151.75993541708</v>
+        <v>106.9240459499714</v>
       </c>
       <c r="H43" t="n">
-        <v>200.4544317286492</v>
+        <v>222.7205219134431</v>
       </c>
       <c r="I43" t="n">
-        <v>186.6943749087201</v>
+        <v>150.5650221175832</v>
       </c>
       <c r="J43" t="n">
-        <v>162.4763689230197</v>
+        <v>127.9825918122142</v>
       </c>
       <c r="K43" t="n">
-        <v>163.6792008321277</v>
+        <v>104.907450634513</v>
       </c>
       <c r="L43" t="n">
-        <v>206.7249031786403</v>
+        <v>134.900331240715</v>
       </c>
       <c r="M43" t="n">
-        <v>160.283918188735</v>
+        <v>108.0241975764003</v>
       </c>
       <c r="N43" t="n">
-        <v>152.5416001630853</v>
+        <v>165.387831684175</v>
       </c>
       <c r="O43" t="n">
-        <v>150.0497550799225</v>
+        <v>168.8861151854583</v>
       </c>
       <c r="P43" t="n">
-        <v>158.1795286835259</v>
+        <v>90.41437353290907</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.6259380105064</v>
+        <v>183.9505348763963</v>
       </c>
       <c r="R43" t="n">
-        <v>185.5120596307589</v>
+        <v>163.1934213088251</v>
       </c>
       <c r="S43" t="n">
-        <v>185.1668616902867</v>
+        <v>107.4783573867614</v>
       </c>
       <c r="T43" t="n">
-        <v>154.1309233005922</v>
+        <v>162.8819256436874</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>148.2202534873732</v>
+        <v>26.48706429138496</v>
       </c>
       <c r="B44" t="n">
-        <v>148.2135045698963</v>
+        <v>98.27651048519718</v>
       </c>
       <c r="C44" t="n">
-        <v>177.1953938288651</v>
+        <v>90.64786341076186</v>
       </c>
       <c r="D44" t="n">
-        <v>150.5679696102561</v>
+        <v>164.2410268115593</v>
       </c>
       <c r="E44" t="n">
-        <v>166.2578640466808</v>
+        <v>78.10364878992571</v>
       </c>
       <c r="F44" t="n">
-        <v>154.3476940564756</v>
+        <v>77.99081179397994</v>
       </c>
       <c r="G44" t="n">
-        <v>150.469318125314</v>
+        <v>168.7178523139595</v>
       </c>
       <c r="H44" t="n">
-        <v>199.4791139416764</v>
+        <v>120.7860487692079</v>
       </c>
       <c r="I44" t="n">
-        <v>185.6467810705544</v>
+        <v>126.3035531027664</v>
       </c>
       <c r="J44" t="n">
-        <v>161.2715354850628</v>
+        <v>110.2731477981945</v>
       </c>
       <c r="K44" t="n">
-        <v>162.4832867846556</v>
+        <v>99.33391187617497</v>
       </c>
       <c r="L44" t="n">
-        <v>205.7793072529861</v>
+        <v>16.42865731140679</v>
       </c>
       <c r="M44" t="n">
-        <v>159.0624786970005</v>
+        <v>41.43089801454078</v>
       </c>
       <c r="N44" t="n">
-        <v>151.2576526315783</v>
+        <v>129.794297114375</v>
       </c>
       <c r="O44" t="n">
-        <v>148.7442997188308</v>
+        <v>51.65524471316898</v>
       </c>
       <c r="P44" t="n">
-        <v>156.9417120903268</v>
+        <v>100.769486793852</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.3511290700158</v>
+        <v>109.123265554553</v>
       </c>
       <c r="R44" t="n">
-        <v>184.457751172855</v>
+        <v>135.501490637508</v>
       </c>
       <c r="S44" t="n">
-        <v>184.1105764684104</v>
+        <v>57.73239039881963</v>
       </c>
       <c r="T44" t="n">
-        <v>152.8603258428872</v>
+        <v>36.9279837492044</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>53.15001690847771</v>
+        <v>227.8772258083484</v>
       </c>
       <c r="B45" t="n">
-        <v>53.13119319572029</v>
+        <v>116.9159773788761</v>
       </c>
       <c r="C45" t="n">
-        <v>110.6972824764768</v>
+        <v>134.1379311940672</v>
       </c>
       <c r="D45" t="n">
-        <v>59.38345077599739</v>
+        <v>76.69620834571217</v>
       </c>
       <c r="E45" t="n">
-        <v>92.18111580402402</v>
+        <v>168.9324573162286</v>
       </c>
       <c r="F45" t="n">
-        <v>68.40242257450893</v>
+        <v>199.4061694981382</v>
       </c>
       <c r="G45" t="n">
-        <v>59.13287115139294</v>
+        <v>104.5644853371005</v>
       </c>
       <c r="H45" t="n">
-        <v>143.6927195527546</v>
+        <v>174.2923241071726</v>
       </c>
       <c r="I45" t="n">
-        <v>123.7756360329797</v>
+        <v>78.51176895544162</v>
       </c>
       <c r="J45" t="n">
-        <v>82.85040079094459</v>
+        <v>95.00946398640076</v>
       </c>
       <c r="K45" t="n">
-        <v>85.18508811907707</v>
+        <v>112.5594788201999</v>
       </c>
       <c r="L45" t="n">
-        <v>152.3181015080912</v>
+        <v>193.4458936002498</v>
       </c>
       <c r="M45" t="n">
-        <v>78.46370423797255</v>
+        <v>230.3279729510219</v>
       </c>
       <c r="N45" t="n">
-        <v>61.11103200834949</v>
+        <v>80.07036095417034</v>
       </c>
       <c r="O45" t="n">
-        <v>54.59439030116255</v>
+        <v>191.4820894916743</v>
       </c>
       <c r="P45" t="n">
-        <v>74.07011372580264</v>
+        <v>120.6975383252387</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.76948551163719</v>
+        <v>126.299456939753</v>
       </c>
       <c r="R45" t="n">
-        <v>121.9850102318198</v>
+        <v>71.70140104533985</v>
       </c>
       <c r="S45" t="n">
-        <v>121.4593970059158</v>
+        <v>243.8995551758514</v>
       </c>
       <c r="T45" t="n">
-        <v>64.97661094812472</v>
+        <v>211.8256979530094</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>110.4401872452084</v>
+        <v>122.4330140866882</v>
       </c>
       <c r="B46" t="n">
-        <v>110.4311294508309</v>
+        <v>41.54511114353706</v>
       </c>
       <c r="C46" t="n">
-        <v>147.0578083920134</v>
+        <v>119.8654960148817</v>
       </c>
       <c r="D46" t="n">
-        <v>113.5715848592883</v>
+        <v>72.75924770842106</v>
       </c>
       <c r="E46" t="n">
-        <v>133.6767323518199</v>
+        <v>140.7776575024899</v>
       </c>
       <c r="F46" t="n">
-        <v>118.5369228360805</v>
+        <v>63.13639617089569</v>
       </c>
       <c r="G46" t="n">
-        <v>113.4407647717189</v>
+        <v>63.35077719917539</v>
       </c>
       <c r="H46" t="n">
-        <v>173.2619644176177</v>
+        <v>177.8027324296452</v>
       </c>
       <c r="I46" t="n">
-        <v>157.1385335834399</v>
+        <v>91.56526132708763</v>
       </c>
       <c r="J46" t="n">
-        <v>127.4217390110705</v>
+        <v>69.71940235668917</v>
       </c>
       <c r="K46" t="n">
-        <v>128.9519674112813</v>
+        <v>47.72243692464399</v>
       </c>
       <c r="L46" t="n">
-        <v>180.4796794888953</v>
+        <v>111.8944041290755</v>
       </c>
       <c r="M46" t="n">
-        <v>124.6140583727584</v>
+        <v>113.5410622100641</v>
       </c>
       <c r="N46" t="n">
-        <v>114.4843609167241</v>
+        <v>107.0361678317053</v>
       </c>
       <c r="O46" t="n">
-        <v>111.1425126301403</v>
+        <v>137.7768665184985</v>
       </c>
       <c r="P46" t="n">
-        <v>121.8954158643325</v>
+        <v>32.67034265558572</v>
       </c>
       <c r="Q46" t="n">
-        <v>115.9252256577667</v>
+        <v>132.600559379243</v>
       </c>
       <c r="R46" t="n">
-        <v>155.7319921616698</v>
+        <v>104.0153270740023</v>
       </c>
       <c r="S46" t="n">
-        <v>155.3206225278082</v>
+        <v>121.447011125857</v>
       </c>
       <c r="T46" t="n">
-        <v>116.5936131685144</v>
+        <v>140.9030980580521</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52.10795478179392</v>
+        <v>35.33806950400352</v>
       </c>
       <c r="B47" t="n">
-        <v>52.08875449241389</v>
+        <v>133.032654735404</v>
       </c>
       <c r="C47" t="n">
-        <v>110.2007395703264</v>
+        <v>148.5375250424142</v>
       </c>
       <c r="D47" t="n">
-        <v>58.45262081579678</v>
+        <v>194.5620391321168</v>
       </c>
       <c r="E47" t="n">
-        <v>91.58423862786051</v>
+        <v>137.4343447829101</v>
       </c>
       <c r="F47" t="n">
-        <v>67.59590274736851</v>
+        <v>67.89298382415092</v>
       </c>
       <c r="G47" t="n">
-        <v>58.19803351297407</v>
+        <v>190.1340486782231</v>
       </c>
       <c r="H47" t="n">
-        <v>143.3105449945558</v>
+        <v>179.5470726114588</v>
       </c>
       <c r="I47" t="n">
-        <v>123.3317588033945</v>
+        <v>173.8856899298561</v>
       </c>
       <c r="J47" t="n">
-        <v>82.18578688185791</v>
+        <v>153.932429109719</v>
       </c>
       <c r="K47" t="n">
-        <v>84.53883067576071</v>
+        <v>136.5180661783801</v>
       </c>
       <c r="L47" t="n">
-        <v>151.9576213988597</v>
+        <v>75.90688091018288</v>
       </c>
       <c r="M47" t="n">
-        <v>77.7616070880357</v>
+        <v>19.39223312592006</v>
       </c>
       <c r="N47" t="n">
-        <v>60.20691727115356</v>
+        <v>180.8334573286338</v>
       </c>
       <c r="O47" t="n">
-        <v>53.58042652429789</v>
+        <v>109.2738320654586</v>
       </c>
       <c r="P47" t="n">
-        <v>73.32595994273346</v>
+        <v>131.6639089141849</v>
       </c>
       <c r="Q47" t="n">
-        <v>62.90359239812078</v>
+        <v>167.2647595830471</v>
       </c>
       <c r="R47" t="n">
-        <v>121.5345933281022</v>
+        <v>184.8222725828774</v>
       </c>
       <c r="S47" t="n">
-        <v>121.0070236606566</v>
+        <v>5.43576370981208</v>
       </c>
       <c r="T47" t="n">
-        <v>64.12701945727693</v>
+        <v>88.13518068418502</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>48.44238038065424</v>
+        <v>116.7974370935524</v>
       </c>
       <c r="B48" t="n">
-        <v>48.42172663147694</v>
+        <v>41.60920433633605</v>
       </c>
       <c r="C48" t="n">
-        <v>108.515566935115</v>
+        <v>40.06258687824565</v>
       </c>
       <c r="D48" t="n">
-        <v>55.20990984993395</v>
+        <v>90.3503202722666</v>
       </c>
       <c r="E48" t="n">
-        <v>89.54941669518242</v>
+        <v>70.06985873568533</v>
       </c>
       <c r="F48" t="n">
-        <v>64.81227764578419</v>
+        <v>110.2237518691532</v>
       </c>
       <c r="G48" t="n">
-        <v>54.94029823526414</v>
+        <v>108.2113875614344</v>
       </c>
       <c r="H48" t="n">
-        <v>142.0187930241597</v>
+        <v>98.8041994165583</v>
       </c>
       <c r="I48" t="n">
-        <v>121.8283546426742</v>
+        <v>34.39770902081876</v>
       </c>
       <c r="J48" t="n">
-        <v>79.91200679993391</v>
+        <v>25.3473373759045</v>
       </c>
       <c r="K48" t="n">
-        <v>82.33006229456804</v>
+        <v>36.15646154467694</v>
       </c>
       <c r="L48" t="n">
-        <v>150.7399879481277</v>
+        <v>80.5739034770365</v>
       </c>
       <c r="M48" t="n">
-        <v>75.35444779385328</v>
+        <v>122.6679002472966</v>
       </c>
       <c r="N48" t="n">
-        <v>57.06398297260755</v>
+        <v>39.01379615818451</v>
       </c>
       <c r="O48" t="n">
-        <v>50.02286848960384</v>
+        <v>83.03524465071246</v>
       </c>
       <c r="P48" t="n">
-        <v>70.76808367425153</v>
+        <v>50.50854999006607</v>
       </c>
       <c r="Q48" t="n">
-        <v>59.90231382836086</v>
+        <v>50.21465533265008</v>
       </c>
       <c r="R48" t="n">
-        <v>120.0086773563883</v>
+        <v>43.5531941367066</v>
       </c>
       <c r="S48" t="n">
-        <v>119.4743698063028</v>
+        <v>137.8901927862422</v>
       </c>
       <c r="T48" t="n">
-        <v>61.18578176240366</v>
+        <v>100.21121742299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.004816601309907</v>
+        <v>15.49819966370044</v>
       </c>
       <c r="B49" t="n">
-        <v>8.893037448066579</v>
+        <v>103.7217447417713</v>
       </c>
       <c r="C49" t="n">
-        <v>97.5194891923079</v>
+        <v>102.1421155362111</v>
       </c>
       <c r="D49" t="n">
-        <v>27.97421403215942</v>
+        <v>169.360100804783</v>
       </c>
       <c r="E49" t="n">
-        <v>75.85196461217498</v>
+        <v>89.90162810000996</v>
       </c>
       <c r="F49" t="n">
-        <v>43.98924685321913</v>
+        <v>72.57695044978976</v>
       </c>
       <c r="G49" t="n">
-        <v>27.43827391180063</v>
+        <v>171.885508025853</v>
       </c>
       <c r="H49" t="n">
-        <v>133.8049329326776</v>
+        <v>132.4042948839469</v>
       </c>
       <c r="I49" t="n">
-        <v>112.1453097548909</v>
+        <v>135.2664529975998</v>
       </c>
       <c r="J49" t="n">
-        <v>64.18996289040766</v>
+        <v>118.1333711059766</v>
       </c>
       <c r="K49" t="n">
-        <v>67.17634749304761</v>
+        <v>105.4127713986412</v>
       </c>
       <c r="L49" t="n">
-        <v>143.0278520837145</v>
+        <v>28.30235917652504</v>
       </c>
       <c r="M49" t="n">
-        <v>58.41845005985517</v>
+        <v>29.79852051808288</v>
       </c>
       <c r="N49" t="n">
-        <v>31.475715365616</v>
+        <v>139.6342643758616</v>
       </c>
       <c r="O49" t="n">
-        <v>15.38537867611427</v>
+        <v>62.77990901061636</v>
       </c>
       <c r="P49" t="n">
-        <v>52.36930562844133</v>
+        <v>105.2930711526937</v>
       </c>
       <c r="Q49" t="n">
-        <v>36.36907624714524</v>
+        <v>120.7012192730681</v>
       </c>
       <c r="R49" t="n">
-        <v>110.1658075171645</v>
+        <v>144.9386205051522</v>
       </c>
       <c r="S49" t="n">
-        <v>109.5835185860193</v>
+        <v>45.9581932437335</v>
       </c>
       <c r="T49" t="n">
-        <v>38.44635736914123</v>
+        <v>45.36531756910443</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>86.67837791937296</v>
+        <v>109.5297067197986</v>
       </c>
       <c r="B50" t="n">
-        <v>86.66683674718449</v>
+        <v>77.58801388442684</v>
       </c>
       <c r="C50" t="n">
-        <v>130.1618425232183</v>
+        <v>145.7998641739613</v>
       </c>
       <c r="D50" t="n">
-        <v>90.63449193010065</v>
+        <v>113.4422915953669</v>
       </c>
       <c r="E50" t="n">
-        <v>114.8284590693312</v>
+        <v>158.8934115285378</v>
       </c>
       <c r="F50" t="n">
-        <v>96.78382259150474</v>
+        <v>34.77937054459763</v>
       </c>
       <c r="G50" t="n">
-        <v>90.47051095229546</v>
+        <v>98.3650873774007</v>
       </c>
       <c r="H50" t="n">
-        <v>159.1722794767631</v>
+        <v>200.1045575960841</v>
       </c>
       <c r="I50" t="n">
-        <v>141.4518468480735</v>
+        <v>130.0399804635398</v>
       </c>
       <c r="J50" t="n">
-        <v>107.4821185713341</v>
+        <v>107.1548283217315</v>
       </c>
       <c r="K50" t="n">
-        <v>109.2918850565636</v>
+        <v>83.88833506584835</v>
       </c>
       <c r="L50" t="n">
-        <v>167.0000627197228</v>
+        <v>114.4794247208138</v>
       </c>
       <c r="M50" t="n">
-        <v>104.1382244140268</v>
+        <v>94.40241036298971</v>
       </c>
       <c r="N50" t="n">
-        <v>91.77567833847752</v>
+        <v>144.3744191642919</v>
       </c>
       <c r="O50" t="n">
-        <v>87.57148139501722</v>
+        <v>147.4970668083224</v>
       </c>
       <c r="P50" t="n">
-        <v>100.8692155650846</v>
+        <v>69.90755136438186</v>
       </c>
       <c r="Q50" t="n">
-        <v>93.56689683740227</v>
+        <v>161.3650532023354</v>
       </c>
       <c r="R50" t="n">
-        <v>139.8876678718297</v>
+        <v>142.7522598187888</v>
       </c>
       <c r="S50" t="n">
-        <v>139.4295593566976</v>
+        <v>96.97639486336325</v>
       </c>
       <c r="T50" t="n">
-        <v>94.3937332224239</v>
+        <v>143.0175755184522</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>86.03383069100653</v>
+        <v>29.36247655809484</v>
       </c>
       <c r="B51" t="n">
-        <v>86.02220304315779</v>
+        <v>112.74251125385</v>
       </c>
       <c r="C51" t="n">
-        <v>129.7335117603552</v>
+        <v>131.8125740578346</v>
       </c>
       <c r="D51" t="n">
-        <v>90.01827565590565</v>
+        <v>174.546764150962</v>
       </c>
       <c r="E51" t="n">
-        <v>114.3427034701917</v>
+        <v>124.0794691173493</v>
       </c>
       <c r="F51" t="n">
-        <v>96.20700151267059</v>
+        <v>51.97880479370732</v>
       </c>
       <c r="G51" t="n">
-        <v>89.85317009769076</v>
+        <v>170.9187254529351</v>
       </c>
       <c r="H51" t="n">
-        <v>158.8222068177618</v>
+        <v>167.1752049587444</v>
       </c>
       <c r="I51" t="n">
-        <v>141.0578030502601</v>
+        <v>154.0969453697786</v>
       </c>
       <c r="J51" t="n">
-        <v>106.9630059282996</v>
+        <v>133.8642483537566</v>
       </c>
       <c r="K51" t="n">
-        <v>108.7814090911321</v>
+        <v>116.2388640057261</v>
       </c>
       <c r="L51" t="n">
-        <v>166.6664326522485</v>
+        <v>62.43022945065333</v>
       </c>
       <c r="M51" t="n">
-        <v>103.6023581234585</v>
+        <v>8.563820462792705</v>
       </c>
       <c r="N51" t="n">
-        <v>91.16717588651535</v>
+        <v>161.5232781631862</v>
       </c>
       <c r="O51" t="n">
-        <v>86.93355611242981</v>
+        <v>98.18578929747115</v>
       </c>
       <c r="P51" t="n">
-        <v>100.3158884392231</v>
+        <v>111.4403278318589</v>
       </c>
       <c r="Q51" t="n">
-        <v>92.97011890073185</v>
+        <v>150.5942462627512</v>
       </c>
       <c r="R51" t="n">
-        <v>139.4892054864981</v>
+        <v>165.2166584566867</v>
       </c>
       <c r="S51" t="n">
-        <v>139.0297840285958</v>
+        <v>15.60129850209326</v>
       </c>
       <c r="T51" t="n">
-        <v>93.80221583897297</v>
+        <v>80.29515775018591</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>94.26287809934124</v>
+        <v>152.5574429355317</v>
       </c>
       <c r="B52" t="n">
-        <v>94.25226565234787</v>
+        <v>150.4741334243675</v>
       </c>
       <c r="C52" t="n">
-        <v>135.3309064400172</v>
+        <v>69.97162088967573</v>
       </c>
       <c r="D52" t="n">
-        <v>97.91302322094393</v>
+        <v>194.5118980776105</v>
       </c>
       <c r="E52" t="n">
-        <v>120.6562223885477</v>
+        <v>53.6491253121467</v>
       </c>
       <c r="F52" t="n">
-        <v>103.6313529018197</v>
+        <v>193.8637179769455</v>
       </c>
       <c r="G52" t="n">
-        <v>97.76125173506648</v>
+        <v>216.5264777126903</v>
       </c>
       <c r="H52" t="n">
-        <v>163.4263245094449</v>
+        <v>11.18451339534943</v>
       </c>
       <c r="I52" t="n">
-        <v>146.2223442759979</v>
+        <v>124.8726567161464</v>
       </c>
       <c r="J52" t="n">
-        <v>113.6870916217842</v>
+        <v>132.4868254085741</v>
       </c>
       <c r="K52" t="n">
-        <v>115.3995889423126</v>
+        <v>145.6203149868234</v>
       </c>
       <c r="L52" t="n">
-        <v>171.0595508506583</v>
+        <v>113.731182060994</v>
       </c>
       <c r="M52" t="n">
-        <v>110.5310760507823</v>
+        <v>170.8036564051357</v>
       </c>
       <c r="N52" t="n">
-        <v>98.97031940599825</v>
+        <v>111.9794834918808</v>
       </c>
       <c r="O52" t="n">
-        <v>95.08476924594953</v>
+        <v>78.51647308410347</v>
       </c>
       <c r="P52" t="n">
-        <v>107.4567244873634</v>
+        <v>159.0172004706636</v>
       </c>
       <c r="Q52" t="n">
-        <v>100.6335588788288</v>
+        <v>63.3045691865504</v>
       </c>
       <c r="R52" t="n">
-        <v>144.7097391727902</v>
+        <v>121.5780469220118</v>
       </c>
       <c r="S52" t="n">
-        <v>144.2669435845942</v>
+        <v>186.7737893710248</v>
       </c>
       <c r="T52" t="n">
-        <v>101.4027902007818</v>
+        <v>101.6153147106313</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>123.1219043804535</v>
+        <v>51.10768502668562</v>
       </c>
       <c r="B53" t="n">
-        <v>123.1137796158457</v>
+        <v>107.7572174996948</v>
       </c>
       <c r="C53" t="n">
-        <v>156.8055081576376</v>
+        <v>74.85276768704669</v>
       </c>
       <c r="D53" t="n">
-        <v>125.9383709080095</v>
+        <v>172.4166686726976</v>
       </c>
       <c r="E53" t="n">
-        <v>144.3309985823314</v>
+        <v>53.19004958636045</v>
       </c>
       <c r="F53" t="n">
-        <v>130.4337780444918</v>
+        <v>106.1599502786909</v>
       </c>
       <c r="G53" t="n">
-        <v>125.8204096778631</v>
+        <v>181.6569126263809</v>
       </c>
       <c r="H53" t="n">
-        <v>181.6085810014622</v>
+        <v>93.49842775884413</v>
       </c>
       <c r="I53" t="n">
-        <v>166.2963833529362</v>
+        <v>123.152690949242</v>
       </c>
       <c r="J53" t="n">
-        <v>138.5578144751071</v>
+        <v>111.8789994503648</v>
       </c>
       <c r="K53" t="n">
-        <v>139.9663469508045</v>
+        <v>107.0327390050818</v>
       </c>
       <c r="L53" t="n">
-        <v>188.5069841887224</v>
+        <v>18.78570527956914</v>
       </c>
       <c r="M53" t="n">
-        <v>135.9802629929877</v>
+        <v>69.97452487605052</v>
       </c>
       <c r="N53" t="n">
-        <v>126.7621287057912</v>
+        <v>122.738933956206</v>
       </c>
       <c r="O53" t="n">
-        <v>123.7522787396407</v>
+        <v>22.97600678317517</v>
       </c>
       <c r="P53" t="n">
-        <v>133.4932986642079</v>
+        <v>112.4581531086646</v>
       </c>
       <c r="Q53" t="n">
-        <v>128.0649301070241</v>
+        <v>91.69184670332473</v>
       </c>
       <c r="R53" t="n">
-        <v>164.9679416194408</v>
+        <v>130.073248754084</v>
       </c>
       <c r="S53" t="n">
-        <v>164.5796590163521</v>
+        <v>85.56780375113804</v>
       </c>
       <c r="T53" t="n">
-        <v>128.670272445511</v>
+        <v>11.71913365064556</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>17.52004418597992</v>
+        <v>96.20481791067891</v>
       </c>
       <c r="B54" t="n">
-        <v>17.46285604671174</v>
+        <v>70.39266163169258</v>
       </c>
       <c r="C54" t="n">
-        <v>98.67074540401588</v>
+        <v>133.8390998979782</v>
       </c>
       <c r="D54" t="n">
-        <v>31.75565897556729</v>
+        <v>114.2317923250791</v>
       </c>
       <c r="E54" t="n">
-        <v>77.32648809937064</v>
+        <v>145.4620987120324</v>
       </c>
       <c r="F54" t="n">
-        <v>46.4856866677143</v>
+        <v>23.97098685172556</v>
       </c>
       <c r="G54" t="n">
-        <v>31.28456650673717</v>
+        <v>102.6676634263087</v>
       </c>
       <c r="H54" t="n">
-        <v>134.6462970280795</v>
+        <v>187.1240837473415</v>
       </c>
       <c r="I54" t="n">
-        <v>113.147848968842</v>
+        <v>122.8164955280374</v>
       </c>
       <c r="J54" t="n">
-        <v>65.92584138353773</v>
+        <v>99.70898659517445</v>
       </c>
       <c r="K54" t="n">
-        <v>68.83695874137779</v>
+        <v>76.47921294341137</v>
       </c>
       <c r="L54" t="n">
-        <v>143.8152693490381</v>
+        <v>100.1343638692719</v>
       </c>
       <c r="M54" t="n">
-        <v>60.3206476560991</v>
+        <v>82.12238524341514</v>
       </c>
       <c r="N54" t="n">
-        <v>34.8795912251382</v>
+        <v>136.3350610352628</v>
       </c>
       <c r="O54" t="n">
-        <v>21.50755921212107</v>
+        <v>133.3270270890366</v>
       </c>
       <c r="P54" t="n">
-        <v>54.48311112868427</v>
+        <v>63.66590906743335</v>
       </c>
       <c r="Q54" t="n">
-        <v>39.35193684338964</v>
+        <v>149.9732421579313</v>
       </c>
       <c r="R54" t="n">
-        <v>111.1861968598818</v>
+        <v>135.550387656019</v>
       </c>
       <c r="S54" t="n">
-        <v>110.6092797732085</v>
+        <v>86.22929577055466</v>
       </c>
       <c r="T54" t="n">
-        <v>41.27938494225879</v>
+        <v>128.6730711615599</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>99.5039528079492</v>
+        <v>188.6460011611083</v>
       </c>
       <c r="B55" t="n">
-        <v>99.49389939808405</v>
+        <v>72.80193519849479</v>
       </c>
       <c r="C55" t="n">
-        <v>139.0323727579732</v>
+        <v>136.2090490792885</v>
       </c>
       <c r="D55" t="n">
-        <v>102.9684735882805</v>
+        <v>8.160688638722441</v>
       </c>
       <c r="E55" t="n">
-        <v>124.7937115319117</v>
+        <v>168.4077751228595</v>
       </c>
       <c r="F55" t="n">
-        <v>108.4204950232972</v>
+        <v>138.9473605552893</v>
       </c>
       <c r="G55" t="n">
-        <v>102.8241643663704</v>
+        <v>25.37331689952758</v>
       </c>
       <c r="H55" t="n">
-        <v>166.5043842651049</v>
+        <v>192.1680832145971</v>
       </c>
       <c r="I55" t="n">
-        <v>149.6546704998002</v>
+        <v>78.08824622726628</v>
       </c>
       <c r="J55" t="n">
-        <v>118.0690528388166</v>
+        <v>73.09836053836084</v>
       </c>
       <c r="K55" t="n">
-        <v>119.7188855815574</v>
+        <v>72.78845610781961</v>
       </c>
       <c r="L55" t="n">
-        <v>174.0026332388803</v>
+        <v>165.6840292212975</v>
       </c>
       <c r="M55" t="n">
-        <v>115.0333221713567</v>
+        <v>184.2182097253949</v>
       </c>
       <c r="N55" t="n">
-        <v>103.9743745360396</v>
+        <v>92.82590088474203</v>
       </c>
       <c r="O55" t="n">
-        <v>100.2828987384728</v>
+        <v>179.0529358072481</v>
       </c>
       <c r="P55" t="n">
-        <v>112.0825324231588</v>
+        <v>70.4274634208235</v>
       </c>
       <c r="Q55" t="n">
-        <v>105.558796930687</v>
+        <v>139.3360357102539</v>
       </c>
       <c r="R55" t="n">
-        <v>148.1771070317284</v>
+        <v>84.16544433376792</v>
       </c>
       <c r="S55" t="n">
-        <v>147.7447036210632</v>
+        <v>194.4052681867178</v>
       </c>
       <c r="T55" t="n">
-        <v>106.2923905900092</v>
+        <v>191.4588975914285</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.923309958995175</v>
+        <v>25.94195168366351</v>
       </c>
       <c r="B56" t="n">
-        <v>5.751955658714646</v>
+        <v>93.55680613889025</v>
       </c>
       <c r="C56" t="n">
-        <v>97.28334724492041</v>
+        <v>106.9487852194571</v>
       </c>
       <c r="D56" t="n">
-        <v>27.13955654693293</v>
+        <v>157.8596162783153</v>
       </c>
       <c r="E56" t="n">
-        <v>75.54812647825061</v>
+        <v>100.6226879172639</v>
       </c>
       <c r="F56" t="n">
-        <v>43.46323408998177</v>
+        <v>53.43388138705492</v>
       </c>
       <c r="G56" t="n">
-        <v>26.5867966123432</v>
+        <v>157.8110941866888</v>
       </c>
       <c r="H56" t="n">
-        <v>133.6329261670396</v>
+        <v>144.1027916464309</v>
       </c>
       <c r="I56" t="n">
-        <v>111.9400258123408</v>
+        <v>131.2073466606434</v>
       </c>
       <c r="J56" t="n">
-        <v>63.83063695999765</v>
+        <v>111.957301769539</v>
       </c>
       <c r="K56" t="n">
-        <v>66.83307969376985</v>
+        <v>96.23687708072896</v>
       </c>
       <c r="L56" t="n">
-        <v>142.8669498188018</v>
+        <v>40.0149105414682</v>
       </c>
       <c r="M56" t="n">
-        <v>58.02339343956795</v>
+        <v>23.90461486817319</v>
       </c>
       <c r="N56" t="n">
-        <v>30.73629022221745</v>
+        <v>137.7500557502156</v>
       </c>
       <c r="O56" t="n">
-        <v>13.80973409789401</v>
+        <v>76.82653184549865</v>
       </c>
       <c r="P56" t="n">
-        <v>51.92824906399408</v>
+        <v>93.70900061008479</v>
       </c>
       <c r="Q56" t="n">
-        <v>35.73105912113115</v>
+        <v>125.7296899346573</v>
       </c>
       <c r="R56" t="n">
-        <v>109.9568280042492</v>
+        <v>141.9156662212125</v>
       </c>
       <c r="S56" t="n">
-        <v>109.3734265008624</v>
+        <v>39.50858574627802</v>
       </c>
       <c r="T56" t="n">
-        <v>37.84337820283523</v>
+        <v>62.9399514840678</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64.09745918840233</v>
+        <v>53.54380631732698</v>
       </c>
       <c r="B57" t="n">
-        <v>64.08185131094754</v>
+        <v>85.10966402546943</v>
       </c>
       <c r="C57" t="n">
-        <v>116.3505407151782</v>
+        <v>63.61581340691369</v>
       </c>
       <c r="D57" t="n">
-        <v>69.35383336992081</v>
+        <v>150.0639578590222</v>
       </c>
       <c r="E57" t="n">
-        <v>98.89852419481456</v>
+        <v>53.20638832182642</v>
       </c>
       <c r="F57" t="n">
-        <v>77.21691130250629</v>
+        <v>90.55604307969205</v>
       </c>
       <c r="G57" t="n">
-        <v>69.13939851954653</v>
+        <v>158.9355255652256</v>
       </c>
       <c r="H57" t="n">
-        <v>148.0917203273162</v>
+        <v>96.77204930098439</v>
       </c>
       <c r="I57" t="n">
-        <v>128.856385376923</v>
+        <v>103.9384517109663</v>
       </c>
       <c r="J57" t="n">
-        <v>90.26488181046706</v>
+        <v>90.76996837984699</v>
       </c>
       <c r="K57" t="n">
-        <v>92.41244080150875</v>
+        <v>84.55675743266525</v>
       </c>
       <c r="L57" t="n">
-        <v>156.4748031603382</v>
+        <v>11.67571885700223</v>
       </c>
       <c r="M57" t="n">
-        <v>86.25608882729072</v>
+        <v>67.35351770757281</v>
       </c>
       <c r="N57" t="n">
-        <v>70.83867736034426</v>
+        <v>105.4938671970763</v>
       </c>
       <c r="O57" t="n">
-        <v>65.30013345616612</v>
+        <v>33.15455227927404</v>
       </c>
       <c r="P57" t="n">
-        <v>82.27965559231986</v>
+        <v>89.73599525893468</v>
       </c>
       <c r="Q57" t="n">
-        <v>73.144427398513</v>
+        <v>82.03305103893584</v>
       </c>
       <c r="R57" t="n">
-        <v>127.1373379393112</v>
+        <v>112.0010836378844</v>
       </c>
       <c r="S57" t="n">
-        <v>126.633112170862</v>
+        <v>83.86376993836741</v>
       </c>
       <c r="T57" t="n">
-        <v>74.19919101541063</v>
+        <v>34.42646905315646</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8.238977580878348</v>
+        <v>111.0542076058009</v>
       </c>
       <c r="B58" t="n">
-        <v>8.116658463167219</v>
+        <v>29.63672829164248</v>
       </c>
       <c r="C58" t="n">
-        <v>97.45175627911303</v>
+        <v>50.93688503263121</v>
       </c>
       <c r="D58" t="n">
-        <v>27.73717145406241</v>
+        <v>85.02630433689977</v>
       </c>
       <c r="E58" t="n">
-        <v>75.76486365777765</v>
+        <v>77.753975511167</v>
       </c>
       <c r="F58" t="n">
-        <v>43.83888534473063</v>
+        <v>98.25071033908436</v>
       </c>
       <c r="G58" t="n">
-        <v>27.19656053279511</v>
+        <v>99.99611802883516</v>
       </c>
       <c r="H58" t="n">
-        <v>133.7555759834832</v>
+        <v>109.7121713049258</v>
       </c>
       <c r="I58" t="n">
-        <v>112.0864154551095</v>
+        <v>40.10411226940877</v>
       </c>
       <c r="J58" t="n">
-        <v>64.08701401553128</v>
+        <v>22.92229253505988</v>
       </c>
       <c r="K58" t="n">
-        <v>67.07798217046839</v>
+        <v>24.86166392487346</v>
       </c>
       <c r="L58" t="n">
-        <v>142.9816789006057</v>
+        <v>78.00655171982511</v>
       </c>
       <c r="M58" t="n">
-        <v>58.30531139571061</v>
+        <v>114.9327555814819</v>
       </c>
       <c r="N58" t="n">
-        <v>31.26523128544334</v>
+        <v>48.66190312798999</v>
       </c>
       <c r="O58" t="n">
-        <v>14.95004704214743</v>
+        <v>86.28103901084125</v>
       </c>
       <c r="P58" t="n">
-        <v>52.24306845467719</v>
+        <v>38.33835023437342</v>
       </c>
       <c r="Q58" t="n">
-        <v>36.18706587477982</v>
+        <v>62.74828567371859</v>
       </c>
       <c r="R58" t="n">
-        <v>110.1058544104896</v>
+        <v>51.27570191409207</v>
       </c>
       <c r="S58" t="n">
-        <v>109.5232467344145</v>
+        <v>129.5798711731692</v>
       </c>
       <c r="T58" t="n">
-        <v>38.27422663504397</v>
+        <v>100.5793208181315</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>101.3260159637764</v>
+        <v>157.8383757454745</v>
       </c>
       <c r="B59" t="n">
-        <v>101.3161433539639</v>
+        <v>107.0482082951496</v>
       </c>
       <c r="C59" t="n">
-        <v>140.3421731390707</v>
+        <v>184.5423148075939</v>
       </c>
       <c r="D59" t="n">
-        <v>104.7302794791712</v>
+        <v>115.0500688118674</v>
       </c>
       <c r="E59" t="n">
-        <v>126.2513181103267</v>
+        <v>202.3915794295399</v>
       </c>
       <c r="F59" t="n">
-        <v>110.0950890266305</v>
+        <v>82.09637448725233</v>
       </c>
       <c r="G59" t="n">
-        <v>104.5884011940485</v>
+        <v>89.92105002060413</v>
       </c>
       <c r="H59" t="n">
-        <v>167.5996266886851</v>
+        <v>241.5630768309049</v>
       </c>
       <c r="I59" t="n">
-        <v>150.8722813809371</v>
+        <v>155.0894720393466</v>
       </c>
       <c r="J59" t="n">
-        <v>119.6086373341832</v>
+        <v>134.3697852889359</v>
       </c>
       <c r="K59" t="n">
-        <v>121.237520807607</v>
+        <v>113.1455717571577</v>
       </c>
       <c r="L59" t="n">
-        <v>175.0509676087201</v>
+        <v>162.4590403479165</v>
       </c>
       <c r="M59" t="n">
-        <v>116.6129928286897</v>
+        <v>141.6026686128107</v>
       </c>
       <c r="N59" t="n">
-        <v>105.7194184946433</v>
+        <v>171.1478017715178</v>
       </c>
       <c r="O59" t="n">
-        <v>102.0910606570217</v>
+        <v>194.1358951034422</v>
       </c>
       <c r="P59" t="n">
-        <v>113.7032055883797</v>
+        <v>98.12299831929528</v>
       </c>
       <c r="Q59" t="n">
-        <v>107.2780709005289</v>
+        <v>197.9620223641738</v>
       </c>
       <c r="R59" t="n">
-        <v>149.4067600042822</v>
+        <v>167.0566874295332</v>
       </c>
       <c r="S59" t="n">
-        <v>148.9779256626991</v>
+        <v>141.9789402346476</v>
       </c>
       <c r="T59" t="n">
-        <v>107.9999869630732</v>
+        <v>191.2840473556134</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>45.02576752768395</v>
+        <v>130.7949487482793</v>
       </c>
       <c r="B60" t="n">
-        <v>45.00354579904262</v>
+        <v>74.66780606756504</v>
       </c>
       <c r="C60" t="n">
-        <v>107.0340309983814</v>
+        <v>18.39974303731368</v>
       </c>
       <c r="D60" t="n">
-        <v>52.23781839004072</v>
+        <v>114.3237000857844</v>
       </c>
       <c r="E60" t="n">
-        <v>87.74823961174638</v>
+        <v>53.15514160465286</v>
       </c>
       <c r="F60" t="n">
-        <v>62.29997478448334</v>
+        <v>139.1953933244837</v>
       </c>
       <c r="G60" t="n">
-        <v>51.95278524480484</v>
+        <v>136.266721311582</v>
       </c>
       <c r="H60" t="n">
-        <v>140.890003536632</v>
+        <v>69.74744455296492</v>
       </c>
       <c r="I60" t="n">
-        <v>120.5105950506188</v>
+        <v>45.63998501615906</v>
       </c>
       <c r="J60" t="n">
-        <v>77.88828124503534</v>
+        <v>52.57548922110934</v>
       </c>
       <c r="K60" t="n">
-        <v>80.36724881405669</v>
+        <v>68.95671291048059</v>
       </c>
       <c r="L60" t="n">
-        <v>149.6769838389147</v>
+        <v>89.59842152957737</v>
       </c>
       <c r="M60" t="n">
-        <v>73.20483813812858</v>
+        <v>141.1435891909977</v>
       </c>
       <c r="N60" t="n">
-        <v>54.19366823911339</v>
+        <v>36.34738101666761</v>
       </c>
       <c r="O60" t="n">
-        <v>46.72197444930215</v>
+        <v>77.36042304544418</v>
       </c>
       <c r="P60" t="n">
-        <v>68.47464634037118</v>
+        <v>83.60959611645691</v>
       </c>
       <c r="Q60" t="n">
-        <v>57.17466857363037</v>
+        <v>17.64258061802271</v>
       </c>
       <c r="R60" t="n">
-        <v>118.6707131744928</v>
+        <v>45.7489855638611</v>
       </c>
       <c r="S60" t="n">
-        <v>118.1303541225804</v>
+        <v>157.3275925102512</v>
       </c>
       <c r="T60" t="n">
-        <v>58.51799222794244</v>
+        <v>100.3996438643259</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>33.69690823148137</v>
+        <v>97.70693448054715</v>
       </c>
       <c r="B61" t="n">
-        <v>33.66720982484834</v>
+        <v>87.19148664734897</v>
       </c>
       <c r="C61" t="n">
-        <v>102.7834893096469</v>
+        <v>22.94231982118369</v>
       </c>
       <c r="D61" t="n">
-        <v>42.85967280620228</v>
+        <v>142.5076893113799</v>
       </c>
       <c r="E61" t="n">
-        <v>82.51009294543485</v>
+        <v>18.64065797591985</v>
       </c>
       <c r="F61" t="n">
-        <v>54.67585153475984</v>
+        <v>125.9190941304592</v>
       </c>
       <c r="G61" t="n">
-        <v>42.51180750799299</v>
+        <v>159.2029933518826</v>
       </c>
       <c r="H61" t="n">
-        <v>137.6886160125666</v>
+        <v>57.95261283573942</v>
       </c>
       <c r="I61" t="n">
-        <v>116.7517254791469</v>
+        <v>80.67813022552482</v>
       </c>
       <c r="J61" t="n">
-        <v>71.93570906170011</v>
+        <v>77.50539325500989</v>
       </c>
       <c r="K61" t="n">
-        <v>74.61271047780221</v>
+        <v>83.51016020252311</v>
       </c>
       <c r="L61" t="n">
-        <v>146.6675198331879</v>
+        <v>55.27782450566572</v>
       </c>
       <c r="M61" t="n">
-        <v>66.83644372446399</v>
+        <v>111.9150566922227</v>
       </c>
       <c r="N61" t="n">
-        <v>45.22295390744534</v>
+        <v>75.71268346311582</v>
       </c>
       <c r="O61" t="n">
-        <v>35.93194650092146</v>
+        <v>36.42308665414618</v>
       </c>
       <c r="P61" t="n">
-        <v>61.6193076425137</v>
+        <v>94.94729478846278</v>
       </c>
       <c r="Q61" t="n">
-        <v>48.75555977945812</v>
+        <v>39.14597612795016</v>
       </c>
       <c r="R61" t="n">
-        <v>114.851643646256</v>
+        <v>84.37480566616598</v>
       </c>
       <c r="S61" t="n">
-        <v>114.2932301058557</v>
+        <v>128.4366175956504</v>
       </c>
       <c r="T61" t="n">
-        <v>50.32412241950544</v>
+        <v>60.21893180604014</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>169.8632014343744</v>
+        <v>110.5365634294485</v>
       </c>
       <c r="B62" t="n">
-        <v>169.8573124553793</v>
+        <v>107.8268643424107</v>
       </c>
       <c r="C62" t="n">
-        <v>195.659068923064</v>
+        <v>32.71238176193054</v>
       </c>
       <c r="D62" t="n">
-        <v>171.9156104902306</v>
+        <v>160.0498876547917</v>
       </c>
       <c r="E62" t="n">
-        <v>185.8115739533958</v>
+        <v>7.712432608481111</v>
       </c>
       <c r="F62" t="n">
-        <v>175.2354824749402</v>
+        <v>146.2864834966194</v>
       </c>
       <c r="G62" t="n">
-        <v>171.8292156612799</v>
+        <v>178.4595690825036</v>
       </c>
       <c r="H62" t="n">
-        <v>216.0467092011123</v>
+        <v>37.20734274261583</v>
       </c>
       <c r="I62" t="n">
-        <v>203.3445130303054</v>
+        <v>94.49202638655728</v>
       </c>
       <c r="J62" t="n">
-        <v>181.3636452417726</v>
+        <v>95.24207611887037</v>
       </c>
       <c r="K62" t="n">
-        <v>182.4419966510406</v>
+        <v>103.7647329049967</v>
       </c>
       <c r="L62" t="n">
-        <v>221.8769635432947</v>
+        <v>69.23320222574641</v>
       </c>
       <c r="M62" t="n">
-        <v>179.4021621578386</v>
+        <v>126.949539762661</v>
       </c>
       <c r="N62" t="n">
-        <v>172.5199731546725</v>
+        <v>86.29429665949013</v>
       </c>
       <c r="O62" t="n">
-        <v>170.3206691993636</v>
+        <v>39.20181884461788</v>
       </c>
       <c r="P62" t="n">
-        <v>177.524546616846</v>
+        <v>115.8434351662624</v>
       </c>
       <c r="Q62" t="n">
-        <v>173.4794805923233</v>
+        <v>39.90535792147928</v>
       </c>
       <c r="R62" t="n">
-        <v>202.2595501463913</v>
+        <v>95.69997498300734</v>
       </c>
       <c r="S62" t="n">
-        <v>201.9429821142693</v>
+        <v>143.3182623377462</v>
       </c>
       <c r="T62" t="n">
-        <v>173.9268319566229</v>
+        <v>65.07347176597025</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>102.0069023054807</v>
+        <v>163.1508084232997</v>
       </c>
       <c r="B63" t="n">
-        <v>101.9970956007541</v>
+        <v>70.97130972974306</v>
       </c>
       <c r="C63" t="n">
-        <v>140.8345560161472</v>
+        <v>62.4896265401151</v>
       </c>
       <c r="D63" t="n">
-        <v>105.389174238409</v>
+        <v>81.84658448132768</v>
       </c>
       <c r="E63" t="n">
-        <v>126.7984303193983</v>
+        <v>97.43684266864936</v>
       </c>
       <c r="F63" t="n">
-        <v>110.7220629985285</v>
+        <v>151.9695412033952</v>
       </c>
       <c r="G63" t="n">
-        <v>105.2481841705388</v>
+        <v>108.7653485856887</v>
       </c>
       <c r="H63" t="n">
-        <v>168.0121468021137</v>
+        <v>108.3828207170073</v>
       </c>
       <c r="I63" t="n">
-        <v>151.330406382713</v>
+        <v>18.5320775133251</v>
       </c>
       <c r="J63" t="n">
-        <v>120.1859922445564</v>
+        <v>41.4298198871035</v>
       </c>
       <c r="K63" t="n">
-        <v>121.807155202161</v>
+        <v>64.73082324091021</v>
       </c>
       <c r="L63" t="n">
-        <v>175.445968513436</v>
+        <v>125.3149109104267</v>
       </c>
       <c r="M63" t="n">
-        <v>117.2051052784496</v>
+        <v>169.2764913045418</v>
       </c>
       <c r="N63" t="n">
-        <v>106.3721864667354</v>
+        <v>8.505773984971228</v>
       </c>
       <c r="O63" t="n">
-        <v>102.7668782874331</v>
+        <v>119.9729616652067</v>
       </c>
       <c r="P63" t="n">
-        <v>114.3103913384157</v>
+        <v>78.72494359426277</v>
       </c>
       <c r="Q63" t="n">
-        <v>107.9214116985472</v>
+        <v>56.74528961664905</v>
       </c>
       <c r="R63" t="n">
-        <v>149.8693649210725</v>
+        <v>6.216788733497761</v>
       </c>
       <c r="S63" t="n">
-        <v>149.441858064028</v>
+        <v>184.3847978860312</v>
       </c>
       <c r="T63" t="n">
-        <v>108.6390527890057</v>
+        <v>141.1768399839866</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>35.62490205641921</v>
+        <v>158.3739358137514</v>
       </c>
       <c r="B64" t="n">
-        <v>35.59681221063131</v>
+        <v>154.1916848430537</v>
       </c>
       <c r="C64" t="n">
-        <v>103.4316087897452</v>
+        <v>73.62256407151621</v>
       </c>
       <c r="D64" t="n">
-        <v>44.39148088567558</v>
+        <v>196.7883647193241</v>
       </c>
       <c r="E64" t="n">
-        <v>83.31606963865303</v>
+        <v>59.04246302401523</v>
       </c>
       <c r="F64" t="n">
-        <v>55.8847095654946</v>
+        <v>199.0836982384126</v>
       </c>
       <c r="G64" t="n">
-        <v>44.05571245327028</v>
+        <v>219.3072982699708</v>
       </c>
       <c r="H64" t="n">
-        <v>138.1731052036705</v>
+        <v>15.70421220632891</v>
       </c>
       <c r="I64" t="n">
-        <v>117.3227063467539</v>
+        <v>126.9311016859701</v>
       </c>
       <c r="J64" t="n">
-        <v>72.85875555057297</v>
+        <v>135.4264561803579</v>
       </c>
       <c r="K64" t="n">
-        <v>75.50303693900611</v>
+        <v>149.2153123814027</v>
       </c>
       <c r="L64" t="n">
-        <v>147.1224435502183</v>
+        <v>119.4283943787353</v>
       </c>
       <c r="M64" t="n">
-        <v>67.8289188466249</v>
+        <v>176.5679085415584</v>
       </c>
       <c r="N64" t="n">
-        <v>46.67727051021204</v>
+        <v>113.5675713530268</v>
       </c>
       <c r="O64" t="n">
-        <v>37.74595079625981</v>
+        <v>84.32619304862602</v>
       </c>
       <c r="P64" t="n">
-        <v>62.6944263592174</v>
+        <v>162.8082321400377</v>
       </c>
       <c r="Q64" t="n">
-        <v>50.10745085889822</v>
+        <v>65.68591779477204</v>
       </c>
       <c r="R64" t="n">
-        <v>115.4320235914418</v>
+        <v>123.0880711631612</v>
       </c>
       <c r="S64" t="n">
-        <v>114.8764313085964</v>
+        <v>192.5589295118629</v>
       </c>
       <c r="T64" t="n">
-        <v>51.63496218127747</v>
+        <v>107.4597649464237</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.527490444793255</v>
+        <v>154.5052113067362</v>
       </c>
       <c r="B65" t="n">
-        <v>3.231498393562301</v>
+        <v>144.5265733662665</v>
       </c>
       <c r="C65" t="n">
-        <v>97.16690403189523</v>
+        <v>64.03794677272266</v>
       </c>
       <c r="D65" t="n">
-        <v>26.71915263499099</v>
+        <v>186.3199561637647</v>
       </c>
       <c r="E65" t="n">
-        <v>75.39812333434783</v>
+        <v>53.00054264943102</v>
       </c>
       <c r="F65" t="n">
-        <v>43.20197108383285</v>
+        <v>191.9023909145585</v>
       </c>
       <c r="G65" t="n">
-        <v>26.15751024225892</v>
+        <v>208.9940488245171</v>
       </c>
       <c r="H65" t="n">
-        <v>133.548180608847</v>
+        <v>10.24877526758606</v>
       </c>
       <c r="I65" t="n">
-        <v>111.8388437298745</v>
+        <v>116.4322348543977</v>
       </c>
       <c r="J65" t="n">
-        <v>63.65302665770728</v>
+        <v>125.2134489116891</v>
       </c>
       <c r="K65" t="n">
-        <v>66.66346922656791</v>
+        <v>139.4431339210553</v>
       </c>
       <c r="L65" t="n">
-        <v>142.7876848278443</v>
+        <v>114.4668145325122</v>
       </c>
       <c r="M65" t="n">
-        <v>57.82794976661955</v>
+        <v>172.018366859513</v>
       </c>
       <c r="N65" t="n">
-        <v>30.36572285640763</v>
+        <v>103.0399847069746</v>
       </c>
       <c r="O65" t="n">
-        <v>12.96404041270748</v>
+        <v>80.64435292332497</v>
       </c>
       <c r="P65" t="n">
-        <v>51.70977314608892</v>
+        <v>153.2074470057386</v>
       </c>
       <c r="Q65" t="n">
-        <v>35.41279675322956</v>
+        <v>55.29943955469243</v>
       </c>
       <c r="R65" t="n">
-        <v>109.8538192905636</v>
+        <v>112.5637123227935</v>
       </c>
       <c r="S65" t="n">
-        <v>109.269867815914</v>
+        <v>188.2052233033116</v>
       </c>
       <c r="T65" t="n">
-        <v>37.543026806194</v>
+        <v>104.891571402831</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.797390956500538</v>
+        <v>52.66710382916093</v>
       </c>
       <c r="B66" t="n">
-        <v>5.622200186048362</v>
+        <v>64.90774911095629</v>
       </c>
       <c r="C66" t="n">
-        <v>97.27576158636819</v>
+        <v>81.0297738485487</v>
       </c>
       <c r="D66" t="n">
-        <v>27.11235273074531</v>
+        <v>130.5508270813855</v>
       </c>
       <c r="E66" t="n">
-        <v>75.53835817255981</v>
+        <v>82.8967193372732</v>
       </c>
       <c r="F66" t="n">
-        <v>43.44625252645775</v>
+        <v>57.49189357828509</v>
       </c>
       <c r="G66" t="n">
-        <v>26.55902662256821</v>
+        <v>134.0751127845128</v>
       </c>
       <c r="H66" t="n">
-        <v>133.627403989592</v>
+        <v>126.2151270897691</v>
       </c>
       <c r="I66" t="n">
-        <v>111.933433432106</v>
+        <v>100.2251930051717</v>
       </c>
       <c r="J66" t="n">
-        <v>63.81907517154413</v>
+        <v>81.16673764490953</v>
       </c>
       <c r="K66" t="n">
-        <v>66.82203740074058</v>
+        <v>66.78365117595054</v>
       </c>
       <c r="L66" t="n">
-        <v>142.8617845736228</v>
+        <v>35.51488920852377</v>
       </c>
       <c r="M66" t="n">
-        <v>58.01067425289143</v>
+        <v>54.8231933828072</v>
       </c>
       <c r="N66" t="n">
-        <v>30.71227242742815</v>
+        <v>107.0709160986664</v>
       </c>
       <c r="O66" t="n">
-        <v>13.75619485492697</v>
+        <v>67.53482321864945</v>
       </c>
       <c r="P66" t="n">
-        <v>51.91403655933899</v>
+        <v>66.58269324405708</v>
       </c>
       <c r="Q66" t="n">
-        <v>35.71040082314888</v>
+        <v>99.52937043963404</v>
       </c>
       <c r="R66" t="n">
-        <v>109.9501167156644</v>
+        <v>111.0051786452638</v>
       </c>
       <c r="S66" t="n">
-        <v>109.3666794118379</v>
+        <v>69.83349925509843</v>
       </c>
       <c r="T66" t="n">
-        <v>37.82387360960016</v>
+        <v>64.72038937535012</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>41.16412469248223</v>
+        <v>93.0144699354787</v>
       </c>
       <c r="B67" t="n">
-        <v>41.13981714504469</v>
+        <v>69.55317617186</v>
       </c>
       <c r="C67" t="n">
-        <v>105.4677638522959</v>
+        <v>131.5009671492747</v>
       </c>
       <c r="D67" t="n">
-        <v>48.94849426072332</v>
+        <v>115.1754795836948</v>
       </c>
       <c r="E67" t="n">
-        <v>85.83075774570352</v>
+        <v>142.6383154995872</v>
       </c>
       <c r="F67" t="n">
-        <v>59.56888683187262</v>
+        <v>21.64851023644493</v>
       </c>
       <c r="G67" t="n">
-        <v>48.64419096802821</v>
+        <v>104.3741036197032</v>
       </c>
       <c r="H67" t="n">
-        <v>139.7038242740454</v>
+        <v>184.4432011516564</v>
       </c>
       <c r="I67" t="n">
-        <v>119.1216560483249</v>
+        <v>121.8234729246167</v>
       </c>
       <c r="J67" t="n">
-        <v>75.72152782100287</v>
+        <v>98.70212336761774</v>
       </c>
       <c r="K67" t="n">
-        <v>78.26915166386873</v>
+        <v>75.5544994823499</v>
       </c>
       <c r="L67" t="n">
-        <v>148.5609804469394</v>
+        <v>96.89807852897887</v>
       </c>
       <c r="M67" t="n">
-        <v>70.89508972468256</v>
+        <v>79.13742730070346</v>
       </c>
       <c r="N67" t="n">
-        <v>51.03057022464351</v>
+        <v>135.1077799829839</v>
       </c>
       <c r="O67" t="n">
-        <v>43.01288547263982</v>
+        <v>130.2093717575</v>
       </c>
       <c r="P67" t="n">
-        <v>65.99956523856876</v>
+        <v>63.1202174078588</v>
       </c>
       <c r="Q67" t="n">
-        <v>54.18586666969222</v>
+        <v>147.7968712877481</v>
       </c>
       <c r="R67" t="n">
-        <v>117.2599828824136</v>
+        <v>134.5446476069582</v>
       </c>
       <c r="S67" t="n">
-        <v>116.7130926047607</v>
+        <v>83.56781880850993</v>
       </c>
       <c r="T67" t="n">
-        <v>55.60144633578086</v>
+        <v>125.4070517106908</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>32.7226568882572</v>
+        <v>163.9114938829844</v>
       </c>
       <c r="B68" t="n">
-        <v>32.69207345605498</v>
+        <v>83.61600649335467</v>
       </c>
       <c r="C68" t="n">
-        <v>102.4682210450247</v>
+        <v>54.01892005005289</v>
       </c>
       <c r="D68" t="n">
-        <v>42.09800710865592</v>
+        <v>100.1281639679919</v>
       </c>
       <c r="E68" t="n">
-        <v>82.11702678086942</v>
+        <v>87.53782915367874</v>
       </c>
       <c r="F68" t="n">
-        <v>54.08085974276693</v>
+        <v>161.0317615914675</v>
       </c>
       <c r="G68" t="n">
-        <v>41.74379507258988</v>
+        <v>126.8743066697533</v>
       </c>
       <c r="H68" t="n">
-        <v>137.4534307644656</v>
+        <v>92.78394912710594</v>
       </c>
       <c r="I68" t="n">
-        <v>116.4742720596433</v>
+        <v>33.88224830108825</v>
       </c>
       <c r="J68" t="n">
-        <v>71.48452201473611</v>
+        <v>54.48685503283846</v>
       </c>
       <c r="K68" t="n">
-        <v>74.17780809858205</v>
+        <v>77.26176986891053</v>
       </c>
       <c r="L68" t="n">
-        <v>146.4467549093673</v>
+        <v>123.9299583496229</v>
       </c>
       <c r="M68" t="n">
-        <v>66.35059049623577</v>
+        <v>172.2209594934343</v>
       </c>
       <c r="N68" t="n">
-        <v>44.50175512921547</v>
+        <v>17.41776518204627</v>
       </c>
       <c r="O68" t="n">
-        <v>35.01992902349762</v>
+        <v>113.2629290297991</v>
       </c>
       <c r="P68" t="n">
-        <v>61.0919775732336</v>
+        <v>91.9833589364567</v>
       </c>
       <c r="Q68" t="n">
-        <v>48.08737109547624</v>
+        <v>43.65828983209062</v>
       </c>
       <c r="R68" t="n">
-        <v>114.5695888868958</v>
+        <v>23.92755777119728</v>
       </c>
       <c r="S68" t="n">
-        <v>114.0097938665614</v>
+        <v>187.9266095705519</v>
       </c>
       <c r="T68" t="n">
-        <v>49.67703641280445</v>
+        <v>136.2904948760404</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>40.63501951405991</v>
+        <v>76.88937794403641</v>
       </c>
       <c r="B69" t="n">
-        <v>40.61039526940754</v>
+        <v>99.94551520654905</v>
       </c>
       <c r="C69" t="n">
-        <v>105.2623810352657</v>
+        <v>148.4616709903847</v>
       </c>
       <c r="D69" t="n">
-        <v>48.50437856113475</v>
+        <v>150.0571661179895</v>
       </c>
       <c r="E69" t="n">
-        <v>85.57826023244134</v>
+        <v>151.8456533487024</v>
       </c>
       <c r="F69" t="n">
-        <v>59.20449246128415</v>
+        <v>16.15259060453534</v>
       </c>
       <c r="G69" t="n">
-        <v>48.19727133504347</v>
+        <v>139.0374381082945</v>
       </c>
       <c r="H69" t="n">
-        <v>139.5488379242305</v>
+        <v>195.343906009288</v>
       </c>
       <c r="I69" t="n">
-        <v>118.9398528202605</v>
+        <v>150.4552654043813</v>
       </c>
       <c r="J69" t="n">
-        <v>75.43520017045569</v>
+        <v>127.610918334865</v>
       </c>
       <c r="K69" t="n">
-        <v>77.99217750128207</v>
+        <v>105.3891147935386</v>
       </c>
       <c r="L69" t="n">
-        <v>148.4152436933812</v>
+        <v>96.06220997138107</v>
       </c>
       <c r="M69" t="n">
-        <v>70.58918753095686</v>
+        <v>57.8707247527719</v>
       </c>
       <c r="N69" t="n">
-        <v>50.60473047712119</v>
+        <v>162.1123740060896</v>
       </c>
       <c r="O69" t="n">
-        <v>42.50679905488339</v>
+        <v>132.641732075995</v>
       </c>
       <c r="P69" t="n">
-        <v>65.6708631044994</v>
+        <v>94.87954692871934</v>
       </c>
       <c r="Q69" t="n">
-        <v>53.78501460402765</v>
+        <v>166.3124852290745</v>
       </c>
       <c r="R69" t="n">
-        <v>117.075288745293</v>
+        <v>162.9492069384032</v>
       </c>
       <c r="S69" t="n">
-        <v>116.527531659163</v>
+        <v>56.25369468821994</v>
       </c>
       <c r="T69" t="n">
-        <v>55.21087287700244</v>
+        <v>121.0934950233002</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>105.998269949299</v>
+        <v>72.83059214304093</v>
       </c>
       <c r="B70" t="n">
-        <v>105.9888325498208</v>
+        <v>56.99430386087022</v>
       </c>
       <c r="C70" t="n">
-        <v>143.7518601011823</v>
+        <v>52.90288100951936</v>
       </c>
       <c r="D70" t="n">
-        <v>109.2570508522828</v>
+        <v>121.5317074268077</v>
       </c>
       <c r="E70" t="n">
-        <v>130.031023397295</v>
+        <v>59.87697419686298</v>
       </c>
       <c r="F70" t="n">
-        <v>114.4097913158427</v>
+        <v>82.73510785301127</v>
       </c>
       <c r="G70" t="n">
-        <v>109.1210583960779</v>
+        <v>131.2599032225014</v>
       </c>
       <c r="H70" t="n">
-        <v>170.4649717312609</v>
+        <v>101.6050536626384</v>
       </c>
       <c r="I70" t="n">
-        <v>154.0490733832621</v>
+        <v>78.1733994085598</v>
       </c>
       <c r="J70" t="n">
-        <v>123.5916576719203</v>
+        <v>62.92702759350981</v>
       </c>
       <c r="K70" t="n">
-        <v>125.1687188267417</v>
+        <v>56.09900102975846</v>
       </c>
       <c r="L70" t="n">
-        <v>177.7962681889082</v>
+        <v>38.04383288610877</v>
       </c>
       <c r="M70" t="n">
-        <v>120.6949121447007</v>
+        <v>80.26627992548285</v>
       </c>
       <c r="N70" t="n">
-        <v>110.2055677722252</v>
+        <v>82.3231287587288</v>
       </c>
       <c r="O70" t="n">
-        <v>106.7298289478095</v>
+        <v>54.20073839877386</v>
       </c>
       <c r="P70" t="n">
-        <v>117.8859223241958</v>
+        <v>62.2908028213209</v>
       </c>
       <c r="Q70" t="n">
-        <v>111.70163927755</v>
+        <v>71.29910224313529</v>
       </c>
       <c r="R70" t="n">
-        <v>152.6140611350415</v>
+        <v>87.5665631656707</v>
       </c>
       <c r="S70" t="n">
-        <v>152.1942642017552</v>
+        <v>96.15732739186404</v>
       </c>
       <c r="T70" t="n">
-        <v>112.3951462705439</v>
+        <v>62.62993020562751</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>31.68674584690573</v>
+        <v>177.5381996726489</v>
       </c>
       <c r="B71" t="n">
-        <v>31.6551615916881</v>
+        <v>60.35127501144265</v>
       </c>
       <c r="C71" t="n">
-        <v>102.1421260434294</v>
+        <v>112.3133444908619</v>
       </c>
       <c r="D71" t="n">
-        <v>41.29793930767292</v>
+        <v>19.18920888392374</v>
       </c>
       <c r="E71" t="n">
-        <v>81.70975263620505</v>
+        <v>145.6447403738532</v>
       </c>
       <c r="F71" t="n">
-        <v>53.46042441897202</v>
+        <v>137.7819786055771</v>
       </c>
       <c r="G71" t="n">
-        <v>40.93680514649586</v>
+        <v>48.19672830849378</v>
       </c>
       <c r="H71" t="n">
-        <v>137.2105069499472</v>
+        <v>166.920988014662</v>
       </c>
       <c r="I71" t="n">
-        <v>116.187493476551</v>
+        <v>52.34051450879233</v>
       </c>
       <c r="J71" t="n">
-        <v>71.01629725784838</v>
+        <v>51.47156668867214</v>
       </c>
       <c r="K71" t="n">
-        <v>73.72668989483969</v>
+        <v>58.15903990757865</v>
       </c>
       <c r="L71" t="n">
-        <v>146.2187731176271</v>
+        <v>149.9799765980102</v>
       </c>
       <c r="M71" t="n">
-        <v>65.84586887374911</v>
+        <v>175.9906995087379</v>
       </c>
       <c r="N71" t="n">
-        <v>43.74567176442083</v>
+        <v>66.48927552427509</v>
       </c>
       <c r="O71" t="n">
-        <v>34.05397212294922</v>
+        <v>159.1175446069714</v>
       </c>
       <c r="P71" t="n">
-        <v>60.5434332718939</v>
+        <v>61.26141038874793</v>
       </c>
       <c r="Q71" t="n">
-        <v>47.3885307581258</v>
+        <v>113.9708651895652</v>
       </c>
       <c r="R71" t="n">
-        <v>114.2780306369168</v>
+        <v>57.66349323975841</v>
       </c>
       <c r="S71" t="n">
-        <v>113.7168003684399</v>
+        <v>187.8682738641065</v>
       </c>
       <c r="T71" t="n">
-        <v>49.00087280139907</v>
+        <v>173.8847012222918</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>38.84296535679145</v>
+        <v>40.84531639306261</v>
       </c>
       <c r="B72" t="n">
-        <v>38.81720431378835</v>
+        <v>148.715785961514</v>
       </c>
       <c r="C72" t="n">
-        <v>104.5836507682455</v>
+        <v>157.8248146537123</v>
       </c>
       <c r="D72" t="n">
-        <v>47.01325224234907</v>
+        <v>211.1492582303602</v>
       </c>
       <c r="E72" t="n">
-        <v>84.74201892339079</v>
+        <v>143.2043732993257</v>
       </c>
       <c r="F72" t="n">
-        <v>57.98916342213538</v>
+        <v>85.38629015110536</v>
       </c>
       <c r="G72" t="n">
-        <v>46.69633937413803</v>
+        <v>207.3725998269516</v>
       </c>
       <c r="H72" t="n">
-        <v>139.0375823754284</v>
+        <v>183.8625253524564</v>
       </c>
       <c r="I72" t="n">
-        <v>118.3395949617291</v>
+        <v>187.5345415446736</v>
       </c>
       <c r="J72" t="n">
-        <v>74.48517014518788</v>
+        <v>168.3381158783141</v>
       </c>
       <c r="K72" t="n">
-        <v>77.07367188730767</v>
+        <v>151.8923284501366</v>
       </c>
       <c r="L72" t="n">
-        <v>147.9346332248355</v>
+        <v>83.28184900344043</v>
       </c>
       <c r="M72" t="n">
-        <v>69.57301591192858</v>
+        <v>32.99162990212259</v>
       </c>
       <c r="N72" t="n">
-        <v>49.17733109332948</v>
+        <v>193.5239552325277</v>
       </c>
       <c r="O72" t="n">
-        <v>40.79704784286611</v>
+        <v>113.3685623398928</v>
       </c>
       <c r="P72" t="n">
-        <v>64.57734438400801</v>
+        <v>147.8116898226372</v>
       </c>
       <c r="Q72" t="n">
-        <v>52.44424604049847</v>
+        <v>176.3412252165909</v>
       </c>
       <c r="R72" t="n">
-        <v>116.4654213987766</v>
+        <v>198.0559916835486</v>
       </c>
       <c r="S72" t="n">
-        <v>115.914782410951</v>
+        <v>22.9601384384241</v>
       </c>
       <c r="T72" t="n">
-        <v>53.90558070034488</v>
+        <v>89.9638453331672</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>148.406385008705</v>
+        <v>129.8583930191373</v>
       </c>
       <c r="B73" t="n">
-        <v>148.3996445561157</v>
+        <v>25.15561965858801</v>
       </c>
       <c r="C73" t="n">
-        <v>177.3511182982995</v>
+        <v>65.18425726037769</v>
       </c>
       <c r="D73" t="n">
-        <v>150.751202449751</v>
+        <v>64.96695808891972</v>
       </c>
       <c r="E73" t="n">
-        <v>166.4238231890357</v>
+        <v>95.74506850285495</v>
       </c>
       <c r="F73" t="n">
-        <v>154.5264450766994</v>
+        <v>107.0857425335033</v>
       </c>
       <c r="G73" t="n">
-        <v>150.6526709507261</v>
+        <v>82.67755494251153</v>
       </c>
       <c r="H73" t="n">
-        <v>199.6174553150278</v>
+        <v>123.4139685397101</v>
       </c>
       <c r="I73" t="n">
-        <v>185.7954221431443</v>
+        <v>27.59240354360643</v>
       </c>
       <c r="J73" t="n">
-        <v>161.4426205349773</v>
+        <v>4.470527246301437</v>
       </c>
       <c r="K73" t="n">
-        <v>162.6530972709571</v>
+        <v>18.86439768446492</v>
       </c>
       <c r="L73" t="n">
-        <v>205.913415932546</v>
+        <v>98.60378492536253</v>
       </c>
       <c r="M73" t="n">
-        <v>159.2359372023933</v>
+        <v>131.8490405555881</v>
       </c>
       <c r="N73" t="n">
-        <v>151.4400510007377</v>
+        <v>41.75086434890768</v>
       </c>
       <c r="O73" t="n">
-        <v>148.9297762918356</v>
+        <v>106.7972120500251</v>
       </c>
       <c r="P73" t="n">
-        <v>157.1175119499219</v>
+        <v>33.30628330946206</v>
       </c>
       <c r="Q73" t="n">
-        <v>152.5322198632126</v>
+        <v>72.59008955492223</v>
       </c>
       <c r="R73" t="n">
-        <v>184.6073496241081</v>
+        <v>40.31490020479767</v>
       </c>
       <c r="S73" t="n">
-        <v>184.2604567860972</v>
+        <v>145.6650376389276</v>
       </c>
       <c r="T73" t="n">
-        <v>153.0408141127212</v>
+        <v>121.5439944243155</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>72.93689615224324</v>
+        <v>71.1228647155081</v>
       </c>
       <c r="B74" t="n">
-        <v>72.92318021968461</v>
+        <v>47.22056792469136</v>
       </c>
       <c r="C74" t="n">
-        <v>121.4444517902261</v>
+        <v>70.69742825287044</v>
       </c>
       <c r="D74" t="n">
-        <v>77.59678310997791</v>
+        <v>113.1771472814622</v>
       </c>
       <c r="E74" t="n">
-        <v>104.8438106605561</v>
+        <v>80.21082805247657</v>
       </c>
       <c r="F74" t="n">
-        <v>84.69803974717087</v>
+        <v>63.8700198612058</v>
       </c>
       <c r="G74" t="n">
-        <v>77.40518699388876</v>
+        <v>118.7637950096382</v>
       </c>
       <c r="H74" t="n">
-        <v>152.1264742752498</v>
+        <v>121.7840901591255</v>
       </c>
       <c r="I74" t="n">
-        <v>133.4738723433178</v>
+        <v>82.16336553441803</v>
       </c>
       <c r="J74" t="n">
-        <v>96.7422112325938</v>
+        <v>62.62520242076726</v>
       </c>
       <c r="K74" t="n">
-        <v>98.74900384716078</v>
+        <v>48.57065581672369</v>
       </c>
       <c r="L74" t="n">
-        <v>160.2986917288498</v>
+        <v>47.2345298217208</v>
       </c>
       <c r="M74" t="n">
-        <v>93.01300664797198</v>
+        <v>73.00244882417306</v>
       </c>
       <c r="N74" t="n">
-        <v>78.92670496148412</v>
+        <v>89.93548896187369</v>
       </c>
       <c r="O74" t="n">
-        <v>73.99604026775567</v>
+        <v>72.0702048485518</v>
       </c>
       <c r="P74" t="n">
-        <v>89.33783224538742</v>
+        <v>49.98868401560921</v>
       </c>
       <c r="Q74" t="n">
-        <v>81.00255431386439</v>
+        <v>88.31544518250286</v>
       </c>
       <c r="R74" t="n">
-        <v>131.8150569707756</v>
+        <v>93.28717796030531</v>
       </c>
       <c r="S74" t="n">
-        <v>131.3287921363489</v>
+        <v>87.49258914421205</v>
       </c>
       <c r="T74" t="n">
-        <v>81.95624743273454</v>
+        <v>75.51689917289458</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>99.32347643041993</v>
+        <v>152.9697850785175</v>
       </c>
       <c r="B75" t="n">
-        <v>99.31340475108922</v>
+        <v>100.1647519533587</v>
       </c>
       <c r="C75" t="n">
-        <v>138.9032649743325</v>
+        <v>177.6719488267896</v>
       </c>
       <c r="D75" t="n">
-        <v>102.794080077201</v>
+        <v>109.7054250527608</v>
       </c>
       <c r="E75" t="n">
-        <v>124.6498567336826</v>
+        <v>195.7083285047023</v>
       </c>
       <c r="F75" t="n">
-        <v>108.2548848177966</v>
+        <v>77.52780146895692</v>
       </c>
       <c r="G75" t="n">
-        <v>102.6495256855089</v>
+        <v>85.37743654573177</v>
       </c>
       <c r="H75" t="n">
-        <v>166.3965934907302</v>
+        <v>234.7532985849236</v>
       </c>
       <c r="I75" t="n">
-        <v>149.5347342533546</v>
+        <v>148.3828543355366</v>
       </c>
       <c r="J75" t="n">
-        <v>117.9169944667556</v>
+        <v>127.5638014249841</v>
       </c>
       <c r="K75" t="n">
-        <v>119.5689253556611</v>
+        <v>106.2709573408966</v>
       </c>
       <c r="L75" t="n">
-        <v>173.8994902806845</v>
+        <v>156.4655199798658</v>
       </c>
       <c r="M75" t="n">
-        <v>114.8772455954474</v>
+        <v>137.2244909272073</v>
       </c>
       <c r="N75" t="n">
-        <v>103.8016710172733</v>
+        <v>164.4014531558763</v>
       </c>
       <c r="O75" t="n">
-        <v>100.1038267260967</v>
+        <v>187.8028620733795</v>
       </c>
       <c r="P75" t="n">
-        <v>111.9223410236136</v>
+        <v>91.24344698072701</v>
       </c>
       <c r="Q75" t="n">
-        <v>105.3886898830782</v>
+        <v>191.0639839496986</v>
       </c>
       <c r="R75" t="n">
-        <v>148.0559738548563</v>
+        <v>160.3968178370014</v>
       </c>
       <c r="S75" t="n">
-        <v>147.6232156332242</v>
+        <v>138.2601279161625</v>
       </c>
       <c r="T75" t="n">
-        <v>106.1234594383197</v>
+        <v>185.380530235596</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43.99525340323727</v>
+        <v>173.8078430351202</v>
       </c>
       <c r="B76" t="n">
-        <v>43.97251090220512</v>
+        <v>90.16317631976878</v>
       </c>
       <c r="C76" t="n">
-        <v>106.6046264114297</v>
+        <v>170.6800632968148</v>
       </c>
       <c r="D76" t="n">
-        <v>51.35223705651877</v>
+        <v>75.9646988736456</v>
       </c>
       <c r="E76" t="n">
-        <v>87.22394244425369</v>
+        <v>194.8767988143871</v>
       </c>
       <c r="F76" t="n">
-        <v>61.55931642493509</v>
+        <v>103.5507704029632</v>
       </c>
       <c r="G76" t="n">
-        <v>51.06226077300958</v>
+        <v>48.02030046096232</v>
       </c>
       <c r="H76" t="n">
-        <v>140.5640625377276</v>
+        <v>229.4644424478334</v>
       </c>
       <c r="I76" t="n">
-        <v>120.1293723450358</v>
+        <v>128.8593436173407</v>
       </c>
       <c r="J76" t="n">
-        <v>77.29713407276978</v>
+        <v>111.7575745888271</v>
       </c>
       <c r="K76" t="n">
-        <v>79.79446887158608</v>
+        <v>95.07356414226186</v>
       </c>
       <c r="L76" t="n">
-        <v>149.3702181550015</v>
+        <v>167.4806803755816</v>
       </c>
       <c r="M76" t="n">
-        <v>72.57555309735935</v>
+        <v>161.5673518576741</v>
       </c>
       <c r="N76" t="n">
-        <v>53.34056859248043</v>
+        <v>145.4208521490404</v>
       </c>
       <c r="O76" t="n">
-        <v>45.72970016301512</v>
+        <v>193.5908007206515</v>
       </c>
       <c r="P76" t="n">
-        <v>67.8014732288092</v>
+        <v>81.76005900202532</v>
       </c>
       <c r="Q76" t="n">
-        <v>56.3667038868027</v>
+        <v>180.8316902364269</v>
       </c>
       <c r="R76" t="n">
-        <v>118.2835607593074</v>
+        <v>139.4661710111299</v>
       </c>
       <c r="S76" t="n">
-        <v>117.7414249348303</v>
+        <v>166.0216323439807</v>
       </c>
       <c r="T76" t="n">
-        <v>57.72883157441829</v>
+        <v>196.5985870747425</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>29.69184831121241</v>
+        <v>118.0771946871575</v>
       </c>
       <c r="B77" t="n">
-        <v>29.65813967809741</v>
+        <v>78.10655683325261</v>
       </c>
       <c r="C77" t="n">
-        <v>101.5409764895014</v>
+        <v>149.5127380753303</v>
       </c>
       <c r="D77" t="n">
-        <v>39.78788490017892</v>
+        <v>108.7398268566799</v>
       </c>
       <c r="E77" t="n">
-        <v>80.95702359671746</v>
+        <v>164.1801828015778</v>
       </c>
       <c r="F77" t="n">
-        <v>52.30270521518241</v>
+        <v>43.57541557260395</v>
       </c>
       <c r="G77" t="n">
-        <v>39.41291678335696</v>
+        <v>91.99619213661677</v>
       </c>
       <c r="H77" t="n">
-        <v>136.7635887626205</v>
+        <v>204.7762077897481</v>
       </c>
       <c r="I77" t="n">
-        <v>115.6593689855398</v>
+        <v>130.0825580593796</v>
       </c>
       <c r="J77" t="n">
-        <v>70.14891638496445</v>
+        <v>107.5064459157175</v>
       </c>
       <c r="K77" t="n">
-        <v>72.89156876223413</v>
+        <v>84.45954132870902</v>
       </c>
       <c r="L77" t="n">
-        <v>145.799470526452</v>
+        <v>121.7086323412112</v>
       </c>
       <c r="M77" t="n">
-        <v>64.90943260812418</v>
+        <v>103.161272116812</v>
       </c>
       <c r="N77" t="n">
-        <v>42.32304091024293</v>
+        <v>144.9192788216675</v>
       </c>
       <c r="O77" t="n">
-        <v>32.20603997886503</v>
+        <v>154.022098059459</v>
       </c>
       <c r="P77" t="n">
-        <v>59.5236365330439</v>
+        <v>69.93227553547659</v>
       </c>
       <c r="Q77" t="n">
-        <v>46.07850736713903</v>
+        <v>164.5076194993104</v>
       </c>
       <c r="R77" t="n">
-        <v>113.7410404384528</v>
+        <v>142.7149559906238</v>
       </c>
       <c r="S77" t="n">
-        <v>113.177147339051</v>
+        <v>105.7578129587804</v>
       </c>
       <c r="T77" t="n">
-        <v>47.7351184042581</v>
+        <v>150.4580851205032</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>37.55727618614741</v>
+        <v>153.2894657723235</v>
       </c>
       <c r="B78" t="n">
-        <v>37.53063265589915</v>
+        <v>100.069397617996</v>
       </c>
       <c r="C78" t="n">
-        <v>104.1129821147583</v>
+        <v>36.18343590937671</v>
       </c>
       <c r="D78" t="n">
-        <v>45.95670705366513</v>
+        <v>130.7722584589336</v>
       </c>
       <c r="E78" t="n">
-        <v>84.16045869662294</v>
+        <v>61.60576480607582</v>
       </c>
       <c r="F78" t="n">
-        <v>57.13594412637966</v>
+        <v>166.4017285578876</v>
       </c>
       <c r="G78" t="n">
-        <v>45.63245717423431</v>
+        <v>155.5533941937666</v>
       </c>
       <c r="H78" t="n">
-        <v>138.6838936200512</v>
+        <v>58.83705424125765</v>
       </c>
       <c r="I78" t="n">
-        <v>117.9238431044365</v>
+        <v>60.95585761311764</v>
       </c>
       <c r="J78" t="n">
-        <v>73.82285288697018</v>
+        <v>74.86750363408085</v>
       </c>
       <c r="K78" t="n">
-        <v>76.43378791480909</v>
+        <v>94.05644084948331</v>
       </c>
       <c r="L78" t="n">
-        <v>147.60226537618</v>
+        <v>111.0920862229576</v>
       </c>
       <c r="M78" t="n">
-        <v>68.86347057689673</v>
+        <v>165.3713809002584</v>
       </c>
       <c r="N78" t="n">
-        <v>48.16827721931318</v>
+        <v>46.01777947920232</v>
       </c>
       <c r="O78" t="n">
-        <v>39.57489291844971</v>
+        <v>91.429126059278</v>
       </c>
       <c r="P78" t="n">
-        <v>63.81227503000051</v>
+        <v>109.0136067048128</v>
       </c>
       <c r="Q78" t="n">
-        <v>51.49924251452631</v>
+        <v>17.90755170380294</v>
       </c>
       <c r="R78" t="n">
-        <v>116.042955057204</v>
+        <v>55.21431896101178</v>
       </c>
       <c r="S78" t="n">
-        <v>115.4903018360926</v>
+        <v>181.7637694074035</v>
       </c>
       <c r="T78" t="n">
-        <v>52.98664612385888</v>
+        <v>116.6078028290438</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>58.27415133054152</v>
+        <v>11.80995086611175</v>
       </c>
       <c r="B79" t="n">
-        <v>58.25698332667374</v>
+        <v>124.6801339481742</v>
       </c>
       <c r="C79" t="n">
-        <v>113.2468134809995</v>
+        <v>116.8655597144527</v>
       </c>
       <c r="D79" t="n">
-        <v>64.01051977596099</v>
+        <v>190.3491075388989</v>
       </c>
       <c r="E79" t="n">
-        <v>95.22767731493965</v>
+        <v>99.29499555316491</v>
       </c>
       <c r="F79" t="n">
-        <v>72.45580604744575</v>
+        <v>87.59712278430787</v>
       </c>
       <c r="G79" t="n">
-        <v>63.77812216215391</v>
+        <v>192.6230206089213</v>
       </c>
       <c r="H79" t="n">
-        <v>145.6658850533988</v>
+        <v>139.4627484369548</v>
       </c>
       <c r="I79" t="n">
-        <v>126.0609395938807</v>
+        <v>154.6932481278971</v>
       </c>
       <c r="J79" t="n">
-        <v>86.22726556689328</v>
+        <v>138.357160998631</v>
       </c>
       <c r="K79" t="n">
-        <v>88.47288654598262</v>
+        <v>126.2794985739871</v>
       </c>
       <c r="L79" t="n">
-        <v>154.1809212028276</v>
+        <v>42.04562853136727</v>
       </c>
       <c r="M79" t="n">
-        <v>82.02137098748972</v>
+        <v>32.32287722326375</v>
       </c>
       <c r="N79" t="n">
-        <v>65.61639009461663</v>
+        <v>158.0721323342927</v>
       </c>
       <c r="O79" t="n">
-        <v>59.59446172488732</v>
+        <v>69.01780969588934</v>
       </c>
       <c r="P79" t="n">
-        <v>77.82887743811243</v>
+        <v>126.2777803394223</v>
       </c>
       <c r="Q79" t="n">
-        <v>68.09919014454057</v>
+        <v>134.9000153057351</v>
       </c>
       <c r="R79" t="n">
-        <v>124.3032386431687</v>
+        <v>163.8778446899379</v>
       </c>
       <c r="S79" t="n">
-        <v>123.7874692243285</v>
+        <v>44.0704202014527</v>
       </c>
       <c r="T79" t="n">
-        <v>69.23086296029646</v>
+        <v>45.72804214533057</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>71.66395153960336</v>
+        <v>19.79934700862967</v>
       </c>
       <c r="B80" t="n">
-        <v>71.6499919281231</v>
+        <v>109.5727644815902</v>
       </c>
       <c r="C80" t="n">
-        <v>120.6842408957195</v>
+        <v>122.9371689692705</v>
       </c>
       <c r="D80" t="n">
-        <v>76.40151751741884</v>
+        <v>172.935992348592</v>
       </c>
       <c r="E80" t="n">
-        <v>103.9622804856359</v>
+        <v>113.9007894129818</v>
       </c>
       <c r="F80" t="n">
-        <v>83.60436033461914</v>
+        <v>57.24857213496386</v>
       </c>
       <c r="G80" t="n">
-        <v>76.2069163757883</v>
+        <v>171.1464045410545</v>
       </c>
       <c r="H80" t="n">
-        <v>151.5202801784822</v>
+        <v>156.828099206893</v>
       </c>
       <c r="I80" t="n">
-        <v>132.7825505413562</v>
+        <v>148.3799128446519</v>
       </c>
       <c r="J80" t="n">
-        <v>95.78615016858807</v>
+        <v>128.9283924873739</v>
       </c>
       <c r="K80" t="n">
-        <v>97.81255998466699</v>
+        <v>112.577755234162</v>
       </c>
       <c r="L80" t="n">
-        <v>159.7235164273825</v>
+        <v>52.13598654986998</v>
       </c>
       <c r="M80" t="n">
-        <v>92.01820763111604</v>
+        <v>6.693406172976079</v>
       </c>
       <c r="N80" t="n">
-        <v>77.75188670395508</v>
+        <v>154.9553508028971</v>
       </c>
       <c r="O80" t="n">
-        <v>72.74163254460834</v>
+        <v>87.58988693101898</v>
       </c>
       <c r="P80" t="n">
-        <v>88.30163871782047</v>
+        <v>109.1038234833562</v>
       </c>
       <c r="Q80" t="n">
-        <v>79.85828031781085</v>
+        <v>141.7017693169776</v>
       </c>
       <c r="R80" t="n">
-        <v>131.1149891284605</v>
+        <v>159.1269415649693</v>
       </c>
       <c r="S80" t="n">
-        <v>130.6261182686672</v>
+        <v>22.83306188072545</v>
       </c>
       <c r="T80" t="n">
-        <v>80.82547632524729</v>
+        <v>69.61778378860851</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>20.34143076811423</v>
+        <v>65.76110570740663</v>
       </c>
       <c r="B81" t="n">
-        <v>20.29219551264653</v>
+        <v>95.54719336418063</v>
       </c>
       <c r="C81" t="n">
-        <v>99.21057330748279</v>
+        <v>138.9080973880853</v>
       </c>
       <c r="D81" t="n">
-        <v>33.39526514923669</v>
+        <v>149.4987592954186</v>
       </c>
       <c r="E81" t="n">
-        <v>78.01415012161193</v>
+        <v>140.9339971407827</v>
       </c>
       <c r="F81" t="n">
-        <v>47.62080346218664</v>
+        <v>15.10369148989268</v>
       </c>
       <c r="G81" t="n">
-        <v>32.94762448082952</v>
+        <v>140.7550901957383</v>
       </c>
       <c r="H81" t="n">
-        <v>135.0423902365073</v>
+        <v>184.5264050911798</v>
       </c>
       <c r="I81" t="n">
-        <v>113.6189138466443</v>
+        <v>144.5884884606483</v>
       </c>
       <c r="J81" t="n">
-        <v>66.73109035181929</v>
+        <v>122.079729896135</v>
       </c>
       <c r="K81" t="n">
-        <v>69.60853931937835</v>
+        <v>100.6063772137926</v>
       </c>
       <c r="L81" t="n">
-        <v>144.1861767138296</v>
+        <v>84.45511035417481</v>
       </c>
       <c r="M81" t="n">
-        <v>61.19969273670048</v>
+        <v>47.5384217533825</v>
       </c>
       <c r="N81" t="n">
-        <v>36.37867151846028</v>
+        <v>155.4575887221779</v>
       </c>
       <c r="O81" t="n">
-        <v>23.86204016169173</v>
+        <v>121.1214230289872</v>
       </c>
       <c r="P81" t="n">
-        <v>55.45476765505249</v>
+        <v>91.37016381677722</v>
       </c>
       <c r="Q81" t="n">
-        <v>40.68656769428237</v>
+        <v>157.008382911432</v>
       </c>
       <c r="R81" t="n">
-        <v>111.6655373406661</v>
+        <v>156.8914898027915</v>
       </c>
       <c r="S81" t="n">
-        <v>111.0911095874157</v>
+        <v>48.18073713835214</v>
       </c>
       <c r="T81" t="n">
-        <v>42.5536071165122</v>
+        <v>109.3482341240979</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.613302611970294</v>
+        <v>146.7053110629449</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7759757388463813</v>
+        <v>37.1479805427479</v>
       </c>
       <c r="C82" t="n">
-        <v>97.11625402384104</v>
+        <v>74.48058272031976</v>
       </c>
       <c r="D82" t="n">
-        <v>26.53436778993667</v>
+        <v>53.62230863855081</v>
       </c>
       <c r="E82" t="n">
-        <v>75.33283851562484</v>
+        <v>107.354640941257</v>
       </c>
       <c r="F82" t="n">
-        <v>43.08793174437609</v>
+        <v>120.914111742265</v>
       </c>
       <c r="G82" t="n">
-        <v>25.96872924410362</v>
+        <v>75.87156341933505</v>
       </c>
       <c r="H82" t="n">
-        <v>133.5113332283553</v>
+        <v>130.6889133865776</v>
       </c>
       <c r="I82" t="n">
-        <v>111.7948412195973</v>
+        <v>20.23598136122812</v>
       </c>
       <c r="J82" t="n">
-        <v>63.57568213685541</v>
+        <v>14.17873997676189</v>
       </c>
       <c r="K82" t="n">
-        <v>66.58962145711034</v>
+        <v>31.76133922205966</v>
       </c>
       <c r="L82" t="n">
-        <v>142.7532223628437</v>
+        <v>115.0887323258548</v>
       </c>
       <c r="M82" t="n">
-        <v>57.74280328049857</v>
+        <v>148.4314524897258</v>
       </c>
       <c r="N82" t="n">
-        <v>30.20325613359988</v>
+        <v>36.79345734781262</v>
       </c>
       <c r="O82" t="n">
-        <v>12.57878771193772</v>
+        <v>121.2554835245806</v>
       </c>
       <c r="P82" t="n">
-        <v>51.61453472908248</v>
+        <v>43.3718372016405</v>
       </c>
       <c r="Q82" t="n">
-        <v>35.27358403062026</v>
+        <v>78.14800352943931</v>
       </c>
       <c r="R82" t="n">
-        <v>109.8090213470801</v>
+        <v>31.61929273266344</v>
       </c>
       <c r="S82" t="n">
-        <v>109.2248303683142</v>
+        <v>162.0254421187806</v>
       </c>
       <c r="T82" t="n">
-        <v>37.41174171634199</v>
+        <v>137.2706102291252</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>151.8748001187767</v>
+        <v>65.26761920053771</v>
       </c>
       <c r="B83" t="n">
-        <v>151.8682136068897</v>
+        <v>98.97080094326495</v>
       </c>
       <c r="C83" t="n">
-        <v>180.2634709568852</v>
+        <v>141.4763675893189</v>
       </c>
       <c r="D83" t="n">
-        <v>154.1668733542074</v>
+        <v>152.904873550973</v>
       </c>
       <c r="E83" t="n">
-        <v>169.52400633722</v>
+        <v>142.8525151368251</v>
       </c>
       <c r="F83" t="n">
-        <v>157.8604511199959</v>
+        <v>18.2346759208719</v>
       </c>
       <c r="G83" t="n">
-        <v>154.0705262675316</v>
+        <v>143.9821069399956</v>
       </c>
       <c r="H83" t="n">
-        <v>202.2093674047113</v>
+        <v>186.4898976730555</v>
       </c>
       <c r="I83" t="n">
-        <v>188.5774076847902</v>
+        <v>147.8911455430984</v>
       </c>
       <c r="J83" t="n">
-        <v>164.6366287463609</v>
+        <v>125.4206545756279</v>
       </c>
       <c r="K83" t="n">
-        <v>165.8237915728676</v>
+        <v>104.0086024830344</v>
       </c>
       <c r="L83" t="n">
-        <v>208.4270487743279</v>
+        <v>85.69496750670024</v>
       </c>
       <c r="M83" t="n">
-        <v>162.4733316470459</v>
+        <v>46.40771635251921</v>
       </c>
       <c r="N83" t="n">
-        <v>154.8405271460687</v>
+        <v>158.6642265398804</v>
       </c>
       <c r="O83" t="n">
-        <v>152.3862791267724</v>
+        <v>122.4749953002029</v>
       </c>
       <c r="P83" t="n">
-        <v>160.3976694378701</v>
+        <v>94.82239252852031</v>
       </c>
       <c r="Q83" t="n">
-        <v>155.9088768998283</v>
+        <v>159.6510368062221</v>
       </c>
       <c r="R83" t="n">
-        <v>187.4069724823601</v>
+        <v>160.170817594267</v>
       </c>
       <c r="S83" t="n">
-        <v>187.0652713220377</v>
+        <v>45.98940258149263</v>
       </c>
       <c r="T83" t="n">
-        <v>156.4064915022739</v>
+        <v>110.0482669200606</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>79.06182188102963</v>
+        <v>96.25197494725747</v>
       </c>
       <c r="B84" t="n">
-        <v>79.04916870010173</v>
+        <v>71.43607094294539</v>
       </c>
       <c r="C84" t="n">
-        <v>125.2187515089217</v>
+        <v>21.48599563401028</v>
       </c>
       <c r="D84" t="n">
-        <v>83.38010318919913</v>
+        <v>127.5235610878811</v>
       </c>
       <c r="E84" t="n">
-        <v>109.1934315453593</v>
+        <v>34.40113302846196</v>
       </c>
       <c r="F84" t="n">
-        <v>90.02632279415769</v>
+        <v>114.9035931012338</v>
       </c>
       <c r="G84" t="n">
-        <v>83.20182589573037</v>
+        <v>143.5976701535037</v>
       </c>
       <c r="H84" t="n">
-        <v>155.156195603794</v>
+        <v>71.46360613588318</v>
       </c>
       <c r="I84" t="n">
-        <v>136.9169655562993</v>
+        <v>68.31518161849573</v>
       </c>
       <c r="J84" t="n">
-        <v>101.4398161127885</v>
+        <v>62.71136258729675</v>
       </c>
       <c r="K84" t="n">
-        <v>103.3554382682939</v>
+        <v>67.75974610630233</v>
       </c>
       <c r="L84" t="n">
-        <v>163.1767490447256</v>
+        <v>54.63829488651754</v>
       </c>
       <c r="M84" t="n">
-        <v>97.88973523572439</v>
+        <v>107.9151868005004</v>
       </c>
       <c r="N84" t="n">
-        <v>84.61917994699373</v>
+        <v>65.82237895591939</v>
       </c>
       <c r="O84" t="n">
-        <v>80.03995773444575</v>
+        <v>46.52026104228132</v>
       </c>
       <c r="P84" t="n">
-        <v>94.40460332594765</v>
+        <v>79.23898444465028</v>
       </c>
       <c r="Q84" t="n">
-        <v>86.55861981452277</v>
+        <v>40.2669515340688</v>
       </c>
       <c r="R84" t="n">
-        <v>135.3003699294032</v>
+        <v>73.67789382364703</v>
       </c>
       <c r="S84" t="n">
-        <v>134.8266757834549</v>
+        <v>124.3271349346783</v>
       </c>
       <c r="T84" t="n">
-        <v>87.45174299052105</v>
+        <v>66.87832067457163</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>93.01697999590593</v>
+        <v>146.8865843215412</v>
       </c>
       <c r="B85" t="n">
-        <v>93.00622538619794</v>
+        <v>41.01003213300174</v>
       </c>
       <c r="C85" t="n">
-        <v>134.4660649303912</v>
+        <v>120.0570982573346</v>
       </c>
       <c r="D85" t="n">
-        <v>96.71415871656332</v>
+        <v>42.97714971739228</v>
       </c>
       <c r="E85" t="n">
-        <v>119.6853891712024</v>
+        <v>146.7670338690113</v>
       </c>
       <c r="F85" t="n">
-        <v>102.4993935799085</v>
+        <v>92.85674237602643</v>
       </c>
       <c r="G85" t="n">
-        <v>96.56050290255605</v>
+        <v>36.71261952666688</v>
       </c>
       <c r="H85" t="n">
-        <v>162.7108844627608</v>
+        <v>178.8718096338401</v>
       </c>
       <c r="I85" t="n">
-        <v>145.4222897136335</v>
+        <v>77.25522908002586</v>
       </c>
       <c r="J85" t="n">
-        <v>112.6562167898756</v>
+        <v>59.67095476684689</v>
       </c>
       <c r="K85" t="n">
-        <v>114.3841488495771</v>
+        <v>44.78704510856517</v>
       </c>
       <c r="L85" t="n">
-        <v>170.3761671044881</v>
+        <v>129.7674712510198</v>
       </c>
       <c r="M85" t="n">
-        <v>109.4704853050873</v>
+        <v>140.3308540808358</v>
       </c>
       <c r="N85" t="n">
-        <v>97.78441850986697</v>
+        <v>93.77096847995807</v>
       </c>
       <c r="O85" t="n">
-        <v>93.84978275170896</v>
+        <v>150.0258243221398</v>
       </c>
       <c r="P85" t="n">
-        <v>106.3654832055053</v>
+        <v>34.12799692992245</v>
       </c>
       <c r="Q85" t="n">
-        <v>99.46748992814788</v>
+        <v>129.1640898746304</v>
       </c>
       <c r="R85" t="n">
-        <v>143.9012751557277</v>
+        <v>88.41777607276858</v>
       </c>
       <c r="S85" t="n">
-        <v>143.4559841596996</v>
+        <v>149.5177144304651</v>
       </c>
       <c r="T85" t="n">
-        <v>100.2456694350996</v>
+        <v>157.6697623267423</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>22.90194826581775</v>
+        <v>162.7189557298879</v>
       </c>
       <c r="B86" t="n">
-        <v>22.8582288771392</v>
+        <v>47.87740980416294</v>
       </c>
       <c r="C86" t="n">
-        <v>99.7670450834123</v>
+        <v>92.35509703463886</v>
       </c>
       <c r="D86" t="n">
-        <v>35.01384244929469</v>
+        <v>37.01303564693918</v>
       </c>
       <c r="E86" t="n">
-        <v>78.72060116560094</v>
+        <v>125.7548089337495</v>
       </c>
       <c r="F86" t="n">
-        <v>48.76952276843003</v>
+        <v>130.1776030140448</v>
       </c>
       <c r="G86" t="n">
-        <v>34.58715639664477</v>
+        <v>62.76547610924227</v>
       </c>
       <c r="H86" t="n">
-        <v>135.4517352766856</v>
+        <v>147.2810007939278</v>
       </c>
       <c r="I86" t="n">
-        <v>114.1051401662843</v>
+        <v>33.02988684809024</v>
       </c>
       <c r="J86" t="n">
-        <v>67.55563520698239</v>
+        <v>32.48759658756291</v>
       </c>
       <c r="K86" t="n">
-        <v>70.39939044376486</v>
+        <v>44.08970513097282</v>
       </c>
       <c r="L86" t="n">
-        <v>144.569633685736</v>
+        <v>132.7820193387826</v>
       </c>
       <c r="M86" t="n">
-        <v>62.09772797568972</v>
+        <v>162.964771447602</v>
       </c>
       <c r="N86" t="n">
-        <v>37.86995075418294</v>
+        <v>48.20864146445315</v>
       </c>
       <c r="O86" t="n">
-        <v>26.07915622397315</v>
+        <v>139.9557681440052</v>
       </c>
       <c r="P86" t="n">
-        <v>56.44427946525727</v>
+        <v>51.3954264345896</v>
       </c>
       <c r="Q86" t="n">
-        <v>42.02525692268437</v>
+        <v>94.37397091166321</v>
       </c>
       <c r="R86" t="n">
-        <v>112.1602320711575</v>
+        <v>40.18785793414821</v>
       </c>
       <c r="S86" t="n">
-        <v>111.5883509065324</v>
+        <v>175.811089654112</v>
       </c>
       <c r="T86" t="n">
-        <v>43.83531575456809</v>
+        <v>155.6386343316701</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>101.7649428606482</v>
+        <v>136.7653109485479</v>
       </c>
       <c r="B87" t="n">
-        <v>101.7551128369503</v>
+        <v>55.61875739074083</v>
       </c>
       <c r="C87" t="n">
-        <v>140.6594029766102</v>
+        <v>135.4464755799529</v>
       </c>
       <c r="D87" t="n">
-        <v>105.1549976183959</v>
+        <v>70.83669875794993</v>
       </c>
       <c r="E87" t="n">
-        <v>126.6038601660092</v>
+        <v>157.3360986654866</v>
       </c>
       <c r="F87" t="n">
-        <v>110.4991887396519</v>
+        <v>71.88624387892438</v>
       </c>
       <c r="G87" t="n">
-        <v>105.0136931484022</v>
+        <v>54.82107611382603</v>
       </c>
       <c r="H87" t="n">
-        <v>167.8653536335778</v>
+        <v>193.7393646361382</v>
       </c>
       <c r="I87" t="n">
-        <v>151.1674150517505</v>
+        <v>102.3100466613048</v>
       </c>
       <c r="J87" t="n">
-        <v>119.9806993198476</v>
+        <v>81.79021053360464</v>
       </c>
       <c r="K87" t="n">
-        <v>121.6045991560947</v>
+        <v>61.40890487214917</v>
       </c>
       <c r="L87" t="n">
-        <v>175.3054002165612</v>
+        <v>128.3466863931373</v>
       </c>
       <c r="M87" t="n">
-        <v>116.9945818437912</v>
+        <v>126.3532210531344</v>
       </c>
       <c r="N87" t="n">
-        <v>106.1401786845351</v>
+        <v>118.3859660523822</v>
       </c>
       <c r="O87" t="n">
-        <v>102.5267123749475</v>
+        <v>154.6356274780663</v>
       </c>
       <c r="P87" t="n">
-        <v>114.0945267986719</v>
+        <v>46.69107107973495</v>
       </c>
       <c r="Q87" t="n">
-        <v>107.6927415403584</v>
+        <v>147.411313808649</v>
       </c>
       <c r="R87" t="n">
-        <v>149.7047828872435</v>
+        <v>114.312274951547</v>
       </c>
       <c r="S87" t="n">
-        <v>149.2768046921564</v>
+        <v>132.8468173353631</v>
       </c>
       <c r="T87" t="n">
-        <v>108.4118963415155</v>
+        <v>157.4362728511217</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>60.97166904355878</v>
+        <v>82.01099653106954</v>
       </c>
       <c r="B88" t="n">
-        <v>60.95526079828346</v>
+        <v>52.04497005223234</v>
       </c>
       <c r="C88" t="n">
-        <v>114.6582246341827</v>
+        <v>46.33882371889737</v>
       </c>
       <c r="D88" t="n">
-        <v>66.47566738778259</v>
+        <v>115.0969316214515</v>
       </c>
       <c r="E88" t="n">
-        <v>96.90190008178728</v>
+        <v>58.39590410532019</v>
       </c>
       <c r="F88" t="n">
-        <v>74.64255852157994</v>
+        <v>88.25435856178112</v>
       </c>
       <c r="G88" t="n">
-        <v>66.25191755106441</v>
+        <v>126.4586134343259</v>
       </c>
       <c r="H88" t="n">
-        <v>146.7658604071546</v>
+        <v>98.35355477868261</v>
       </c>
       <c r="I88" t="n">
-        <v>127.3303899466049</v>
+        <v>69.18359237282721</v>
       </c>
       <c r="J88" t="n">
-        <v>88.07274856506949</v>
+        <v>54.77198480647115</v>
       </c>
       <c r="K88" t="n">
-        <v>90.27247291639198</v>
+        <v>50.28988262492661</v>
       </c>
       <c r="L88" t="n">
-        <v>155.2205662134208</v>
+        <v>46.28760425341244</v>
       </c>
       <c r="M88" t="n">
-        <v>83.95935332844</v>
+        <v>89.25472379013857</v>
       </c>
       <c r="N88" t="n">
-        <v>68.02336629211548</v>
+        <v>73.1356431279402</v>
       </c>
       <c r="O88" t="n">
-        <v>62.23477790545628</v>
+        <v>57.71072591942281</v>
       </c>
       <c r="P88" t="n">
-        <v>79.86865390088364</v>
+        <v>58.29842209594155</v>
       </c>
       <c r="Q88" t="n">
-        <v>70.42135621389794</v>
+        <v>64.22923266286178</v>
       </c>
       <c r="R88" t="n">
-        <v>125.5904568422417</v>
+        <v>78.42171775216102</v>
       </c>
       <c r="S88" t="n">
-        <v>125.0799954014489</v>
+        <v>105.0369365556629</v>
       </c>
       <c r="T88" t="n">
-        <v>71.51629254155837</v>
+        <v>69.14718820320343</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>151.3022317525021</v>
+        <v>205.3236680713355</v>
       </c>
       <c r="B89" t="n">
-        <v>151.2956203143943</v>
+        <v>100.1082460085131</v>
       </c>
       <c r="C89" t="n">
-        <v>179.7813376955275</v>
+        <v>106.9172265842173</v>
       </c>
       <c r="D89" t="n">
-        <v>153.6028491336723</v>
+        <v>76.54093816514609</v>
       </c>
       <c r="E89" t="n">
-        <v>169.0112397055039</v>
+        <v>141.5206241455599</v>
       </c>
       <c r="F89" t="n">
-        <v>157.3096705545406</v>
+        <v>183.8923888332258</v>
       </c>
       <c r="G89" t="n">
-        <v>153.5061480414502</v>
+        <v>106.2804832664096</v>
       </c>
       <c r="H89" t="n">
-        <v>201.7796785813254</v>
+        <v>146.641359281401</v>
       </c>
       <c r="I89" t="n">
-        <v>188.1165838284468</v>
+        <v>54.76351142172572</v>
       </c>
       <c r="J89" t="n">
-        <v>164.1085919357562</v>
+        <v>74.45996511337249</v>
       </c>
       <c r="K89" t="n">
-        <v>165.2995471069758</v>
+        <v>94.89488341663362</v>
       </c>
       <c r="L89" t="n">
-        <v>208.0102042760056</v>
+        <v>169.122352920995</v>
       </c>
       <c r="M89" t="n">
-        <v>161.9382410632536</v>
+        <v>209.4508026474919</v>
       </c>
       <c r="N89" t="n">
-        <v>154.2789657375299</v>
+        <v>53.45059362527225</v>
       </c>
       <c r="O89" t="n">
-        <v>151.8156398012802</v>
+        <v>164.9190560733659</v>
       </c>
       <c r="P89" t="n">
-        <v>159.8556310652513</v>
+        <v>105.471178116946</v>
       </c>
       <c r="Q89" t="n">
-        <v>155.3511773960381</v>
+        <v>98.5382340056136</v>
       </c>
       <c r="R89" t="n">
-        <v>186.9432634709622</v>
+        <v>45.91452416786689</v>
       </c>
       <c r="S89" t="n">
-        <v>186.6007131737633</v>
+        <v>223.7563526105484</v>
       </c>
       <c r="T89" t="n">
-        <v>155.8505726849291</v>
+        <v>186.0324815302512</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>17.48588470931383</v>
+        <v>35.122411777683</v>
       </c>
       <c r="B90" t="n">
-        <v>17.42858448345428</v>
+        <v>128.0461004298439</v>
       </c>
       <c r="C90" t="n">
-        <v>98.6646857511483</v>
+        <v>145.753548374816</v>
       </c>
       <c r="D90" t="n">
-        <v>31.73682549911465</v>
+        <v>189.2432499783987</v>
       </c>
       <c r="E90" t="n">
-        <v>77.31875566491506</v>
+        <v>135.8675941941281</v>
       </c>
       <c r="F90" t="n">
-        <v>46.47282303408775</v>
+        <v>62.31735238902635</v>
       </c>
       <c r="G90" t="n">
-        <v>31.26544925797785</v>
+        <v>184.6058295334931</v>
       </c>
       <c r="H90" t="n">
-        <v>134.6418564903297</v>
+        <v>178.3591379746879</v>
       </c>
       <c r="I90" t="n">
-        <v>113.1425646786593</v>
+        <v>169.5718742623799</v>
       </c>
       <c r="J90" t="n">
-        <v>65.91677159810014</v>
+        <v>149.3753093259674</v>
       </c>
       <c r="K90" t="n">
-        <v>68.82827256695373</v>
+        <v>131.6375659429847</v>
       </c>
       <c r="L90" t="n">
-        <v>143.8111119271564</v>
+        <v>74.12409244654137</v>
       </c>
       <c r="M90" t="n">
-        <v>60.31073494362327</v>
+        <v>16.52967287906418</v>
       </c>
       <c r="N90" t="n">
-        <v>34.8624454079381</v>
+        <v>176.8405482503994</v>
       </c>
       <c r="O90" t="n">
-        <v>21.47974206203651</v>
+        <v>108.3797260622646</v>
       </c>
       <c r="P90" t="n">
-        <v>54.47213612526395</v>
+        <v>126.5147638072801</v>
       </c>
       <c r="Q90" t="n">
-        <v>39.33674044852793</v>
+        <v>164.516252184006</v>
       </c>
       <c r="R90" t="n">
-        <v>111.1808193347806</v>
+        <v>180.6409514912822</v>
       </c>
       <c r="S90" t="n">
-        <v>110.603874198586</v>
+        <v>0.1871437628119021</v>
       </c>
       <c r="T90" t="n">
-        <v>41.26489836410492</v>
+        <v>88.1278679747091</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>72.35390572771539</v>
+        <v>75.37981413243394</v>
       </c>
       <c r="B91" t="n">
-        <v>72.34007925821351</v>
+        <v>42.36333693122116</v>
       </c>
       <c r="C91" t="n">
-        <v>121.0952175949181</v>
+        <v>81.34194226508086</v>
       </c>
       <c r="D91" t="n">
-        <v>77.04905971359393</v>
+        <v>107.1615429308013</v>
       </c>
       <c r="E91" t="n">
-        <v>104.4390802695933</v>
+        <v>92.78100718009527</v>
       </c>
       <c r="F91" t="n">
-        <v>84.19652481394553</v>
+        <v>54.16781548087593</v>
       </c>
       <c r="G91" t="n">
-        <v>76.85609817894021</v>
+        <v>110.0300502286702</v>
       </c>
       <c r="H91" t="n">
-        <v>151.8478219440445</v>
+        <v>133.9625907953461</v>
       </c>
       <c r="I91" t="n">
-        <v>133.1561919403387</v>
+        <v>84.65771271594723</v>
       </c>
       <c r="J91" t="n">
-        <v>96.30343860892927</v>
+        <v>63.26710685633136</v>
       </c>
       <c r="K91" t="n">
-        <v>98.31918741801411</v>
+        <v>45.28911472124391</v>
       </c>
       <c r="L91" t="n">
-        <v>160.0342695291006</v>
+        <v>57.57859643841368</v>
       </c>
       <c r="M91" t="n">
-        <v>92.55655708499366</v>
+        <v>73.6203169835828</v>
       </c>
       <c r="N91" t="n">
-        <v>78.3882746959593</v>
+        <v>94.39393652562585</v>
       </c>
       <c r="O91" t="n">
-        <v>73.42146027585756</v>
+        <v>84.53729244438442</v>
       </c>
       <c r="P91" t="n">
-        <v>88.8625068520858</v>
+        <v>42.95657660228451</v>
       </c>
       <c r="Q91" t="n">
-        <v>80.47801351364583</v>
+        <v>98.31337002966053</v>
       </c>
       <c r="R91" t="n">
-        <v>131.4933690265058</v>
+        <v>96.53756301170102</v>
       </c>
       <c r="S91" t="n">
-        <v>131.0059101633371</v>
+        <v>86.66369166003513</v>
       </c>
       <c r="T91" t="n">
-        <v>81.43784959702471</v>
+        <v>86.4830631692781</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>40.95699064657019</v>
+        <v>147.5659570801021</v>
       </c>
       <c r="B92" t="n">
-        <v>40.93256009404648</v>
+        <v>130.7417269168876</v>
       </c>
       <c r="C92" t="n">
-        <v>105.3870918714843</v>
+        <v>50.46305919397701</v>
       </c>
       <c r="D92" t="n">
-        <v>48.77442989433169</v>
+        <v>172.2547881500417</v>
       </c>
       <c r="E92" t="n">
-        <v>85.73160966835195</v>
+        <v>44.6962906599109</v>
       </c>
       <c r="F92" t="n">
-        <v>59.42593877687975</v>
+        <v>180.6825801224971</v>
       </c>
       <c r="G92" t="n">
-        <v>48.46903378507777</v>
+        <v>194.8540698855456</v>
       </c>
       <c r="H92" t="n">
-        <v>139.642931929684</v>
+        <v>14.32471664315311</v>
       </c>
       <c r="I92" t="n">
-        <v>119.0502367104763</v>
+        <v>102.4291789200707</v>
       </c>
       <c r="J92" t="n">
-        <v>75.60912442735946</v>
+        <v>111.0909124443854</v>
       </c>
       <c r="K92" t="n">
-        <v>78.16041212344454</v>
+        <v>125.5759191131752</v>
       </c>
       <c r="L92" t="n">
-        <v>148.5037199280911</v>
+        <v>106.3963121453863</v>
       </c>
       <c r="M92" t="n">
-        <v>70.775021499084</v>
+        <v>164.1107997159451</v>
       </c>
       <c r="N92" t="n">
-        <v>50.86363159053123</v>
+        <v>89.29263225170978</v>
       </c>
       <c r="O92" t="n">
-        <v>42.81469651658696</v>
+        <v>74.83006076322125</v>
       </c>
       <c r="P92" t="n">
-        <v>65.87057410411047</v>
+        <v>139.4709000121157</v>
       </c>
       <c r="Q92" t="n">
-        <v>54.02867819844084</v>
+        <v>41.16764046150904</v>
       </c>
       <c r="R92" t="n">
-        <v>117.1874289619366</v>
+        <v>98.8734241745865</v>
       </c>
       <c r="S92" t="n">
-        <v>116.6401985015991</v>
+        <v>180.4832980791839</v>
       </c>
       <c r="T92" t="n">
-        <v>55.44827098977687</v>
+        <v>100.1459107939962</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>64.41665931762135</v>
+        <v>172.7031311501486</v>
       </c>
       <c r="B93" t="n">
-        <v>64.40112879967231</v>
+        <v>55.35427862572469</v>
       </c>
       <c r="C93" t="n">
-        <v>116.5266924268767</v>
+        <v>113.6465511996601</v>
       </c>
       <c r="D93" t="n">
-        <v>69.64894777623229</v>
+        <v>14.49891249631706</v>
       </c>
       <c r="E93" t="n">
-        <v>99.10570019502366</v>
+        <v>146.1445423628811</v>
       </c>
       <c r="F93" t="n">
-        <v>77.48208253740161</v>
+        <v>130.3033031439429</v>
       </c>
       <c r="G93" t="n">
-        <v>69.43542432273505</v>
+        <v>41.03153842487338</v>
       </c>
       <c r="H93" t="n">
-        <v>148.2301566913346</v>
+        <v>169.5298856560539</v>
       </c>
       <c r="I93" t="n">
-        <v>129.015463319866</v>
+        <v>55.67682341281584</v>
       </c>
       <c r="J93" t="n">
-        <v>90.49182621370386</v>
+        <v>50.95848495866333</v>
       </c>
       <c r="K93" t="n">
-        <v>92.63412404792282</v>
+        <v>53.98373947628941</v>
       </c>
       <c r="L93" t="n">
-        <v>156.6058292251607</v>
+        <v>146.7742171864744</v>
       </c>
       <c r="M93" t="n">
-        <v>86.49355226266903</v>
+        <v>170.2765700714843</v>
       </c>
       <c r="N93" t="n">
-        <v>71.12763129330641</v>
+        <v>70.83974381544908</v>
       </c>
       <c r="O93" t="n">
-        <v>65.6134830094143</v>
+        <v>157.9150534137169</v>
       </c>
       <c r="P93" t="n">
-        <v>82.52856140527571</v>
+        <v>55.18339559795189</v>
       </c>
       <c r="Q93" t="n">
-        <v>73.42430784617538</v>
+        <v>116.7239983965451</v>
       </c>
       <c r="R93" t="n">
-        <v>127.298564098454</v>
+        <v>62.55510464335782</v>
       </c>
       <c r="S93" t="n">
-        <v>126.7949794799136</v>
+        <v>181.7167710759829</v>
       </c>
       <c r="T93" t="n">
-        <v>74.47510772449401</v>
+        <v>171.536134422899</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>172.5472860227594</v>
+        <v>20.00445347260118</v>
       </c>
       <c r="B94" t="n">
-        <v>172.5414886537421</v>
+        <v>99.52860304927509</v>
       </c>
       <c r="C94" t="n">
-        <v>197.9937624374196</v>
+        <v>98.00923797736149</v>
       </c>
       <c r="D94" t="n">
-        <v>174.5681409722684</v>
+        <v>165.2548163283136</v>
       </c>
       <c r="E94" t="n">
-        <v>188.2684246689374</v>
+        <v>86.67537986221062</v>
       </c>
       <c r="F94" t="n">
-        <v>177.838502666071</v>
+        <v>71.56577089436271</v>
       </c>
       <c r="G94" t="n">
-        <v>174.4830595417667</v>
+        <v>168.1838796533715</v>
       </c>
       <c r="H94" t="n">
-        <v>218.1633316323233</v>
+        <v>129.4715620664001</v>
       </c>
       <c r="I94" t="n">
-        <v>205.5919494820192</v>
+        <v>130.7267138388813</v>
       </c>
       <c r="J94" t="n">
-        <v>183.8799350871884</v>
+        <v>113.6461329447082</v>
       </c>
       <c r="K94" t="n">
-        <v>184.9436153380359</v>
+        <v>101.1226231155743</v>
       </c>
       <c r="L94" t="n">
-        <v>223.9384863382747</v>
+        <v>24.88995130652624</v>
       </c>
       <c r="M94" t="n">
-        <v>181.94558114775</v>
+        <v>32.8279105665487</v>
       </c>
       <c r="N94" t="n">
-        <v>175.1633519020859</v>
+        <v>135.110336798454</v>
       </c>
       <c r="O94" t="n">
-        <v>172.9976562523439</v>
+        <v>60.36634991788914</v>
       </c>
       <c r="P94" t="n">
-        <v>180.0944845457567</v>
+        <v>101.2652370834909</v>
       </c>
       <c r="Q94" t="n">
-        <v>176.1084577720995</v>
+        <v>116.6166065283499</v>
       </c>
       <c r="R94" t="n">
-        <v>204.5189094868874</v>
+        <v>140.3989986306212</v>
       </c>
       <c r="S94" t="n">
-        <v>204.2058440336347</v>
+        <v>49.22159528015563</v>
       </c>
       <c r="T94" t="n">
-        <v>176.5491477939002</v>
+        <v>44.54871368003928</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>49.85547390613792</v>
+        <v>150.1994140758846</v>
       </c>
       <c r="B95" t="n">
-        <v>49.83540580185022</v>
+        <v>101.6814112376543</v>
       </c>
       <c r="C95" t="n">
-        <v>109.1537096424626</v>
+        <v>178.3256074667157</v>
       </c>
       <c r="D95" t="n">
-        <v>56.45385909837729</v>
+        <v>113.7515959927017</v>
       </c>
       <c r="E95" t="n">
-        <v>90.32165904094664</v>
+        <v>195.5416103174386</v>
       </c>
       <c r="F95" t="n">
-        <v>65.87515005748237</v>
+        <v>74.49177621484863</v>
       </c>
       <c r="G95" t="n">
-        <v>56.19021651178585</v>
+        <v>89.89446698811278</v>
       </c>
       <c r="H95" t="n">
-        <v>142.5069880163802</v>
+        <v>235.0381210679124</v>
       </c>
       <c r="I95" t="n">
-        <v>122.3971080393764</v>
+        <v>150.660741812761</v>
       </c>
       <c r="J95" t="n">
-        <v>80.77643772941639</v>
+        <v>129.5200078760515</v>
       </c>
       <c r="K95" t="n">
-        <v>83.16936466565714</v>
+        <v>107.8624810748983</v>
       </c>
       <c r="L95" t="n">
-        <v>151.200026547826</v>
+        <v>154.951677978267</v>
       </c>
       <c r="M95" t="n">
-        <v>76.27055043578855</v>
+        <v>134.0505280090129</v>
       </c>
       <c r="N95" t="n">
-        <v>58.26836375049197</v>
+        <v>166.5510320232867</v>
       </c>
       <c r="O95" t="n">
-        <v>51.39252312729745</v>
+        <v>186.8354575247165</v>
       </c>
       <c r="P95" t="n">
-        <v>71.74277474692116</v>
+        <v>92.81094506074912</v>
       </c>
       <c r="Q95" t="n">
-        <v>61.05072696907905</v>
+        <v>192.0684189469703</v>
       </c>
       <c r="R95" t="n">
-        <v>120.5860137092661</v>
+        <v>162.7919152981113</v>
       </c>
       <c r="S95" t="n">
-        <v>120.0542756509522</v>
+        <v>134.6328786554627</v>
       </c>
       <c r="T95" t="n">
-        <v>62.31054446350226</v>
+        <v>183.7369136126163</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.602047455817655</v>
+        <v>53.98449500012848</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7522958727653869</v>
+        <v>96.42583609615629</v>
       </c>
       <c r="C96" t="n">
-        <v>97.11606770435118</v>
+        <v>132.7679739673601</v>
       </c>
       <c r="D96" t="n">
-        <v>26.53368584920931</v>
+        <v>153.7457109388727</v>
       </c>
       <c r="E96" t="n">
-        <v>75.33259831941356</v>
+        <v>132.4321678211302</v>
       </c>
       <c r="F96" t="n">
-        <v>43.08751179565738</v>
+        <v>24.07878009218125</v>
       </c>
       <c r="G96" t="n">
-        <v>25.9680324492724</v>
+        <v>147.0503164139577</v>
       </c>
       <c r="H96" t="n">
-        <v>133.5111976994657</v>
+        <v>176.1183290601757</v>
       </c>
       <c r="I96" t="n">
-        <v>111.7946793637688</v>
+        <v>143.3328197267587</v>
       </c>
       <c r="J96" t="n">
-        <v>63.57539752057692</v>
+        <v>121.3810422749188</v>
       </c>
       <c r="K96" t="n">
-        <v>66.58934972301616</v>
+        <v>100.9899350580199</v>
       </c>
       <c r="L96" t="n">
-        <v>142.7530956081457</v>
+        <v>74.36395362791174</v>
       </c>
       <c r="M96" t="n">
-        <v>57.74248991360918</v>
+        <v>36.10535089965435</v>
       </c>
       <c r="N96" t="n">
-        <v>30.20265703220067</v>
+        <v>153.1931243971747</v>
       </c>
       <c r="O96" t="n">
-        <v>12.57734912590475</v>
+        <v>111.2248577432965</v>
       </c>
       <c r="P96" t="n">
-        <v>51.61418415544861</v>
+        <v>93.26357011124674</v>
       </c>
       <c r="Q96" t="n">
-        <v>35.27307104716188</v>
+        <v>151.1750571980218</v>
       </c>
       <c r="R96" t="n">
-        <v>109.808856564197</v>
+        <v>155.3408042381851</v>
       </c>
       <c r="S96" t="n">
-        <v>109.2246647040855</v>
+        <v>38.69093508590527</v>
       </c>
       <c r="T96" t="n">
-        <v>37.41125805132975</v>
+        <v>98.34687719762573</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>84.98247174260266</v>
+        <v>120.5049643842763</v>
       </c>
       <c r="B97" t="n">
-        <v>84.97070022373445</v>
+        <v>131.1630405796683</v>
       </c>
       <c r="C97" t="n">
-        <v>129.0386940176771</v>
+        <v>55.00904314283022</v>
       </c>
       <c r="D97" t="n">
-        <v>89.0139900924349</v>
+        <v>182.9806974283165</v>
       </c>
       <c r="E97" t="n">
-        <v>113.5537507834315</v>
+        <v>26.10831080860354</v>
       </c>
       <c r="F97" t="n">
-        <v>95.2679779368308</v>
+        <v>164.9914791619366</v>
       </c>
       <c r="G97" t="n">
-        <v>88.8470182770251</v>
+        <v>201.8089457208816</v>
       </c>
       <c r="H97" t="n">
-        <v>158.2551542875536</v>
+        <v>25.3805918225818</v>
       </c>
       <c r="I97" t="n">
-        <v>140.4190310516329</v>
+        <v>116.273688544578</v>
       </c>
       <c r="J97" t="n">
-        <v>106.1192023967903</v>
+        <v>118.3705684428124</v>
       </c>
       <c r="K97" t="n">
-        <v>107.9518200122894</v>
+        <v>127.1606810663395</v>
       </c>
       <c r="L97" t="n">
-        <v>166.1261576427383</v>
+        <v>82.29774743248169</v>
       </c>
       <c r="M97" t="n">
-        <v>102.7309548717173</v>
+        <v>138.9542763321283</v>
       </c>
       <c r="N97" t="n">
-        <v>90.17568651935126</v>
+        <v>106.6718135981787</v>
       </c>
       <c r="O97" t="n">
-        <v>85.89321078214776</v>
+        <v>46.51017465840701</v>
       </c>
       <c r="P97" t="n">
-        <v>99.41568263339607</v>
+        <v>139.103458144141</v>
       </c>
       <c r="Q97" t="n">
-        <v>91.99806241725798</v>
+        <v>57.58678829516057</v>
       </c>
       <c r="R97" t="n">
-        <v>138.8432170736762</v>
+        <v>116.2845343945746</v>
       </c>
       <c r="S97" t="n">
-        <v>138.3816509771128</v>
+        <v>154.8299553010132</v>
       </c>
       <c r="T97" t="n">
-        <v>92.83887211946703</v>
+        <v>69.66416927114568</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>143.6259827580421</v>
+        <v>119.4216460694989</v>
       </c>
       <c r="B98" t="n">
-        <v>143.6190179476343</v>
+        <v>40.93791426929183</v>
       </c>
       <c r="C98" t="n">
-        <v>173.3706635319795</v>
+        <v>41.75445820901931</v>
       </c>
       <c r="D98" t="n">
-        <v>146.0475705101158</v>
+        <v>87.91908800856834</v>
       </c>
       <c r="E98" t="n">
-        <v>162.1753888132131</v>
+        <v>72.42282621901605</v>
       </c>
       <c r="F98" t="n">
-        <v>149.941288642934</v>
+        <v>111.528436062801</v>
       </c>
       <c r="G98" t="n">
-        <v>145.9458635126367</v>
+        <v>106.2245472283477</v>
       </c>
       <c r="H98" t="n">
-        <v>196.0895108829346</v>
+        <v>100.3269333625693</v>
       </c>
       <c r="I98" t="n">
-        <v>181.999743684464</v>
+        <v>31.58490923317754</v>
       </c>
       <c r="J98" t="n">
-        <v>157.0595031733581</v>
+        <v>22.89169176943666</v>
       </c>
       <c r="K98" t="n">
-        <v>158.3034992149474</v>
+        <v>35.26353900389773</v>
       </c>
       <c r="L98" t="n">
-        <v>202.4951917277818</v>
+        <v>83.40060604432762</v>
       </c>
       <c r="M98" t="n">
-        <v>154.7903469489812</v>
+        <v>125.0513901265624</v>
       </c>
       <c r="N98" t="n">
-        <v>146.758498421616</v>
+        <v>36.7634826358771</v>
       </c>
       <c r="O98" t="n">
-        <v>144.1667301363169</v>
+        <v>85.83470932572064</v>
       </c>
       <c r="P98" t="n">
-        <v>152.6102236850313</v>
+        <v>49.88272766567556</v>
       </c>
       <c r="Q98" t="n">
-        <v>147.8852457423013</v>
+        <v>50.98742319008162</v>
       </c>
       <c r="R98" t="n">
-        <v>180.7867289020384</v>
+        <v>40.96698754274271</v>
       </c>
       <c r="S98" t="n">
-        <v>180.4324908293476</v>
+        <v>140.1899317656351</v>
       </c>
       <c r="T98" t="n">
-        <v>148.4097658381883</v>
+        <v>103.0946876131356</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43.33421151251746</v>
+        <v>169.1189903855585</v>
       </c>
       <c r="B99" t="n">
-        <v>43.31112190236001</v>
+        <v>73.5893396487042</v>
       </c>
       <c r="C99" t="n">
-        <v>106.3335221730054</v>
+        <v>153.2069197970184</v>
       </c>
       <c r="D99" t="n">
-        <v>50.78704378190799</v>
+        <v>54.70508059630212</v>
       </c>
       <c r="E99" t="n">
-        <v>86.89239150187444</v>
+        <v>179.3836734374358</v>
       </c>
       <c r="F99" t="n">
-        <v>61.0886323639826</v>
+        <v>104.4298032404638</v>
       </c>
       <c r="G99" t="n">
-        <v>50.49382180670595</v>
+        <v>28.56859775191355</v>
       </c>
       <c r="H99" t="n">
-        <v>140.3585666872768</v>
+        <v>212.028550539281</v>
       </c>
       <c r="I99" t="n">
-        <v>119.8888554679241</v>
+        <v>108.2099694313302</v>
       </c>
       <c r="J99" t="n">
-        <v>76.92280871926276</v>
+        <v>92.33625238450382</v>
       </c>
       <c r="K99" t="n">
-        <v>79.43191315771678</v>
+        <v>77.78025539698218</v>
       </c>
       <c r="L99" t="n">
-        <v>149.1768535566738</v>
+        <v>157.7010373425388</v>
       </c>
       <c r="M99" t="n">
-        <v>72.17674468126258</v>
+        <v>159.2351018103631</v>
       </c>
       <c r="N99" t="n">
-        <v>52.7966648867677</v>
+        <v>124.7559436089942</v>
       </c>
       <c r="O99" t="n">
-        <v>45.09409099201142</v>
+        <v>180.8872760035488</v>
       </c>
       <c r="P99" t="n">
-        <v>67.37441159218737</v>
+        <v>65.91131432282496</v>
       </c>
       <c r="Q99" t="n">
-        <v>55.85227723610774</v>
+        <v>162.1865806844776</v>
       </c>
       <c r="R99" t="n">
-        <v>118.0392829158891</v>
+        <v>118.4497374180963</v>
       </c>
       <c r="S99" t="n">
-        <v>117.4960199797458</v>
+        <v>165.7619306049333</v>
       </c>
       <c r="T99" t="n">
-        <v>57.22665078740931</v>
+        <v>186.3855174086661</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>21.27613197136485</v>
+        <v>70.30953098665812</v>
       </c>
       <c r="B100" t="n">
-        <v>21.22906462123147</v>
+        <v>87.99792979066548</v>
       </c>
       <c r="C100" t="n">
-        <v>99.40642756868574</v>
+        <v>135.0335996824965</v>
       </c>
       <c r="D100" t="n">
-        <v>33.97269080241912</v>
+        <v>141.0139473778888</v>
       </c>
       <c r="E100" t="n">
-        <v>78.26306667366386</v>
+        <v>139.1036311342593</v>
       </c>
       <c r="F100" t="n">
-        <v>48.02750158350064</v>
+        <v>6.728987420729324</v>
       </c>
       <c r="G100" t="n">
-        <v>33.53275927952703</v>
+        <v>132.1632818812409</v>
       </c>
       <c r="H100" t="n">
-        <v>135.1863423085263</v>
+        <v>182.483194242958</v>
       </c>
       <c r="I100" t="n">
-        <v>113.7899713052962</v>
+        <v>137.7762266412484</v>
       </c>
       <c r="J100" t="n">
-        <v>67.02192481204654</v>
+        <v>115.0758225690535</v>
       </c>
       <c r="K100" t="n">
-        <v>69.88740038194577</v>
+        <v>93.22590951805915</v>
       </c>
       <c r="L100" t="n">
-        <v>144.3210086623588</v>
+        <v>84.77074608417311</v>
       </c>
       <c r="M100" t="n">
-        <v>61.51668372917626</v>
+        <v>53.49085227325035</v>
       </c>
       <c r="N100" t="n">
-        <v>36.90945309019063</v>
+        <v>149.1087504777378</v>
       </c>
       <c r="O100" t="n">
-        <v>24.6636766652326</v>
+        <v>120.9491159436091</v>
       </c>
       <c r="P100" t="n">
-        <v>55.80440163324757</v>
+        <v>83.48987430811057</v>
       </c>
       <c r="Q100" t="n">
-        <v>41.16183641081107</v>
+        <v>152.8476911939661</v>
       </c>
       <c r="R100" t="n">
-        <v>111.8395825079325</v>
+        <v>150.1905736718577</v>
       </c>
       <c r="S100" t="n">
-        <v>111.2660532926919</v>
+        <v>55.79601176420632</v>
       </c>
       <c r="T100" t="n">
-        <v>43.00824879712527</v>
+        <v>110.9187472931005</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>26.0013892275294</v>
+        <v>160.9934024926877</v>
       </c>
       <c r="B101" t="n">
-        <v>25.96288956936361</v>
+        <v>84.57728490097089</v>
       </c>
       <c r="C101" t="n">
-        <v>100.5238095779647</v>
+        <v>164.9427022869301</v>
       </c>
       <c r="D101" t="n">
-        <v>37.11525522551772</v>
+        <v>81.54375632960605</v>
       </c>
       <c r="E101" t="n">
-        <v>79.67751285817663</v>
+        <v>187.3112603010906</v>
       </c>
       <c r="F101" t="n">
-        <v>50.29949660236874</v>
+        <v>89.74157789189071</v>
       </c>
       <c r="G101" t="n">
-        <v>36.71300035406061</v>
+        <v>56.10573248812205</v>
       </c>
       <c r="H101" t="n">
-        <v>136.0100937315191</v>
+        <v>223.42966569418</v>
       </c>
       <c r="I101" t="n">
-        <v>114.7673996383933</v>
+        <v>127.5485669962518</v>
       </c>
       <c r="J101" t="n">
-        <v>68.66831041761671</v>
+        <v>108.7369013360593</v>
       </c>
       <c r="K101" t="n">
-        <v>71.46780521497034</v>
+        <v>90.02261626091369</v>
       </c>
       <c r="L101" t="n">
-        <v>145.092908136198</v>
+        <v>156.6131890057823</v>
       </c>
       <c r="M101" t="n">
-        <v>63.3064043137347</v>
+        <v>148.1815136870409</v>
       </c>
       <c r="N101" t="n">
-        <v>39.82092637691306</v>
+        <v>144.0053716954285</v>
       </c>
       <c r="O101" t="n">
-        <v>28.83912961144436</v>
+        <v>184.1489823136996</v>
       </c>
       <c r="P101" t="n">
-        <v>57.77135701836467</v>
+        <v>75.79445881662465</v>
       </c>
       <c r="Q101" t="n">
-        <v>43.79149719761725</v>
+        <v>176.2679719916296</v>
       </c>
       <c r="R101" t="n">
-        <v>112.8339074287831</v>
+        <v>138.8412365641253</v>
       </c>
       <c r="S101" t="n">
-        <v>112.2654580244106</v>
+        <v>152.2358859444567</v>
       </c>
       <c r="T101" t="n">
-        <v>45.53139482482362</v>
+        <v>185.8148389096679</v>
       </c>
     </row>
   </sheetData>
